--- a/les_animaux.xlsx
+++ b/les_animaux.xlsx
@@ -565,9 +565,6 @@
     <t>The racoon uses its formidable intelligence to find and eat garbage.</t>
   </si>
   <si>
-    <t>Most bees work long hours and lack union representation.</t>
-  </si>
-  <si>
     <t>moritz-kindler-24VowUjS7Jk-unsplash.jpg</t>
   </si>
   <si>
@@ -586,37 +583,40 @@
     <t>Most cows cannot perform long division.</t>
   </si>
   <si>
-    <t>La plupart des abeilles travaillent de longues heures et manquent de représentation syndicale.</t>
-  </si>
-  <si>
     <t>This eagle's parents want him to become a doctor; he flies in solitude and contemplates his future.</t>
   </si>
   <si>
-    <t>Les parents de cet aigle veulent qu'il devienne médecin ; il vole dans la solitude et contemple son avenir.</t>
-  </si>
-  <si>
     <t>Despite his many legs, this spider pursues a career in ballet.</t>
   </si>
   <si>
     <t>Malgré ses nombreuses pattes, cette araignée poursuit une carrière dans le ballet.</t>
   </si>
   <si>
-    <t>Le raton laveur utilise sa formidable intelligence pour trouver et manger des ordures.</t>
-  </si>
-  <si>
     <t>La mesure de ce renard peut être prise en litres.</t>
   </si>
   <si>
-    <t>This shark lacks confidence; he ponders his life choices.</t>
-  </si>
-  <si>
-    <t>Ce requin manque de confiance ; il réfléchit à ses choix de vie.</t>
-  </si>
-  <si>
     <t>Cette tortue semble crier sur le photographe.</t>
   </si>
   <si>
     <t>La plupart des vaches savent pas faire une division longue.</t>
+  </si>
+  <si>
+    <t>Les parents de cette aigle veulent qu'elle devienne médecin. Elle vole dans la solitude et pense au futur.</t>
+  </si>
+  <si>
+    <t>Ce requin manque de confiance en soi. Il réfléchit à son choix de vie.</t>
+  </si>
+  <si>
+    <t>This shark lacks confidence; he ponders his choice of lifestyle.</t>
+  </si>
+  <si>
+    <t>Most bees work hard for the colony, but without union representation.</t>
+  </si>
+  <si>
+    <t>La plupart des abeilles travaillent dur pour la colonie, mais sans être représentées par un syndicat professionnel.</t>
+  </si>
+  <si>
+    <t>Le raton laveur utilise sa formidable intelligence pour trouver et manger des déchets.</t>
   </si>
 </sst>
 </file>
@@ -682,8 +682,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -986,10 +986,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q84"/>
+  <dimension ref="A1:Q85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D43" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -998,8 +998,8 @@
     <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43.6640625" customWidth="1"/>
-    <col min="5" max="5" width="56.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="82.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="86.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="53.77734375" bestFit="1" customWidth="1"/>
@@ -1025,11 +1025,11 @@
       <c r="D1" t="s">
         <v>174</v>
       </c>
-      <c r="E1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>190</v>
+      <c r="E1" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>199</v>
       </c>
       <c r="G1" t="str">
         <f>CHAR(34) &amp; "name_fr" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;A1&amp;CHAR(34)</f>
@@ -1049,23 +1049,23 @@
       </c>
       <c r="K1" t="str">
         <f>CHAR(34) &amp; "desc_en" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;E1&amp;CHAR(34)</f>
-        <v>"desc_en":"Most bees work long hours and lack union representation."</v>
+        <v>"desc_en":"Most bees work hard for the colony, but without union representation."</v>
       </c>
       <c r="L1" t="str">
         <f>CHAR(34) &amp; "desc_fr" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;F1&amp;CHAR(34)</f>
-        <v>"desc_fr":"La plupart des abeilles travaillent de longues heures et manquent de représentation syndicale."</v>
+        <v>"desc_fr":"La plupart des abeilles travaillent dur pour la colonie, mais sans être représentées par un syndicat professionnel."</v>
       </c>
       <c r="N1" t="str">
         <f>"{" &amp; G1 &amp; "," &amp; H1 &amp; "," &amp; I1 &amp; "," &amp; J1 &amp; "," &amp; K1 &amp; "," &amp; L1 &amp; "}"</f>
-        <v>{"name_fr":"abeille","name_en":"bee","img_src":"dmitry-grigoriev-yxXpjF-RrnA-unsplash.jpg","img_attribution":"Photo by Dmitry Grigoriev on Unsplash","desc_en":"Most bees work long hours and lack union representation.","desc_fr":"La plupart des abeilles travaillent de longues heures et manquent de représentation syndicale."}</v>
+        <v>{"name_fr":"abeille","name_en":"bee","img_src":"dmitry-grigoriev-yxXpjF-RrnA-unsplash.jpg","img_attribution":"Photo by Dmitry Grigoriev on Unsplash","desc_en":"Most bees work hard for the colony, but without union representation.","desc_fr":"La plupart des abeilles travaillent dur pour la colonie, mais sans être représentées par un syndicat professionnel."}</v>
       </c>
       <c r="O1" t="str">
         <f>","</f>
         <v>,</v>
       </c>
-      <c r="Q1" s="4" t="str">
+      <c r="Q1" s="3" t="str">
         <f>N1&amp;O1</f>
-        <v>{"name_fr":"abeille","name_en":"bee","img_src":"dmitry-grigoriev-yxXpjF-RrnA-unsplash.jpg","img_attribution":"Photo by Dmitry Grigoriev on Unsplash","desc_en":"Most bees work long hours and lack union representation.","desc_fr":"La plupart des abeilles travaillent de longues heures et manquent de représentation syndicale."},</v>
+        <v>{"name_fr":"abeille","name_en":"bee","img_src":"dmitry-grigoriev-yxXpjF-RrnA-unsplash.jpg","img_attribution":"Photo by Dmitry Grigoriev on Unsplash","desc_en":"Most bees work hard for the colony, but without union representation.","desc_fr":"La plupart des abeilles travaillent dur pour la colonie, mais sans être représentées par un syndicat professionnel."},</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -1081,47 +1081,47 @@
       <c r="D2" t="s">
         <v>176</v>
       </c>
-      <c r="E2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F2" t="s">
-        <v>192</v>
+      <c r="E2" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>195</v>
       </c>
       <c r="G2" t="str">
-        <f t="shared" ref="G2:G65" si="0">CHAR(34) &amp; "name_fr" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;A2&amp;CHAR(34)</f>
+        <f t="shared" ref="G2:G8" si="0">CHAR(34) &amp; "name_fr" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;A2&amp;CHAR(34)</f>
         <v>"name_fr":"aigle "</v>
       </c>
       <c r="H2" t="str">
-        <f t="shared" ref="H2:H65" si="1">CHAR(34) &amp; "name_en" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;B2&amp;CHAR(34)</f>
+        <f t="shared" ref="H2:H8" si="1">CHAR(34) &amp; "name_en" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;B2&amp;CHAR(34)</f>
         <v>"name_en":"eagle"</v>
       </c>
       <c r="I2" t="str">
-        <f t="shared" ref="I2:I65" si="2">CHAR(34) &amp; "img_src" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;C2&amp;CHAR(34)</f>
+        <f t="shared" ref="I2:I8" si="2">CHAR(34) &amp; "img_src" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;C2&amp;CHAR(34)</f>
         <v>"img_src":"mathew-schwartz-OjQgsR1oyEw-unsplash.jpg"</v>
       </c>
       <c r="J2" t="str">
-        <f t="shared" ref="J2:J65" si="3">CHAR(34) &amp; "img_attribution" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;D2&amp;CHAR(34)</f>
+        <f t="shared" ref="J2:J8" si="3">CHAR(34) &amp; "img_attribution" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;D2&amp;CHAR(34)</f>
         <v>"img_attribution":"Photo by Mathew Schwartz on Unsplash"</v>
       </c>
       <c r="K2" t="str">
-        <f t="shared" ref="K2:K65" si="4">CHAR(34) &amp; "desc_en" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;E2&amp;CHAR(34)</f>
+        <f t="shared" ref="K2:K8" si="4">CHAR(34) &amp; "desc_en" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;E2&amp;CHAR(34)</f>
         <v>"desc_en":"This eagle's parents want him to become a doctor; he flies in solitude and contemplates his future."</v>
       </c>
       <c r="L2" t="str">
-        <f t="shared" ref="L2:L65" si="5">CHAR(34) &amp; "desc_fr" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;F2&amp;CHAR(34)</f>
-        <v>"desc_fr":"Les parents de cet aigle veulent qu'il devienne médecin ; il vole dans la solitude et contemple son avenir."</v>
+        <f t="shared" ref="L2:L8" si="5">CHAR(34) &amp; "desc_fr" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;F2&amp;CHAR(34)</f>
+        <v>"desc_fr":"Les parents de cette aigle veulent qu'elle devienne médecin. Elle vole dans la solitude et pense au futur."</v>
       </c>
       <c r="N2" t="str">
-        <f t="shared" ref="N2:N65" si="6">"{" &amp; G2 &amp; "," &amp; H2 &amp; "," &amp; I2 &amp; "," &amp; J2 &amp; "," &amp; K2 &amp; "," &amp; L2 &amp; "}"</f>
-        <v>{"name_fr":"aigle ","name_en":"eagle","img_src":"mathew-schwartz-OjQgsR1oyEw-unsplash.jpg","img_attribution":"Photo by Mathew Schwartz on Unsplash","desc_en":"This eagle's parents want him to become a doctor; he flies in solitude and contemplates his future.","desc_fr":"Les parents de cet aigle veulent qu'il devienne médecin ; il vole dans la solitude et contemple son avenir."}</v>
+        <f t="shared" ref="N2:N8" si="6">"{" &amp; G2 &amp; "," &amp; H2 &amp; "," &amp; I2 &amp; "," &amp; J2 &amp; "," &amp; K2 &amp; "," &amp; L2 &amp; "}"</f>
+        <v>{"name_fr":"aigle ","name_en":"eagle","img_src":"mathew-schwartz-OjQgsR1oyEw-unsplash.jpg","img_attribution":"Photo by Mathew Schwartz on Unsplash","desc_en":"This eagle's parents want him to become a doctor; he flies in solitude and contemplates his future.","desc_fr":"Les parents de cette aigle veulent qu'elle devienne médecin. Elle vole dans la solitude et pense au futur."}</v>
       </c>
       <c r="O2" t="str">
         <f>","</f>
         <v>,</v>
       </c>
-      <c r="Q2" s="4" t="str">
-        <f t="shared" ref="Q2:Q65" si="7">N2&amp;O2</f>
-        <v>{"name_fr":"aigle ","name_en":"eagle","img_src":"mathew-schwartz-OjQgsR1oyEw-unsplash.jpg","img_attribution":"Photo by Mathew Schwartz on Unsplash","desc_en":"This eagle's parents want him to become a doctor; he flies in solitude and contemplates his future.","desc_fr":"Les parents de cet aigle veulent qu'il devienne médecin ; il vole dans la solitude et contemple son avenir."},</v>
+      <c r="Q2" s="3" t="str">
+        <f t="shared" ref="Q2:Q8" si="7">N2&amp;O2</f>
+        <v>{"name_fr":"aigle ","name_en":"eagle","img_src":"mathew-schwartz-OjQgsR1oyEw-unsplash.jpg","img_attribution":"Photo by Mathew Schwartz on Unsplash","desc_en":"This eagle's parents want him to become a doctor; he flies in solitude and contemplates his future.","desc_fr":"Les parents de cette aigle veulent qu'elle devienne médecin. Elle vole dans la solitude et pense au futur."},</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -1138,10 +1138,10 @@
         <v>180</v>
       </c>
       <c r="E3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" si="0"/>
@@ -1172,2881 +1172,2836 @@
         <v>{"name_fr":"araignee","name_en":"spider","img_src":"ed-van-duijn-UUdJ-0LQs0M-unsplash.jpg","img_attribution":"Photo by Ed van duijn on Unsplash","desc_en":"Despite his many legs, this spider pursues a career in ballet.","desc_fr":"Malgré ses nombreuses pattes, cette araignée poursuit une carrière dans le ballet."}</v>
       </c>
       <c r="O3" t="str">
-        <f t="shared" ref="O3:O66" si="8">","</f>
-        <v>,</v>
-      </c>
-      <c r="Q3" s="4" t="str">
+        <f t="shared" ref="O3:O10" si="8">","</f>
+        <v>,</v>
+      </c>
+      <c r="Q3" s="3" t="str">
         <f t="shared" si="7"/>
         <v>{"name_fr":"araignee","name_en":"spider","img_src":"ed-van-duijn-UUdJ-0LQs0M-unsplash.jpg","img_attribution":"Photo by Ed van duijn on Unsplash","desc_en":"Despite his many legs, this spider pursues a career in ballet.","desc_fr":"Malgré ses nombreuses pattes, cette araignée poursuit une carrière dans le ballet."},</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>200</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>"name_fr":"autruche"</v>
+        <v>"name_fr":"raton laveur"</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="1"/>
-        <v>"name_en":"ostrich"</v>
+        <v>"name_en":"racoon"</v>
       </c>
       <c r="I4" t="str">
         <f t="shared" si="2"/>
-        <v>"img_src":""</v>
+        <v>"img_src":"moritz-kindler-24VowUjS7Jk-unsplash.jpg"</v>
       </c>
       <c r="J4" t="str">
         <f t="shared" si="3"/>
-        <v>"img_attribution":""</v>
+        <v>"img_attribution":"Photo by Moritz Kindler on Unsplash"</v>
       </c>
       <c r="K4" t="str">
         <f t="shared" si="4"/>
-        <v>"desc_en":""</v>
+        <v>"desc_en":"The racoon uses its formidable intelligence to find and eat garbage."</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" si="5"/>
-        <v>"desc_fr":""</v>
+        <v>"desc_fr":"Le raton laveur utilise sa formidable intelligence pour trouver et manger des déchets."</v>
       </c>
       <c r="N4" t="str">
         <f t="shared" si="6"/>
-        <v>{"name_fr":"autruche","name_en":"ostrich","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <v>{"name_fr":"raton laveur","name_en":"racoon","img_src":"moritz-kindler-24VowUjS7Jk-unsplash.jpg","img_attribution":"Photo by Moritz Kindler on Unsplash","desc_en":"The racoon uses its formidable intelligence to find and eat garbage.","desc_fr":"Le raton laveur utilise sa formidable intelligence pour trouver et manger des déchets."}</v>
       </c>
       <c r="O4" t="str">
         <f t="shared" si="8"/>
         <v>,</v>
       </c>
-      <c r="Q4" s="4" t="str">
+      <c r="Q4" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>{"name_fr":"autruche","name_en":"ostrich","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <v>{"name_fr":"raton laveur","name_en":"racoon","img_src":"moritz-kindler-24VowUjS7Jk-unsplash.jpg","img_attribution":"Photo by Moritz Kindler on Unsplash","desc_en":"The racoon uses its formidable intelligence to find and eat garbage.","desc_fr":"Le raton laveur utilise sa formidable intelligence pour trouver et manger des déchets."},</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E5" t="s">
+        <v>187</v>
+      </c>
+      <c r="F5" t="s">
+        <v>192</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>"name_fr":"baleine"</v>
+        <v>"name_fr":"renard"</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="1"/>
-        <v>"name_en":"whale"</v>
+        <v>"name_en":"fox"</v>
       </c>
       <c r="I5" t="str">
         <f t="shared" si="2"/>
-        <v>"img_src":""</v>
+        <v>"img_src":"dusan-veverkolog-nOsJYzXEG98-unsplash.jpg"</v>
       </c>
       <c r="J5" t="str">
         <f t="shared" si="3"/>
-        <v>"img_attribution":""</v>
+        <v>"img_attribution":"Photo by Dušan veverkolog on Unsplash"</v>
       </c>
       <c r="K5" t="str">
         <f t="shared" si="4"/>
-        <v>"desc_en":""</v>
+        <v>"desc_en":"The measure of this fox can be taken in liters."</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="5"/>
-        <v>"desc_fr":""</v>
+        <v>"desc_fr":"La mesure de ce renard peut être prise en litres."</v>
       </c>
       <c r="N5" t="str">
         <f t="shared" si="6"/>
-        <v>{"name_fr":"baleine","name_en":"whale","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <v>{"name_fr":"renard","name_en":"fox","img_src":"dusan-veverkolog-nOsJYzXEG98-unsplash.jpg","img_attribution":"Photo by Dušan veverkolog on Unsplash","desc_en":"The measure of this fox can be taken in liters.","desc_fr":"La mesure de ce renard peut être prise en litres."}</v>
       </c>
       <c r="O5" t="str">
         <f t="shared" si="8"/>
         <v>,</v>
       </c>
-      <c r="Q5" s="4" t="str">
+      <c r="Q5" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>{"name_fr":"baleine","name_en":"whale","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <v>{"name_fr":"renard","name_en":"fox","img_src":"dusan-veverkolog-nOsJYzXEG98-unsplash.jpg","img_attribution":"Photo by Dušan veverkolog on Unsplash","desc_en":"The measure of this fox can be taken in liters.","desc_fr":"La mesure de ce renard peut être prise en litres."},</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>196</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>"name_fr":"canard"</v>
+        <v>"name_fr":"requin"</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="1"/>
-        <v>"name_en":"duck"</v>
+        <v>"name_en":"shark"</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" si="2"/>
-        <v>"img_src":""</v>
+        <v>"img_src":"gerald-schombs-GBDkr3k96DE-unsplash.jpg"</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="3"/>
-        <v>"img_attribution":""</v>
+        <v>"img_attribution":"Photo by Gerald Schömbs on Unsplash"</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" si="4"/>
-        <v>"desc_en":""</v>
+        <v>"desc_en":"This shark lacks confidence; he ponders his choice of lifestyle."</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" si="5"/>
-        <v>"desc_fr":""</v>
+        <v>"desc_fr":"Ce requin manque de confiance en soi. Il réfléchit à son choix de vie."</v>
       </c>
       <c r="N6" t="str">
         <f t="shared" si="6"/>
-        <v>{"name_fr":"canard","name_en":"duck","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <v>{"name_fr":"requin","name_en":"shark","img_src":"gerald-schombs-GBDkr3k96DE-unsplash.jpg","img_attribution":"Photo by Gerald Schömbs on Unsplash","desc_en":"This shark lacks confidence; he ponders his choice of lifestyle.","desc_fr":"Ce requin manque de confiance en soi. Il réfléchit à son choix de vie."}</v>
       </c>
       <c r="O6" t="str">
         <f t="shared" si="8"/>
         <v>,</v>
       </c>
-      <c r="Q6" s="4" t="str">
+      <c r="Q6" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>{"name_fr":"canard","name_en":"duck","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <v>{"name_fr":"requin","name_en":"shark","img_src":"gerald-schombs-GBDkr3k96DE-unsplash.jpg","img_attribution":"Photo by Gerald Schömbs on Unsplash","desc_en":"This shark lacks confidence; he ponders his choice of lifestyle.","desc_fr":"Ce requin manque de confiance en soi. Il réfléchit à son choix de vie."},</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>118</v>
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F7" t="s">
+        <v>193</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>"name_fr":"cerf"</v>
+        <v>"name_fr":"tortue "</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="1"/>
-        <v>"name_en":"deer"</v>
+        <v>"name_en":"turtle"</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="2"/>
-        <v>"img_src":""</v>
+        <v>"img_src":"david-cadenas-VFTq3si9YVw-unsplash.jpg"</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" si="3"/>
-        <v>"img_attribution":""</v>
+        <v>"img_attribution":"Photo by David Cadenas on Unsplash"</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="4"/>
-        <v>"desc_en":""</v>
+        <v>"desc_en":"This turtle appears to be yelling at the photographer."</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" si="5"/>
-        <v>"desc_fr":""</v>
+        <v>"desc_fr":"Cette tortue semble crier sur le photographe."</v>
       </c>
       <c r="N7" t="str">
         <f t="shared" si="6"/>
-        <v>{"name_fr":"cerf","name_en":"deer","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <v>{"name_fr":"tortue ","name_en":"turtle","img_src":"david-cadenas-VFTq3si9YVw-unsplash.jpg","img_attribution":"Photo by David Cadenas on Unsplash","desc_en":"This turtle appears to be yelling at the photographer.","desc_fr":"Cette tortue semble crier sur le photographe."}</v>
       </c>
       <c r="O7" t="str">
         <f t="shared" si="8"/>
         <v>,</v>
       </c>
-      <c r="Q7" s="4" t="str">
+      <c r="Q7" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>{"name_fr":"cerf","name_en":"deer","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <v>{"name_fr":"tortue ","name_en":"turtle","img_src":"david-cadenas-VFTq3si9YVw-unsplash.jpg","img_attribution":"Photo by David Cadenas on Unsplash","desc_en":"This turtle appears to be yelling at the photographer.","desc_fr":"Cette tortue semble crier sur le photographe."},</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>74</v>
+      </c>
+      <c r="C8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D8" t="s">
+        <v>170</v>
+      </c>
+      <c r="E8" t="s">
+        <v>188</v>
+      </c>
+      <c r="F8" t="s">
+        <v>194</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>"name_fr":"Chameau "</v>
+        <v>"name_fr":"vache"</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="1"/>
-        <v>"name_en":"camel"</v>
+        <v>"name_en":"cow"</v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="2"/>
-        <v>"img_src":""</v>
+        <v>"img_src":"luke-stackpoole-RxHhxWnXmNs-unsplash.jpg"</v>
       </c>
       <c r="J8" t="str">
         <f t="shared" si="3"/>
-        <v>"img_attribution":""</v>
+        <v>"img_attribution":"Photo by Luke Stackpoole on Unsplash"</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="4"/>
-        <v>"desc_en":""</v>
+        <v>"desc_en":"Most cows cannot perform long division."</v>
       </c>
       <c r="L8" t="str">
         <f t="shared" si="5"/>
-        <v>"desc_fr":""</v>
+        <v>"desc_fr":"La plupart des vaches savent pas faire une division longue."</v>
       </c>
       <c r="N8" t="str">
         <f t="shared" si="6"/>
-        <v>{"name_fr":"Chameau ","name_en":"camel","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <v>{"name_fr":"vache","name_en":"cow","img_src":"luke-stackpoole-RxHhxWnXmNs-unsplash.jpg","img_attribution":"Photo by Luke Stackpoole on Unsplash","desc_en":"Most cows cannot perform long division.","desc_fr":"La plupart des vaches savent pas faire une division longue."}</v>
       </c>
       <c r="O8" t="str">
         <f t="shared" si="8"/>
         <v>,</v>
       </c>
-      <c r="Q8" s="4" t="str">
+      <c r="Q8" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>{"name_fr":"Chameau ","name_en":"camel","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <v>{"name_fr":"vache","name_en":"cow","img_src":"luke-stackpoole-RxHhxWnXmNs-unsplash.jpg","img_attribution":"Photo by Luke Stackpoole on Unsplash","desc_en":"Most cows cannot perform long division.","desc_fr":"La plupart des vaches savent pas faire une division longue."},</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" t="s">
-        <v>159</v>
-      </c>
-      <c r="G9" t="str">
-        <f t="shared" si="0"/>
-        <v>"name_fr":"chat"</v>
-      </c>
-      <c r="H9" t="str">
-        <f t="shared" si="1"/>
-        <v>"name_en":"cat"</v>
-      </c>
-      <c r="I9" t="str">
-        <f t="shared" si="2"/>
-        <v>"img_src":""</v>
-      </c>
-      <c r="J9" t="str">
-        <f t="shared" si="3"/>
-        <v>"img_attribution":""</v>
-      </c>
-      <c r="K9" t="str">
-        <f t="shared" si="4"/>
-        <v>"desc_en":"the cat thinks only of your demise"</v>
-      </c>
-      <c r="L9" t="str">
-        <f t="shared" si="5"/>
-        <v>"desc_fr":""</v>
-      </c>
-      <c r="N9" t="str">
-        <f t="shared" si="6"/>
-        <v>{"name_fr":"chat","name_en":"cat","img_src":"","img_attribution":"","desc_en":"the cat thinks only of your demise","desc_fr":""}</v>
-      </c>
-      <c r="O9" t="str">
-        <f t="shared" si="8"/>
-        <v>,</v>
-      </c>
-      <c r="Q9" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>{"name_fr":"chat","name_en":"cat","img_src":"","img_attribution":"","desc_en":"the cat thinks only of your demise","desc_fr":""},</v>
-      </c>
+      <c r="Q9" s="3"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" t="s">
-        <v>160</v>
+        <v>69</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" si="0"/>
-        <v>"name_fr":"chauve souris"</v>
+        <f t="shared" ref="G10:G73" si="9">CHAR(34) &amp; "name_fr" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;A10&amp;CHAR(34)</f>
+        <v>"name_fr":"Veau "</v>
       </c>
       <c r="H10" t="str">
-        <f t="shared" si="1"/>
-        <v>"name_en":"bat"</v>
+        <f t="shared" ref="H10:H73" si="10">CHAR(34) &amp; "name_en" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;B10&amp;CHAR(34)</f>
+        <v>"name_en":"calf"</v>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="I10:I73" si="11">CHAR(34) &amp; "img_src" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;C10&amp;CHAR(34)</f>
         <v>"img_src":""</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="J10:J73" si="12">CHAR(34) &amp; "img_attribution" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;D10&amp;CHAR(34)</f>
         <v>"img_attribution":""</v>
       </c>
       <c r="K10" t="str">
-        <f t="shared" si="4"/>
-        <v>"desc_en":"this bat extends the life of darkness"</v>
+        <f t="shared" ref="K10:K73" si="13">CHAR(34) &amp; "desc_en" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;E10&amp;CHAR(34)</f>
+        <v>"desc_en":""</v>
       </c>
       <c r="L10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="L10:L73" si="14">CHAR(34) &amp; "desc_fr" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;F10&amp;CHAR(34)</f>
         <v>"desc_fr":""</v>
       </c>
       <c r="N10" t="str">
-        <f t="shared" si="6"/>
-        <v>{"name_fr":"chauve souris","name_en":"bat","img_src":"","img_attribution":"","desc_en":"this bat extends the life of darkness","desc_fr":""}</v>
+        <f t="shared" ref="N10:N73" si="15">"{" &amp; G10 &amp; "," &amp; H10 &amp; "," &amp; I10 &amp; "," &amp; J10 &amp; "," &amp; K10 &amp; "," &amp; L10 &amp; "}"</f>
+        <v>{"name_fr":"Veau ","name_en":"calf","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O10" t="str">
         <f t="shared" si="8"/>
         <v>,</v>
       </c>
-      <c r="Q10" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>{"name_fr":"chauve souris","name_en":"bat","img_src":"","img_attribution":"","desc_en":"this bat extends the life of darkness","desc_fr":""},</v>
+      <c r="Q10" s="3" t="str">
+        <f t="shared" ref="Q10:Q73" si="16">N10&amp;O10</f>
+        <v>{"name_fr":"Veau ","name_en":"calf","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="0"/>
-        <v>"name_fr":"cheval"</v>
+        <f t="shared" si="9"/>
+        <v>"name_fr":"ver"</v>
       </c>
       <c r="H11" t="str">
-        <f t="shared" si="1"/>
-        <v>"name_en":"horse"</v>
+        <f t="shared" si="10"/>
+        <v>"name_en":"worm"</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>"img_src":""</v>
       </c>
       <c r="J11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N11" t="str">
-        <f t="shared" si="6"/>
-        <v>{"name_fr":"cheval","name_en":"horse","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="15"/>
+        <v>{"name_fr":"ver","name_en":"worm","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O11" t="str">
-        <f t="shared" si="8"/>
-        <v>,</v>
-      </c>
-      <c r="Q11" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>{"name_fr":"cheval","name_en":"horse","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" ref="O11:O27" si="17">","</f>
+        <v>,</v>
+      </c>
+      <c r="Q11" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>{"name_fr":"ver","name_en":"worm","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="G12" t="str">
-        <f t="shared" si="0"/>
-        <v>"name_fr":"chevre"</v>
+        <f t="shared" si="9"/>
+        <v>"name_fr":"Zèbre "</v>
       </c>
       <c r="H12" t="str">
-        <f t="shared" si="1"/>
-        <v>"name_en":"goat"</v>
+        <f t="shared" si="10"/>
+        <v>"name_en":"zebra"</v>
       </c>
       <c r="I12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>"img_src":""</v>
       </c>
       <c r="J12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N12" t="str">
-        <f t="shared" si="6"/>
-        <v>{"name_fr":"chevre","name_en":"goat","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="15"/>
+        <v>{"name_fr":"Zèbre ","name_en":"zebra","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O12" t="str">
-        <f t="shared" si="8"/>
-        <v>,</v>
-      </c>
-      <c r="Q12" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>{"name_fr":"chevre","name_en":"goat","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="17"/>
+        <v>,</v>
+      </c>
+      <c r="Q12" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>{"name_fr":"Zèbre ","name_en":"zebra","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" si="0"/>
-        <v>"name_fr":"chien"</v>
+        <f t="shared" si="9"/>
+        <v>"name_fr":"bouquetin"</v>
       </c>
       <c r="H13" t="str">
-        <f t="shared" si="1"/>
-        <v>"name_en":"dog"</v>
+        <f t="shared" si="10"/>
+        <v>"name_en":"ibex"</v>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>"img_src":""</v>
       </c>
       <c r="J13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N13" t="str">
-        <f t="shared" si="6"/>
-        <v>{"name_fr":"chien","name_en":"dog","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="15"/>
+        <v>{"name_fr":"bouquetin","name_en":"ibex","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O13" t="str">
-        <f t="shared" si="8"/>
-        <v>,</v>
-      </c>
-      <c r="Q13" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>{"name_fr":"chien","name_en":"dog","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="17"/>
+        <v>,</v>
+      </c>
+      <c r="Q13" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>{"name_fr":"bouquetin","name_en":"ibex","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="G14" t="str">
-        <f t="shared" si="0"/>
-        <v>"name_fr":"chimpanzee"</v>
+        <f t="shared" si="9"/>
+        <v>"name_fr":"nandou"</v>
       </c>
       <c r="H14" t="str">
-        <f t="shared" si="1"/>
-        <v>"name_en":"chimp"</v>
+        <f t="shared" si="10"/>
+        <v>"name_en":"rhea"</v>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>"img_src":""</v>
       </c>
       <c r="J14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N14" t="str">
-        <f t="shared" si="6"/>
-        <v>{"name_fr":"chimpanzee","name_en":"chimp","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="15"/>
+        <v>{"name_fr":"nandou","name_en":"rhea","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O14" t="str">
-        <f t="shared" si="8"/>
-        <v>,</v>
-      </c>
-      <c r="Q14" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>{"name_fr":"chimpanzee","name_en":"chimp","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="17"/>
+        <v>,</v>
+      </c>
+      <c r="Q14" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>{"name_fr":"nandou","name_en":"rhea","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="0"/>
-        <v>"name_fr":"chouette"</v>
+        <f t="shared" si="9"/>
+        <v>"name_fr":"orang-outang"</v>
       </c>
       <c r="H15" t="str">
-        <f t="shared" si="1"/>
-        <v>"name_en":"owl"</v>
+        <f t="shared" si="10"/>
+        <v>"name_en":"orangutan"</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>"img_src":""</v>
       </c>
       <c r="J15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N15" t="str">
-        <f t="shared" si="6"/>
-        <v>{"name_fr":"chouette","name_en":"owl","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="15"/>
+        <v>{"name_fr":"orang-outang","name_en":"orangutan","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O15" t="str">
-        <f t="shared" si="8"/>
-        <v>,</v>
-      </c>
-      <c r="Q15" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>{"name_fr":"chouette","name_en":"owl","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="17"/>
+        <v>,</v>
+      </c>
+      <c r="Q15" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>{"name_fr":"orang-outang","name_en":"orangutan","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>139</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="G16" t="str">
-        <f t="shared" si="0"/>
-        <v>"name_fr":"coccinelle"</v>
+        <f t="shared" si="9"/>
+        <v>"name_fr":"wapati"</v>
       </c>
       <c r="H16" t="str">
-        <f t="shared" si="1"/>
-        <v>"name_en":"ladybuy"</v>
+        <f t="shared" si="10"/>
+        <v>"name_en":"elephant"</v>
       </c>
       <c r="I16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>"img_src":""</v>
       </c>
       <c r="J16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K16" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N16" t="str">
-        <f t="shared" si="6"/>
-        <v>{"name_fr":"coccinelle","name_en":"ladybuy","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="15"/>
+        <v>{"name_fr":"wapati","name_en":"elephant","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O16" t="str">
-        <f t="shared" si="8"/>
-        <v>,</v>
-      </c>
-      <c r="Q16" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>{"name_fr":"coccinelle","name_en":"ladybuy","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="17"/>
+        <v>,</v>
+      </c>
+      <c r="Q16" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>{"name_fr":"wapati","name_en":"elephant","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" t="s">
-        <v>71</v>
+      <c r="A17" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="G17" t="str">
-        <f t="shared" si="0"/>
-        <v>"name_fr":"cochon"</v>
+        <f t="shared" si="9"/>
+        <v>"name_fr":"urubu"</v>
       </c>
       <c r="H17" t="str">
-        <f t="shared" si="1"/>
-        <v>"name_en":"pig"</v>
+        <f t="shared" si="10"/>
+        <v>"name_en":"vulture"</v>
       </c>
       <c r="I17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>"img_src":""</v>
       </c>
       <c r="J17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N17" t="str">
-        <f t="shared" si="6"/>
-        <v>{"name_fr":"cochon","name_en":"pig","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="15"/>
+        <v>{"name_fr":"urubu","name_en":"vulture","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O17" t="str">
-        <f t="shared" si="8"/>
-        <v>,</v>
-      </c>
-      <c r="Q17" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>{"name_fr":"cochon","name_en":"pig","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="17"/>
+        <v>,</v>
+      </c>
+      <c r="Q17" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>{"name_fr":"urubu","name_en":"vulture","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>104</v>
-      </c>
-      <c r="B18" t="s">
-        <v>108</v>
+      <c r="A18" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="G18" t="str">
-        <f t="shared" si="0"/>
-        <v>"name_fr":"coquillage"</v>
+        <f t="shared" si="9"/>
+        <v>"name_fr":"xerus"</v>
       </c>
       <c r="H18" t="str">
-        <f t="shared" si="1"/>
-        <v>"name_en":"shellfish"</v>
+        <f t="shared" si="10"/>
+        <v>"name_en":"squirrel"</v>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>"img_src":""</v>
       </c>
       <c r="J18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N18" t="str">
-        <f t="shared" si="6"/>
-        <v>{"name_fr":"coquillage","name_en":"shellfish","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="15"/>
+        <v>{"name_fr":"xerus","name_en":"squirrel","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O18" t="str">
-        <f t="shared" si="8"/>
-        <v>,</v>
-      </c>
-      <c r="Q18" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>{"name_fr":"coquillage","name_en":"shellfish","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="17"/>
+        <v>,</v>
+      </c>
+      <c r="Q18" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>{"name_fr":"xerus","name_en":"squirrel","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>121</v>
-      </c>
-      <c r="B19" t="s">
-        <v>122</v>
-      </c>
-      <c r="E19" t="s">
-        <v>164</v>
+      <c r="A19" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" si="0"/>
-        <v>"name_fr":"corbeau"</v>
+        <f t="shared" si="9"/>
+        <v>"name_fr":"yak"</v>
       </c>
       <c r="H19" t="str">
-        <f t="shared" si="1"/>
-        <v>"name_en":"raven"</v>
+        <f t="shared" si="10"/>
+        <v>"name_en":"yak"</v>
       </c>
       <c r="I19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>"img_src":""</v>
       </c>
       <c r="J19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K19" t="str">
-        <f t="shared" si="4"/>
-        <v>"desc_en":"the ravens celebrate death"</v>
+        <f t="shared" si="13"/>
+        <v>"desc_en":""</v>
       </c>
       <c r="L19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N19" t="str">
-        <f t="shared" si="6"/>
-        <v>{"name_fr":"corbeau","name_en":"raven","img_src":"","img_attribution":"","desc_en":"the ravens celebrate death","desc_fr":""}</v>
+        <f t="shared" si="15"/>
+        <v>{"name_fr":"yak","name_en":"yak","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O19" t="str">
-        <f t="shared" si="8"/>
-        <v>,</v>
-      </c>
-      <c r="Q19" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>{"name_fr":"corbeau","name_en":"raven","img_src":"","img_attribution":"","desc_en":"the ravens celebrate death","desc_fr":""},</v>
+        <f t="shared" si="17"/>
+        <v>,</v>
+      </c>
+      <c r="Q19" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>{"name_fr":"yak","name_en":"yak","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" t="s">
-        <v>40</v>
+      <c r="A20" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="G20" t="str">
-        <f t="shared" si="0"/>
-        <v>"name_fr":"coyote"</v>
+        <f t="shared" si="9"/>
+        <v>"name_fr":"koala"</v>
       </c>
       <c r="H20" t="str">
-        <f t="shared" si="1"/>
-        <v>"name_en":"coyote"</v>
+        <f t="shared" si="10"/>
+        <v>"name_en":"koala"</v>
       </c>
       <c r="I20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>"img_src":""</v>
       </c>
       <c r="J20" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L20" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N20" t="str">
-        <f t="shared" si="6"/>
-        <v>{"name_fr":"coyote","name_en":"coyote","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="15"/>
+        <v>{"name_fr":"koala","name_en":"koala","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O20" t="str">
-        <f t="shared" si="8"/>
-        <v>,</v>
-      </c>
-      <c r="Q20" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>{"name_fr":"coyote","name_en":"coyote","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="17"/>
+        <v>,</v>
+      </c>
+      <c r="Q20" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>{"name_fr":"koala","name_en":"koala","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>103</v>
-      </c>
-      <c r="B21" t="s">
-        <v>111</v>
+      <c r="A21" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="G21" t="str">
-        <f t="shared" si="0"/>
-        <v>"name_fr":"Crabe "</v>
+        <f t="shared" si="9"/>
+        <v>"name_fr":"frelon"</v>
       </c>
       <c r="H21" t="str">
-        <f t="shared" si="1"/>
-        <v>"name_en":"crab"</v>
+        <f t="shared" si="10"/>
+        <v>"name_en":"hornet"</v>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>"img_src":""</v>
       </c>
       <c r="J21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N21" t="str">
-        <f t="shared" si="6"/>
-        <v>{"name_fr":"Crabe ","name_en":"crab","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="15"/>
+        <v>{"name_fr":"frelon","name_en":"hornet","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O21" t="str">
-        <f t="shared" si="8"/>
-        <v>,</v>
-      </c>
-      <c r="Q21" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>{"name_fr":"Crabe ","name_en":"crab","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="17"/>
+        <v>,</v>
+      </c>
+      <c r="Q21" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>{"name_fr":"frelon","name_en":"hornet","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" t="s">
-        <v>37</v>
+      <c r="A22" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" si="0"/>
-        <v>"name_fr":"dauphin"</v>
+        <f t="shared" si="9"/>
+        <v>"name_fr":"tigresse"</v>
       </c>
       <c r="H22" t="str">
-        <f t="shared" si="1"/>
-        <v>"name_en":"dolphin"</v>
+        <f t="shared" si="10"/>
+        <v>"name_en":"tigress"</v>
       </c>
       <c r="I22" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>"img_src":""</v>
       </c>
       <c r="J22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N22" t="str">
-        <f t="shared" si="6"/>
-        <v>{"name_fr":"dauphin","name_en":"dolphin","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="15"/>
+        <v>{"name_fr":"tigresse","name_en":"tigress","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O22" t="str">
-        <f t="shared" si="8"/>
-        <v>,</v>
-      </c>
-      <c r="Q22" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>{"name_fr":"dauphin","name_en":"dolphin","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="17"/>
+        <v>,</v>
+      </c>
+      <c r="Q22" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>{"name_fr":"tigresse","name_en":"tigress","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>75</v>
-      </c>
-      <c r="B23" t="s">
-        <v>76</v>
+      <c r="A23" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="G23" t="str">
-        <f t="shared" si="0"/>
-        <v>"name_fr":"dinde"</v>
+        <f t="shared" si="9"/>
+        <v>"name_fr":"lionesse"</v>
       </c>
       <c r="H23" t="str">
-        <f t="shared" si="1"/>
-        <v>"name_en":"turkey"</v>
+        <f t="shared" si="10"/>
+        <v>"name_en":"lioness"</v>
       </c>
       <c r="I23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>"img_src":""</v>
       </c>
       <c r="J23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N23" t="str">
-        <f t="shared" si="6"/>
-        <v>{"name_fr":"dinde","name_en":"turkey","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="15"/>
+        <v>{"name_fr":"lionesse","name_en":"lioness","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O23" t="str">
-        <f t="shared" si="8"/>
-        <v>,</v>
-      </c>
-      <c r="Q23" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>{"name_fr":"dinde","name_en":"turkey","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="17"/>
+        <v>,</v>
+      </c>
+      <c r="Q23" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>{"name_fr":"lionesse","name_en":"lioness","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" t="s">
-        <v>42</v>
+      <c r="A24" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="G24" t="str">
-        <f t="shared" si="0"/>
-        <v>"name_fr":"ecureuil"</v>
+        <f t="shared" si="9"/>
+        <v>"name_fr":"termite"</v>
       </c>
       <c r="H24" t="str">
-        <f t="shared" si="1"/>
-        <v>"name_en":"squirell"</v>
+        <f t="shared" si="10"/>
+        <v>"name_en":"termite"</v>
       </c>
       <c r="I24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>"img_src":""</v>
       </c>
       <c r="J24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L24" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N24" t="str">
-        <f t="shared" si="6"/>
-        <v>{"name_fr":"ecureuil","name_en":"squirell","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="15"/>
+        <v>{"name_fr":"termite","name_en":"termite","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O24" t="str">
-        <f t="shared" si="8"/>
-        <v>,</v>
-      </c>
-      <c r="Q24" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>{"name_fr":"ecureuil","name_en":"squirell","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="17"/>
+        <v>,</v>
+      </c>
+      <c r="Q24" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>{"name_fr":"termite","name_en":"termite","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>77</v>
+      <c r="A25" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="B25" t="s">
-        <v>93</v>
-      </c>
-      <c r="E25" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="G25" t="str">
-        <f t="shared" si="0"/>
-        <v>"name_fr":"Éléphant "</v>
+        <f t="shared" si="9"/>
+        <v>"name_fr":"thon"</v>
       </c>
       <c r="H25" t="str">
-        <f t="shared" si="1"/>
-        <v>"name_en":"elephant"</v>
+        <f t="shared" si="10"/>
+        <v>"name_en":"tuna"</v>
       </c>
       <c r="I25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>"img_src":""</v>
       </c>
       <c r="J25" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K25" t="str">
-        <f t="shared" si="4"/>
-        <v>"desc_en":"this elephant has chosen to wear a hat"</v>
+        <f t="shared" si="13"/>
+        <v>"desc_en":""</v>
       </c>
       <c r="L25" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N25" t="str">
-        <f t="shared" si="6"/>
-        <v>{"name_fr":"Éléphant ","name_en":"elephant","img_src":"","img_attribution":"","desc_en":"this elephant has chosen to wear a hat","desc_fr":""}</v>
+        <f t="shared" si="15"/>
+        <v>{"name_fr":"thon","name_en":"tuna","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O25" t="str">
-        <f t="shared" si="8"/>
-        <v>,</v>
-      </c>
-      <c r="Q25" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>{"name_fr":"Éléphant ","name_en":"elephant","img_src":"","img_attribution":"","desc_en":"this elephant has chosen to wear a hat","desc_fr":""},</v>
+        <f t="shared" si="17"/>
+        <v>,</v>
+      </c>
+      <c r="Q25" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>{"name_fr":"thon","name_en":"tuna","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>99</v>
+      <c r="A26" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="B26" t="s">
-        <v>102</v>
+        <v>154</v>
       </c>
       <c r="G26" t="str">
-        <f t="shared" si="0"/>
-        <v>"name_fr":"escargot"</v>
+        <f t="shared" si="9"/>
+        <v>"name_fr":"truite"</v>
       </c>
       <c r="H26" t="str">
-        <f t="shared" si="1"/>
-        <v>"name_en":"snail"</v>
+        <f t="shared" si="10"/>
+        <v>"name_en":"trout"</v>
       </c>
       <c r="I26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>"img_src":""</v>
       </c>
       <c r="J26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N26" t="str">
-        <f t="shared" si="6"/>
-        <v>{"name_fr":"escargot","name_en":"snail","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="15"/>
+        <v>{"name_fr":"truite","name_en":"trout","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O26" t="str">
-        <f t="shared" si="8"/>
-        <v>,</v>
-      </c>
-      <c r="Q26" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>{"name_fr":"escargot","name_en":"snail","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="17"/>
+        <v>,</v>
+      </c>
+      <c r="Q26" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>{"name_fr":"truite","name_en":"trout","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>11</v>
+      <c r="A27" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="G27" t="str">
-        <f t="shared" si="0"/>
-        <v>"name_fr":"fourmi"</v>
+        <f t="shared" si="9"/>
+        <v>"name_fr":"loutre"</v>
       </c>
       <c r="H27" t="str">
-        <f t="shared" si="1"/>
-        <v>"name_en":"ant"</v>
+        <f t="shared" si="10"/>
+        <v>"name_en":"otter"</v>
       </c>
       <c r="I27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>"img_src":""</v>
       </c>
       <c r="J27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K27" t="str">
-        <f t="shared" si="4"/>
-        <v>"desc_en":"ants commit genocide"</v>
+        <f t="shared" si="13"/>
+        <v>"desc_en":""</v>
       </c>
       <c r="L27" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N27" t="str">
-        <f t="shared" si="6"/>
-        <v>{"name_fr":"fourmi","name_en":"ant","img_src":"","img_attribution":"","desc_en":"ants commit genocide","desc_fr":""}</v>
+        <f t="shared" si="15"/>
+        <v>{"name_fr":"loutre","name_en":"otter","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O27" t="str">
-        <f t="shared" si="8"/>
-        <v>,</v>
-      </c>
-      <c r="Q27" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>{"name_fr":"fourmi","name_en":"ant","img_src":"","img_attribution":"","desc_en":"ants commit genocide","desc_fr":""},</v>
+        <f t="shared" si="17"/>
+        <v>,</v>
+      </c>
+      <c r="Q27" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>{"name_fr":"loutre","name_en":"otter","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>78</v>
+      <c r="A28" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="B28" t="s">
-        <v>92</v>
-      </c>
-      <c r="E28" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G28" t="str">
-        <f t="shared" si="0"/>
-        <v>"name_fr":"Girafe "</v>
+        <f t="shared" si="9"/>
+        <v>"name_fr":"etoile de mer"</v>
       </c>
       <c r="H28" t="str">
-        <f t="shared" si="1"/>
-        <v>"name_en":"giraffe"</v>
+        <f t="shared" si="10"/>
+        <v>"name_en":"starfish"</v>
       </c>
       <c r="I28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>"img_src":""</v>
       </c>
       <c r="J28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K28" t="str">
-        <f t="shared" si="4"/>
-        <v>"desc_en":"the giraffe enjoys dinner parties"</v>
+        <f t="shared" si="13"/>
+        <v>"desc_en":""</v>
       </c>
       <c r="L28" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N28" t="str">
-        <f t="shared" si="6"/>
-        <v>{"name_fr":"Girafe ","name_en":"giraffe","img_src":"","img_attribution":"","desc_en":"the giraffe enjoys dinner parties","desc_fr":""}</v>
-      </c>
-      <c r="O28" t="str">
-        <f t="shared" si="8"/>
-        <v>,</v>
-      </c>
-      <c r="Q28" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>{"name_fr":"Girafe ","name_en":"giraffe","img_src":"","img_attribution":"","desc_en":"the giraffe enjoys dinner parties","desc_fr":""},</v>
+        <f t="shared" si="15"/>
+        <v>{"name_fr":"etoile de mer","name_en":"starfish","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+      </c>
+      <c r="Q28" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>{"name_fr":"etoile de mer","name_en":"starfish","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="B29" t="s">
-        <v>127</v>
-      </c>
-      <c r="E29" t="s">
-        <v>167</v>
+        <v>91</v>
       </c>
       <c r="G29" t="str">
-        <f t="shared" si="0"/>
-        <v>"name_fr":"gorille"</v>
+        <f t="shared" si="9"/>
+        <v>"name_fr":"Rhinocéros "</v>
       </c>
       <c r="H29" t="str">
-        <f t="shared" si="1"/>
-        <v>"name_en":"gorilla"</v>
+        <f t="shared" si="10"/>
+        <v>"name_en":"rhino"</v>
       </c>
       <c r="I29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>"img_src":""</v>
       </c>
       <c r="J29" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K29" t="str">
-        <f t="shared" si="4"/>
-        <v>"desc_en":"gorillas are good deadlifters"</v>
+        <f t="shared" si="13"/>
+        <v>"desc_en":""</v>
       </c>
       <c r="L29" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N29" t="str">
-        <f t="shared" si="6"/>
-        <v>{"name_fr":"gorille","name_en":"gorilla","img_src":"","img_attribution":"","desc_en":"gorillas are good deadlifters","desc_fr":""}</v>
+        <f t="shared" si="15"/>
+        <v>{"name_fr":"Rhinocéros ","name_en":"rhino","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O29" t="str">
-        <f t="shared" si="8"/>
-        <v>,</v>
-      </c>
-      <c r="Q29" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>{"name_fr":"gorille","name_en":"gorilla","img_src":"","img_attribution":"","desc_en":"gorillas are good deadlifters","desc_fr":""},</v>
+        <f t="shared" ref="O29:O85" si="18">","</f>
+        <v>,</v>
+      </c>
+      <c r="Q29" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>{"name_fr":"Rhinocéros ","name_en":"rhino","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="G30" t="str">
-        <f t="shared" si="0"/>
-        <v>"name_fr":"grenouille"</v>
+        <f t="shared" si="9"/>
+        <v>"name_fr":"Sardine "</v>
       </c>
       <c r="H30" t="str">
-        <f t="shared" si="1"/>
-        <v>"name_en":"frog"</v>
+        <f t="shared" si="10"/>
+        <v>"name_en":"sardine"</v>
       </c>
       <c r="I30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>"img_src":""</v>
       </c>
       <c r="J30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N30" t="str">
-        <f t="shared" si="6"/>
-        <v>{"name_fr":"grenouille","name_en":"frog","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="15"/>
+        <v>{"name_fr":"Sardine ","name_en":"sardine","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O30" t="str">
-        <f t="shared" si="8"/>
-        <v>,</v>
-      </c>
-      <c r="Q30" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>{"name_fr":"grenouille","name_en":"frog","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="18"/>
+        <v>,</v>
+      </c>
+      <c r="Q30" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>{"name_fr":"Sardine ","name_en":"sardine","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="B31" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G31" t="str">
-        <f t="shared" si="0"/>
-        <v>"name_fr":"Hippopotame "</v>
+        <f t="shared" si="9"/>
+        <v>"name_fr":"saumon"</v>
       </c>
       <c r="H31" t="str">
-        <f t="shared" si="1"/>
-        <v>"name_en":"hippo"</v>
+        <f t="shared" si="10"/>
+        <v>"name_en":"salmon"</v>
       </c>
       <c r="I31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>"img_src":""</v>
       </c>
       <c r="J31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K31" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L31" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N31" t="str">
-        <f t="shared" si="6"/>
-        <v>{"name_fr":"Hippopotame ","name_en":"hippo","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="15"/>
+        <v>{"name_fr":"saumon","name_en":"salmon","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O31" t="str">
-        <f t="shared" si="8"/>
-        <v>,</v>
-      </c>
-      <c r="Q31" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>{"name_fr":"Hippopotame ","name_en":"hippo","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="18"/>
+        <v>,</v>
+      </c>
+      <c r="Q31" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>{"name_fr":"saumon","name_en":"salmon","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="G32" t="str">
-        <f t="shared" si="0"/>
-        <v>"name_fr":"homard"</v>
+        <f t="shared" si="9"/>
+        <v>"name_fr":"serpent"</v>
       </c>
       <c r="H32" t="str">
-        <f t="shared" si="1"/>
-        <v>"name_en":"lobster"</v>
+        <f t="shared" si="10"/>
+        <v>"name_en":"snake"</v>
       </c>
       <c r="I32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>"img_src":""</v>
       </c>
       <c r="J32" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L32" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N32" t="str">
-        <f t="shared" si="6"/>
-        <v>{"name_fr":"homard","name_en":"lobster","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="15"/>
+        <v>{"name_fr":"serpent","name_en":"snake","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O32" t="str">
-        <f t="shared" si="8"/>
-        <v>,</v>
-      </c>
-      <c r="Q32" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>{"name_fr":"homard","name_en":"lobster","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="18"/>
+        <v>,</v>
+      </c>
+      <c r="Q32" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>{"name_fr":"serpent","name_en":"snake","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>119</v>
+        <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
       <c r="G33" t="str">
-        <f t="shared" si="0"/>
-        <v>"name_fr":"iguane"</v>
+        <f t="shared" si="9"/>
+        <v>"name_fr":"singe"</v>
       </c>
       <c r="H33" t="str">
-        <f t="shared" si="1"/>
-        <v>"name_en":"iguana"</v>
+        <f t="shared" si="10"/>
+        <v>"name_en":"monkey"</v>
       </c>
       <c r="I33" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>"img_src":""</v>
       </c>
       <c r="J33" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N33" t="str">
-        <f t="shared" si="6"/>
-        <v>{"name_fr":"iguane","name_en":"iguana","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="15"/>
+        <v>{"name_fr":"singe","name_en":"monkey","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O33" t="str">
-        <f t="shared" si="8"/>
-        <v>,</v>
-      </c>
-      <c r="Q33" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>{"name_fr":"iguane","name_en":"iguana","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="18"/>
+        <v>,</v>
+      </c>
+      <c r="Q33" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>{"name_fr":"singe","name_en":"monkey","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="B34" t="s">
-        <v>129</v>
+        <v>60</v>
       </c>
       <c r="G34" t="str">
-        <f t="shared" si="0"/>
-        <v>"name_fr":"kangourou"</v>
+        <f t="shared" si="9"/>
+        <v>"name_fr":"souris "</v>
       </c>
       <c r="H34" t="str">
-        <f t="shared" si="1"/>
-        <v>"name_en":"kangaroo"</v>
+        <f t="shared" si="10"/>
+        <v>"name_en":"mouse"</v>
       </c>
       <c r="I34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>"img_src":""</v>
       </c>
       <c r="J34" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N34" t="str">
-        <f t="shared" si="6"/>
-        <v>{"name_fr":"kangourou","name_en":"kangaroo","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="15"/>
+        <v>{"name_fr":"souris ","name_en":"mouse","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O34" t="str">
-        <f t="shared" si="8"/>
-        <v>,</v>
-      </c>
-      <c r="Q34" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>{"name_fr":"kangourou","name_en":"kangaroo","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="18"/>
+        <v>,</v>
+      </c>
+      <c r="Q34" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>{"name_fr":"souris ","name_en":"mouse","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="G35" t="str">
-        <f t="shared" si="0"/>
-        <v>"name_fr":"lapin"</v>
+        <f t="shared" si="9"/>
+        <v>"name_fr":"Taureau "</v>
       </c>
       <c r="H35" t="str">
-        <f t="shared" si="1"/>
-        <v>"name_en":"rabbit"</v>
+        <f t="shared" si="10"/>
+        <v>"name_en":"bull"</v>
       </c>
       <c r="I35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>"img_src":""</v>
       </c>
       <c r="J35" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N35" t="str">
-        <f t="shared" si="6"/>
-        <v>{"name_fr":"lapin","name_en":"rabbit","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="15"/>
+        <v>{"name_fr":"Taureau ","name_en":"bull","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O35" t="str">
-        <f t="shared" si="8"/>
-        <v>,</v>
-      </c>
-      <c r="Q35" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>{"name_fr":"lapin","name_en":"rabbit","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="18"/>
+        <v>,</v>
+      </c>
+      <c r="Q35" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>{"name_fr":"Taureau ","name_en":"bull","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="B36" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="G36" t="str">
-        <f t="shared" si="0"/>
-        <v>"name_fr":"léopard"</v>
+        <f t="shared" si="9"/>
+        <v>"name_fr":"Tigre "</v>
       </c>
       <c r="H36" t="str">
-        <f t="shared" si="1"/>
-        <v>"name_en":"leopard"</v>
+        <f t="shared" si="10"/>
+        <v>"name_en":"tiger"</v>
       </c>
       <c r="I36" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>"img_src":""</v>
       </c>
       <c r="J36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K36" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L36" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N36" t="str">
-        <f t="shared" si="6"/>
-        <v>{"name_fr":"léopard","name_en":"leopard","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="15"/>
+        <v>{"name_fr":"Tigre ","name_en":"tiger","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O36" t="str">
-        <f t="shared" si="8"/>
-        <v>,</v>
-      </c>
-      <c r="Q36" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>{"name_fr":"léopard","name_en":"leopard","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="18"/>
+        <v>,</v>
+      </c>
+      <c r="Q36" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>{"name_fr":"Tigre ","name_en":"tiger","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="B37" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="G37" t="str">
-        <f t="shared" si="0"/>
-        <v>"name_fr":"Lion "</v>
+        <f t="shared" si="9"/>
+        <v>"name_fr":"autruche"</v>
       </c>
       <c r="H37" t="str">
-        <f t="shared" si="1"/>
-        <v>"name_en":"lion"</v>
+        <f t="shared" si="10"/>
+        <v>"name_en":"ostrich"</v>
       </c>
       <c r="I37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>"img_src":""</v>
       </c>
       <c r="J37" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N37" t="str">
-        <f t="shared" si="6"/>
-        <v>{"name_fr":"Lion ","name_en":"lion","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="15"/>
+        <v>{"name_fr":"autruche","name_en":"ostrich","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O37" t="str">
-        <f t="shared" si="8"/>
-        <v>,</v>
-      </c>
-      <c r="Q37" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>{"name_fr":"Lion ","name_en":"lion","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="18"/>
+        <v>,</v>
+      </c>
+      <c r="Q37" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>{"name_fr":"autruche","name_en":"ostrich","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G38" t="str">
-        <f t="shared" si="0"/>
-        <v>"name_fr":"loup"</v>
+        <f t="shared" si="9"/>
+        <v>"name_fr":"baleine"</v>
       </c>
       <c r="H38" t="str">
-        <f t="shared" si="1"/>
-        <v>"name_en":"wolf"</v>
+        <f t="shared" si="10"/>
+        <v>"name_en":"whale"</v>
       </c>
       <c r="I38" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>"img_src":""</v>
       </c>
       <c r="J38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K38" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L38" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N38" t="str">
-        <f t="shared" si="6"/>
-        <v>{"name_fr":"loup","name_en":"wolf","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="15"/>
+        <v>{"name_fr":"baleine","name_en":"whale","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O38" t="str">
-        <f t="shared" si="8"/>
-        <v>,</v>
-      </c>
-      <c r="Q38" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>{"name_fr":"loup","name_en":"wolf","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="18"/>
+        <v>,</v>
+      </c>
+      <c r="Q38" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>{"name_fr":"baleine","name_en":"whale","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="B39" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="G39" t="str">
-        <f t="shared" si="0"/>
-        <v>"name_fr":"Mouche "</v>
+        <f t="shared" si="9"/>
+        <v>"name_fr":"canard"</v>
       </c>
       <c r="H39" t="str">
-        <f t="shared" si="1"/>
-        <v>"name_en":"fly"</v>
+        <f t="shared" si="10"/>
+        <v>"name_en":"duck"</v>
       </c>
       <c r="I39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>"img_src":""</v>
       </c>
       <c r="J39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N39" t="str">
-        <f t="shared" si="6"/>
-        <v>{"name_fr":"Mouche ","name_en":"fly","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="15"/>
+        <v>{"name_fr":"canard","name_en":"duck","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O39" t="str">
-        <f t="shared" si="8"/>
-        <v>,</v>
-      </c>
-      <c r="Q39" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>{"name_fr":"Mouche ","name_en":"fly","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="18"/>
+        <v>,</v>
+      </c>
+      <c r="Q39" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>{"name_fr":"canard","name_en":"duck","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="G40" t="str">
-        <f t="shared" si="0"/>
-        <v>"name_fr":"moufette"</v>
+        <f t="shared" si="9"/>
+        <v>"name_fr":"cerf"</v>
       </c>
       <c r="H40" t="str">
-        <f t="shared" si="1"/>
-        <v>"name_en":"skunk"</v>
+        <f t="shared" si="10"/>
+        <v>"name_en":"deer"</v>
       </c>
       <c r="I40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>"img_src":""</v>
       </c>
       <c r="J40" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K40" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L40" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N40" t="str">
-        <f t="shared" si="6"/>
-        <v>{"name_fr":"moufette","name_en":"skunk","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="15"/>
+        <v>{"name_fr":"cerf","name_en":"deer","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O40" t="str">
-        <f t="shared" si="8"/>
-        <v>,</v>
-      </c>
-      <c r="Q40" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>{"name_fr":"moufette","name_en":"skunk","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="18"/>
+        <v>,</v>
+      </c>
+      <c r="Q40" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>{"name_fr":"cerf","name_en":"deer","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="B41" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="G41" t="str">
-        <f t="shared" si="0"/>
-        <v>"name_fr":"moule"</v>
+        <f t="shared" si="9"/>
+        <v>"name_fr":"Chameau "</v>
       </c>
       <c r="H41" t="str">
-        <f t="shared" si="1"/>
-        <v>"name_en":"mussel"</v>
+        <f t="shared" si="10"/>
+        <v>"name_en":"camel"</v>
       </c>
       <c r="I41" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>"img_src":""</v>
       </c>
       <c r="J41" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K41" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L41" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N41" t="str">
-        <f t="shared" si="6"/>
-        <v>{"name_fr":"moule","name_en":"mussel","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="15"/>
+        <v>{"name_fr":"Chameau ","name_en":"camel","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O41" t="str">
-        <f t="shared" si="8"/>
-        <v>,</v>
-      </c>
-      <c r="Q41" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>{"name_fr":"moule","name_en":"mussel","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="18"/>
+        <v>,</v>
+      </c>
+      <c r="Q41" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>{"name_fr":"Chameau ","name_en":"camel","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>22</v>
+      </c>
+      <c r="E42" t="s">
+        <v>159</v>
       </c>
       <c r="G42" t="str">
-        <f t="shared" si="0"/>
-        <v>"name_fr":"mouton"</v>
+        <f t="shared" si="9"/>
+        <v>"name_fr":"chat"</v>
       </c>
       <c r="H42" t="str">
-        <f t="shared" si="1"/>
-        <v>"name_en":"lamb"</v>
+        <f t="shared" si="10"/>
+        <v>"name_en":"cat"</v>
       </c>
       <c r="I42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>"img_src":""</v>
       </c>
       <c r="J42" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K42" t="str">
-        <f t="shared" si="4"/>
-        <v>"desc_en":""</v>
+        <f t="shared" si="13"/>
+        <v>"desc_en":"the cat thinks only of your demise"</v>
       </c>
       <c r="L42" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N42" t="str">
-        <f t="shared" si="6"/>
-        <v>{"name_fr":"mouton","name_en":"lamb","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="15"/>
+        <v>{"name_fr":"chat","name_en":"cat","img_src":"","img_attribution":"","desc_en":"the cat thinks only of your demise","desc_fr":""}</v>
       </c>
       <c r="O42" t="str">
-        <f t="shared" si="8"/>
-        <v>,</v>
-      </c>
-      <c r="Q42" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>{"name_fr":"mouton","name_en":"lamb","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="18"/>
+        <v>,</v>
+      </c>
+      <c r="Q42" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>{"name_fr":"chat","name_en":"cat","img_src":"","img_attribution":"","desc_en":"the cat thinks only of your demise","desc_fr":""},</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>59</v>
+      </c>
+      <c r="E43" t="s">
+        <v>160</v>
       </c>
       <c r="G43" t="str">
-        <f t="shared" si="0"/>
-        <v>"name_fr":"oiseau"</v>
+        <f t="shared" si="9"/>
+        <v>"name_fr":"chauve souris"</v>
       </c>
       <c r="H43" t="str">
-        <f t="shared" si="1"/>
-        <v>"name_en":"bird"</v>
+        <f t="shared" si="10"/>
+        <v>"name_en":"bat"</v>
       </c>
       <c r="I43" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>"img_src":""</v>
       </c>
       <c r="J43" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K43" t="str">
-        <f t="shared" si="4"/>
-        <v>"desc_en":""</v>
+        <f t="shared" si="13"/>
+        <v>"desc_en":"this bat extends the life of darkness"</v>
       </c>
       <c r="L43" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N43" t="str">
-        <f t="shared" si="6"/>
-        <v>{"name_fr":"oiseau","name_en":"bird","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="15"/>
+        <v>{"name_fr":"chauve souris","name_en":"bat","img_src":"","img_attribution":"","desc_en":"this bat extends the life of darkness","desc_fr":""}</v>
       </c>
       <c r="O43" t="str">
-        <f t="shared" si="8"/>
-        <v>,</v>
-      </c>
-      <c r="Q43" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>{"name_fr":"oiseau","name_en":"bird","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="18"/>
+        <v>,</v>
+      </c>
+      <c r="Q43" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>{"name_fr":"chauve souris","name_en":"bat","img_src":"","img_attribution":"","desc_en":"this bat extends the life of darkness","desc_fr":""},</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="B44" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="G44" t="str">
-        <f t="shared" si="0"/>
-        <v>"name_fr":"Orque "</v>
+        <f t="shared" si="9"/>
+        <v>"name_fr":"cheval"</v>
       </c>
       <c r="H44" t="str">
-        <f t="shared" si="1"/>
-        <v>"name_en":"orca"</v>
+        <f t="shared" si="10"/>
+        <v>"name_en":"horse"</v>
       </c>
       <c r="I44" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>"img_src":""</v>
       </c>
       <c r="J44" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L44" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N44" t="str">
-        <f t="shared" si="6"/>
-        <v>{"name_fr":"Orque ","name_en":"orca","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="15"/>
+        <v>{"name_fr":"cheval","name_en":"horse","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O44" t="str">
-        <f t="shared" si="8"/>
-        <v>,</v>
-      </c>
-      <c r="Q44" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>{"name_fr":"Orque ","name_en":"orca","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="18"/>
+        <v>,</v>
+      </c>
+      <c r="Q44" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>{"name_fr":"cheval","name_en":"horse","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B45" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="G45" t="str">
-        <f t="shared" si="0"/>
-        <v>"name_fr":"ours"</v>
+        <f t="shared" si="9"/>
+        <v>"name_fr":"chevre"</v>
       </c>
       <c r="H45" t="str">
-        <f t="shared" si="1"/>
-        <v>"name_en":"bear"</v>
+        <f t="shared" si="10"/>
+        <v>"name_en":"goat"</v>
       </c>
       <c r="I45" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>"img_src":""</v>
       </c>
       <c r="J45" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K45" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L45" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N45" t="str">
-        <f t="shared" si="6"/>
-        <v>{"name_fr":"ours","name_en":"bear","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="15"/>
+        <v>{"name_fr":"chevre","name_en":"goat","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O45" t="str">
-        <f t="shared" si="8"/>
-        <v>,</v>
-      </c>
-      <c r="Q45" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>{"name_fr":"ours","name_en":"bear","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="18"/>
+        <v>,</v>
+      </c>
+      <c r="Q45" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>{"name_fr":"chevre","name_en":"goat","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>128</v>
+        <v>25</v>
       </c>
       <c r="B46" t="s">
-        <v>128</v>
+        <v>24</v>
       </c>
       <c r="G46" t="str">
-        <f t="shared" si="0"/>
-        <v>"name_fr":"panda"</v>
+        <f t="shared" si="9"/>
+        <v>"name_fr":"chien"</v>
       </c>
       <c r="H46" t="str">
-        <f t="shared" si="1"/>
-        <v>"name_en":"panda"</v>
+        <f t="shared" si="10"/>
+        <v>"name_en":"dog"</v>
       </c>
       <c r="I46" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>"img_src":""</v>
       </c>
       <c r="J46" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K46" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L46" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N46" t="str">
-        <f t="shared" si="6"/>
-        <v>{"name_fr":"panda","name_en":"panda","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="15"/>
+        <v>{"name_fr":"chien","name_en":"dog","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O46" t="str">
-        <f t="shared" si="8"/>
-        <v>,</v>
-      </c>
-      <c r="Q46" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>{"name_fr":"panda","name_en":"panda","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="18"/>
+        <v>,</v>
+      </c>
+      <c r="Q46" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>{"name_fr":"chien","name_en":"dog","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="B47" t="s">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="G47" t="str">
-        <f t="shared" si="0"/>
-        <v>"name_fr":"Panthère "</v>
+        <f t="shared" si="9"/>
+        <v>"name_fr":"chimpanzee"</v>
       </c>
       <c r="H47" t="str">
-        <f t="shared" si="1"/>
-        <v>"name_en":"panther"</v>
+        <f t="shared" si="10"/>
+        <v>"name_en":"chimp"</v>
       </c>
       <c r="I47" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>"img_src":""</v>
       </c>
       <c r="J47" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K47" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L47" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N47" t="str">
-        <f t="shared" si="6"/>
-        <v>{"name_fr":"Panthère ","name_en":"panther","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="15"/>
+        <v>{"name_fr":"chimpanzee","name_en":"chimp","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O47" t="str">
-        <f t="shared" si="8"/>
-        <v>,</v>
-      </c>
-      <c r="Q47" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>{"name_fr":"Panthère ","name_en":"panther","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="18"/>
+        <v>,</v>
+      </c>
+      <c r="Q47" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>{"name_fr":"chimpanzee","name_en":"chimp","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="G48" t="str">
-        <f t="shared" si="0"/>
-        <v>"name_fr":"papillon"</v>
+        <f t="shared" si="9"/>
+        <v>"name_fr":"chouette"</v>
       </c>
       <c r="H48" t="str">
-        <f t="shared" si="1"/>
-        <v>"name_en":"butterfly"</v>
+        <f t="shared" si="10"/>
+        <v>"name_en":"owl"</v>
       </c>
       <c r="I48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>"img_src":""</v>
       </c>
       <c r="J48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K48" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L48" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N48" t="str">
-        <f t="shared" si="6"/>
-        <v>{"name_fr":"papillon","name_en":"butterfly","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="15"/>
+        <v>{"name_fr":"chouette","name_en":"owl","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O48" t="str">
-        <f t="shared" si="8"/>
-        <v>,</v>
-      </c>
-      <c r="Q48" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>{"name_fr":"papillon","name_en":"butterfly","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="18"/>
+        <v>,</v>
+      </c>
+      <c r="Q48" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>{"name_fr":"chouette","name_en":"owl","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="G49" t="str">
-        <f t="shared" si="0"/>
-        <v>"name_fr":"poisson"</v>
+        <f t="shared" si="9"/>
+        <v>"name_fr":"coccinelle"</v>
       </c>
       <c r="H49" t="str">
-        <f t="shared" si="1"/>
-        <v>"name_en":"fish"</v>
+        <f t="shared" si="10"/>
+        <v>"name_en":"ladybuy"</v>
       </c>
       <c r="I49" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>"img_src":""</v>
       </c>
       <c r="J49" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K49" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L49" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N49" t="str">
-        <f t="shared" si="6"/>
-        <v>{"name_fr":"poisson","name_en":"fish","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="15"/>
+        <v>{"name_fr":"coccinelle","name_en":"ladybuy","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O49" t="str">
-        <f t="shared" si="8"/>
-        <v>,</v>
-      </c>
-      <c r="Q49" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>{"name_fr":"poisson","name_en":"fish","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="18"/>
+        <v>,</v>
+      </c>
+      <c r="Q49" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>{"name_fr":"coccinelle","name_en":"ladybuy","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B50" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G50" t="str">
-        <f t="shared" si="0"/>
-        <v>"name_fr":"poule"</v>
+        <f t="shared" si="9"/>
+        <v>"name_fr":"cochon"</v>
       </c>
       <c r="H50" t="str">
-        <f t="shared" si="1"/>
-        <v>"name_en":"chicken"</v>
+        <f t="shared" si="10"/>
+        <v>"name_en":"pig"</v>
       </c>
       <c r="I50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>"img_src":""</v>
       </c>
       <c r="J50" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K50" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L50" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N50" t="str">
-        <f t="shared" si="6"/>
-        <v>{"name_fr":"poule","name_en":"chicken","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="15"/>
+        <v>{"name_fr":"cochon","name_en":"pig","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O50" t="str">
-        <f t="shared" si="8"/>
-        <v>,</v>
-      </c>
-      <c r="Q50" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>{"name_fr":"poule","name_en":"chicken","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="18"/>
+        <v>,</v>
+      </c>
+      <c r="Q50" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>{"name_fr":"cochon","name_en":"pig","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="G51" t="str">
-        <f t="shared" si="0"/>
-        <v>"name_fr":"puce"</v>
+        <f t="shared" si="9"/>
+        <v>"name_fr":"coquillage"</v>
       </c>
       <c r="H51" t="str">
-        <f t="shared" si="1"/>
-        <v>"name_en":"flea"</v>
+        <f t="shared" si="10"/>
+        <v>"name_en":"shellfish"</v>
       </c>
       <c r="I51" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>"img_src":""</v>
       </c>
       <c r="J51" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K51" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L51" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N51" t="str">
-        <f t="shared" si="6"/>
-        <v>{"name_fr":"puce","name_en":"flea","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="15"/>
+        <v>{"name_fr":"coquillage","name_en":"shellfish","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O51" t="str">
-        <f t="shared" si="8"/>
-        <v>,</v>
-      </c>
-      <c r="Q51" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>{"name_fr":"puce","name_en":"flea","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="18"/>
+        <v>,</v>
+      </c>
+      <c r="Q51" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>{"name_fr":"coquillage","name_en":"shellfish","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>122</v>
+      </c>
+      <c r="E52" t="s">
+        <v>164</v>
       </c>
       <c r="G52" t="str">
-        <f t="shared" si="0"/>
-        <v>"name_fr":"raton"</v>
+        <f t="shared" si="9"/>
+        <v>"name_fr":"corbeau"</v>
       </c>
       <c r="H52" t="str">
-        <f t="shared" si="1"/>
-        <v>"name_en":"rat"</v>
+        <f t="shared" si="10"/>
+        <v>"name_en":"raven"</v>
       </c>
       <c r="I52" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>"img_src":""</v>
       </c>
       <c r="J52" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K52" t="str">
-        <f t="shared" si="4"/>
-        <v>"desc_en":""</v>
+        <f t="shared" si="13"/>
+        <v>"desc_en":"the ravens celebrate death"</v>
       </c>
       <c r="L52" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N52" t="str">
-        <f t="shared" si="6"/>
-        <v>{"name_fr":"raton","name_en":"rat","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="15"/>
+        <v>{"name_fr":"corbeau","name_en":"raven","img_src":"","img_attribution":"","desc_en":"the ravens celebrate death","desc_fr":""}</v>
       </c>
       <c r="O52" t="str">
-        <f t="shared" si="8"/>
-        <v>,</v>
-      </c>
-      <c r="Q52" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>{"name_fr":"raton","name_en":"rat","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="18"/>
+        <v>,</v>
+      </c>
+      <c r="Q52" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>{"name_fr":"corbeau","name_en":"raven","img_src":"","img_attribution":"","desc_en":"the ravens celebrate death","desc_fr":""},</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B53" t="s">
-        <v>49</v>
-      </c>
-      <c r="C53" t="s">
-        <v>184</v>
-      </c>
-      <c r="D53" t="s">
-        <v>185</v>
-      </c>
-      <c r="E53" t="s">
-        <v>182</v>
-      </c>
-      <c r="F53" t="s">
-        <v>195</v>
+        <v>40</v>
       </c>
       <c r="G53" t="str">
-        <f t="shared" si="0"/>
-        <v>"name_fr":"raton laveur"</v>
+        <f t="shared" si="9"/>
+        <v>"name_fr":"coyote"</v>
       </c>
       <c r="H53" t="str">
-        <f t="shared" si="1"/>
-        <v>"name_en":"racoon"</v>
+        <f t="shared" si="10"/>
+        <v>"name_en":"coyote"</v>
       </c>
       <c r="I53" t="str">
-        <f t="shared" si="2"/>
-        <v>"img_src":"moritz-kindler-24VowUjS7Jk-unsplash.jpg"</v>
+        <f t="shared" si="11"/>
+        <v>"img_src":""</v>
       </c>
       <c r="J53" t="str">
-        <f t="shared" si="3"/>
-        <v>"img_attribution":"Photo by Moritz Kindler on Unsplash"</v>
+        <f t="shared" si="12"/>
+        <v>"img_attribution":""</v>
       </c>
       <c r="K53" t="str">
-        <f t="shared" si="4"/>
-        <v>"desc_en":"The racoon uses its formidable intelligence to find and eat garbage."</v>
+        <f t="shared" si="13"/>
+        <v>"desc_en":""</v>
       </c>
       <c r="L53" t="str">
-        <f t="shared" si="5"/>
-        <v>"desc_fr":"Le raton laveur utilise sa formidable intelligence pour trouver et manger des ordures."</v>
+        <f t="shared" si="14"/>
+        <v>"desc_fr":""</v>
       </c>
       <c r="N53" t="str">
-        <f t="shared" si="6"/>
-        <v>{"name_fr":"raton laveur","name_en":"racoon","img_src":"moritz-kindler-24VowUjS7Jk-unsplash.jpg","img_attribution":"Photo by Moritz Kindler on Unsplash","desc_en":"The racoon uses its formidable intelligence to find and eat garbage.","desc_fr":"Le raton laveur utilise sa formidable intelligence pour trouver et manger des ordures."}</v>
+        <f t="shared" si="15"/>
+        <v>{"name_fr":"coyote","name_en":"coyote","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O53" t="str">
-        <f t="shared" si="8"/>
-        <v>,</v>
-      </c>
-      <c r="Q53" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>{"name_fr":"raton laveur","name_en":"racoon","img_src":"moritz-kindler-24VowUjS7Jk-unsplash.jpg","img_attribution":"Photo by Moritz Kindler on Unsplash","desc_en":"The racoon uses its formidable intelligence to find and eat garbage.","desc_fr":"Le raton laveur utilise sa formidable intelligence pour trouver et manger des ordures."},</v>
+        <f t="shared" si="18"/>
+        <v>,</v>
+      </c>
+      <c r="Q53" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>{"name_fr":"coyote","name_en":"coyote","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="B54" t="s">
-        <v>27</v>
-      </c>
-      <c r="C54" t="s">
-        <v>186</v>
-      </c>
-      <c r="D54" t="s">
-        <v>187</v>
-      </c>
-      <c r="E54" t="s">
-        <v>188</v>
-      </c>
-      <c r="F54" t="s">
-        <v>196</v>
+        <v>111</v>
       </c>
       <c r="G54" t="str">
-        <f t="shared" si="0"/>
-        <v>"name_fr":"renard"</v>
+        <f t="shared" si="9"/>
+        <v>"name_fr":"Crabe "</v>
       </c>
       <c r="H54" t="str">
-        <f t="shared" si="1"/>
-        <v>"name_en":"fox"</v>
+        <f t="shared" si="10"/>
+        <v>"name_en":"crab"</v>
       </c>
       <c r="I54" t="str">
-        <f t="shared" si="2"/>
-        <v>"img_src":"dusan-veverkolog-nOsJYzXEG98-unsplash.jpg"</v>
+        <f t="shared" si="11"/>
+        <v>"img_src":""</v>
       </c>
       <c r="J54" t="str">
-        <f t="shared" si="3"/>
-        <v>"img_attribution":"Photo by Dušan veverkolog on Unsplash"</v>
+        <f t="shared" si="12"/>
+        <v>"img_attribution":""</v>
       </c>
       <c r="K54" t="str">
-        <f t="shared" si="4"/>
-        <v>"desc_en":"The measure of this fox can be taken in liters."</v>
+        <f t="shared" si="13"/>
+        <v>"desc_en":""</v>
       </c>
       <c r="L54" t="str">
-        <f t="shared" si="5"/>
-        <v>"desc_fr":"La mesure de ce renard peut être prise en litres."</v>
+        <f t="shared" si="14"/>
+        <v>"desc_fr":""</v>
       </c>
       <c r="N54" t="str">
-        <f t="shared" si="6"/>
-        <v>{"name_fr":"renard","name_en":"fox","img_src":"dusan-veverkolog-nOsJYzXEG98-unsplash.jpg","img_attribution":"Photo by Dušan veverkolog on Unsplash","desc_en":"The measure of this fox can be taken in liters.","desc_fr":"La mesure de ce renard peut être prise en litres."}</v>
+        <f t="shared" si="15"/>
+        <v>{"name_fr":"Crabe ","name_en":"crab","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O54" t="str">
-        <f t="shared" si="8"/>
-        <v>,</v>
-      </c>
-      <c r="Q54" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>{"name_fr":"renard","name_en":"fox","img_src":"dusan-veverkolog-nOsJYzXEG98-unsplash.jpg","img_attribution":"Photo by Dušan veverkolog on Unsplash","desc_en":"The measure of this fox can be taken in liters.","desc_fr":"La mesure de ce renard peut être prise en litres."},</v>
+        <f t="shared" si="18"/>
+        <v>,</v>
+      </c>
+      <c r="Q54" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>{"name_fr":"Crabe ","name_en":"crab","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B55" t="s">
-        <v>1</v>
-      </c>
-      <c r="C55" t="s">
-        <v>169</v>
-      </c>
-      <c r="D55" t="s">
-        <v>168</v>
-      </c>
-      <c r="E55" t="s">
-        <v>197</v>
-      </c>
-      <c r="F55" t="s">
-        <v>198</v>
+        <v>37</v>
       </c>
       <c r="G55" t="str">
-        <f t="shared" si="0"/>
-        <v>"name_fr":"requin"</v>
+        <f t="shared" si="9"/>
+        <v>"name_fr":"dauphin"</v>
       </c>
       <c r="H55" t="str">
-        <f t="shared" si="1"/>
-        <v>"name_en":"shark"</v>
+        <f t="shared" si="10"/>
+        <v>"name_en":"dolphin"</v>
       </c>
       <c r="I55" t="str">
-        <f t="shared" si="2"/>
-        <v>"img_src":"gerald-schombs-GBDkr3k96DE-unsplash.jpg"</v>
+        <f t="shared" si="11"/>
+        <v>"img_src":""</v>
       </c>
       <c r="J55" t="str">
-        <f t="shared" si="3"/>
-        <v>"img_attribution":"Photo by Gerald Schömbs on Unsplash"</v>
+        <f t="shared" si="12"/>
+        <v>"img_attribution":""</v>
       </c>
       <c r="K55" t="str">
-        <f t="shared" si="4"/>
-        <v>"desc_en":"This shark lacks confidence; he ponders his life choices."</v>
+        <f t="shared" si="13"/>
+        <v>"desc_en":""</v>
       </c>
       <c r="L55" t="str">
-        <f t="shared" si="5"/>
-        <v>"desc_fr":"Ce requin manque de confiance ; il réfléchit à ses choix de vie."</v>
+        <f t="shared" si="14"/>
+        <v>"desc_fr":""</v>
       </c>
       <c r="N55" t="str">
-        <f t="shared" si="6"/>
-        <v>{"name_fr":"requin","name_en":"shark","img_src":"gerald-schombs-GBDkr3k96DE-unsplash.jpg","img_attribution":"Photo by Gerald Schömbs on Unsplash","desc_en":"This shark lacks confidence; he ponders his life choices.","desc_fr":"Ce requin manque de confiance ; il réfléchit à ses choix de vie."}</v>
+        <f t="shared" si="15"/>
+        <v>{"name_fr":"dauphin","name_en":"dolphin","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O55" t="str">
-        <f t="shared" si="8"/>
-        <v>,</v>
-      </c>
-      <c r="Q55" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>{"name_fr":"requin","name_en":"shark","img_src":"gerald-schombs-GBDkr3k96DE-unsplash.jpg","img_attribution":"Photo by Gerald Schömbs on Unsplash","desc_en":"This shark lacks confidence; he ponders his life choices.","desc_fr":"Ce requin manque de confiance ; il réfléchit à ses choix de vie."},</v>
+        <f t="shared" si="18"/>
+        <v>,</v>
+      </c>
+      <c r="Q55" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>{"name_fr":"dauphin","name_en":"dolphin","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="B56" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="G56" t="str">
-        <f t="shared" si="0"/>
-        <v>"name_fr":"Rhinocéros "</v>
+        <f t="shared" si="9"/>
+        <v>"name_fr":"dinde"</v>
       </c>
       <c r="H56" t="str">
-        <f t="shared" si="1"/>
-        <v>"name_en":"rhino"</v>
+        <f t="shared" si="10"/>
+        <v>"name_en":"turkey"</v>
       </c>
       <c r="I56" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>"img_src":""</v>
       </c>
       <c r="J56" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K56" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L56" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N56" t="str">
-        <f t="shared" si="6"/>
-        <v>{"name_fr":"Rhinocéros ","name_en":"rhino","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="15"/>
+        <v>{"name_fr":"dinde","name_en":"turkey","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O56" t="str">
-        <f t="shared" si="8"/>
-        <v>,</v>
-      </c>
-      <c r="Q56" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>{"name_fr":"Rhinocéros ","name_en":"rhino","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="18"/>
+        <v>,</v>
+      </c>
+      <c r="Q56" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>{"name_fr":"dinde","name_en":"turkey","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="B57" t="s">
-        <v>113</v>
+        <v>42</v>
       </c>
       <c r="G57" t="str">
-        <f t="shared" si="0"/>
-        <v>"name_fr":"Sardine "</v>
+        <f t="shared" si="9"/>
+        <v>"name_fr":"ecureuil"</v>
       </c>
       <c r="H57" t="str">
-        <f t="shared" si="1"/>
-        <v>"name_en":"sardine"</v>
+        <f t="shared" si="10"/>
+        <v>"name_en":"squirell"</v>
       </c>
       <c r="I57" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>"img_src":""</v>
       </c>
       <c r="J57" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K57" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L57" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N57" t="str">
-        <f t="shared" si="6"/>
-        <v>{"name_fr":"Sardine ","name_en":"sardine","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="15"/>
+        <v>{"name_fr":"ecureuil","name_en":"squirell","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O57" t="str">
-        <f t="shared" si="8"/>
-        <v>,</v>
-      </c>
-      <c r="Q57" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>{"name_fr":"Sardine ","name_en":"sardine","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="18"/>
+        <v>,</v>
+      </c>
+      <c r="Q57" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>{"name_fr":"ecureuil","name_en":"squirell","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="B58" t="s">
-        <v>115</v>
+        <v>93</v>
+      </c>
+      <c r="E58" t="s">
+        <v>165</v>
       </c>
       <c r="G58" t="str">
-        <f t="shared" si="0"/>
-        <v>"name_fr":"saumon"</v>
+        <f t="shared" si="9"/>
+        <v>"name_fr":"Éléphant "</v>
       </c>
       <c r="H58" t="str">
-        <f t="shared" si="1"/>
-        <v>"name_en":"salmon"</v>
+        <f t="shared" si="10"/>
+        <v>"name_en":"elephant"</v>
       </c>
       <c r="I58" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>"img_src":""</v>
       </c>
       <c r="J58" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K58" t="str">
-        <f t="shared" si="4"/>
-        <v>"desc_en":""</v>
+        <f t="shared" si="13"/>
+        <v>"desc_en":"this elephant has chosen to wear a hat"</v>
       </c>
       <c r="L58" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N58" t="str">
-        <f t="shared" si="6"/>
-        <v>{"name_fr":"saumon","name_en":"salmon","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="15"/>
+        <v>{"name_fr":"Éléphant ","name_en":"elephant","img_src":"","img_attribution":"","desc_en":"this elephant has chosen to wear a hat","desc_fr":""}</v>
       </c>
       <c r="O58" t="str">
-        <f t="shared" si="8"/>
-        <v>,</v>
-      </c>
-      <c r="Q58" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>{"name_fr":"saumon","name_en":"salmon","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="18"/>
+        <v>,</v>
+      </c>
+      <c r="Q58" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>{"name_fr":"Éléphant ","name_en":"elephant","img_src":"","img_attribution":"","desc_en":"this elephant has chosen to wear a hat","desc_fr":""},</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="B59" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="G59" t="str">
-        <f t="shared" si="0"/>
-        <v>"name_fr":"serpent"</v>
+        <f t="shared" si="9"/>
+        <v>"name_fr":"escargot"</v>
       </c>
       <c r="H59" t="str">
-        <f t="shared" si="1"/>
-        <v>"name_en":"snake"</v>
+        <f t="shared" si="10"/>
+        <v>"name_en":"snail"</v>
       </c>
       <c r="I59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>"img_src":""</v>
       </c>
       <c r="J59" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K59" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L59" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N59" t="str">
-        <f t="shared" si="6"/>
-        <v>{"name_fr":"serpent","name_en":"snake","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="15"/>
+        <v>{"name_fr":"escargot","name_en":"snail","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O59" t="str">
-        <f t="shared" si="8"/>
-        <v>,</v>
-      </c>
-      <c r="Q59" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>{"name_fr":"serpent","name_en":"snake","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="18"/>
+        <v>,</v>
+      </c>
+      <c r="Q59" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>{"name_fr":"escargot","name_en":"snail","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="E60" t="s">
+        <v>166</v>
       </c>
       <c r="G60" t="str">
-        <f t="shared" si="0"/>
-        <v>"name_fr":"singe"</v>
+        <f t="shared" si="9"/>
+        <v>"name_fr":"fourmi"</v>
       </c>
       <c r="H60" t="str">
-        <f t="shared" si="1"/>
-        <v>"name_en":"monkey"</v>
+        <f t="shared" si="10"/>
+        <v>"name_en":"ant"</v>
       </c>
       <c r="I60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>"img_src":""</v>
       </c>
       <c r="J60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K60" t="str">
-        <f t="shared" si="4"/>
-        <v>"desc_en":""</v>
+        <f t="shared" si="13"/>
+        <v>"desc_en":"ants commit genocide"</v>
       </c>
       <c r="L60" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N60" t="str">
-        <f t="shared" si="6"/>
-        <v>{"name_fr":"singe","name_en":"monkey","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="15"/>
+        <v>{"name_fr":"fourmi","name_en":"ant","img_src":"","img_attribution":"","desc_en":"ants commit genocide","desc_fr":""}</v>
       </c>
       <c r="O60" t="str">
-        <f t="shared" si="8"/>
-        <v>,</v>
-      </c>
-      <c r="Q60" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>{"name_fr":"singe","name_en":"monkey","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="18"/>
+        <v>,</v>
+      </c>
+      <c r="Q60" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>{"name_fr":"fourmi","name_en":"ant","img_src":"","img_attribution":"","desc_en":"ants commit genocide","desc_fr":""},</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>92</v>
+      </c>
+      <c r="E61" t="s">
+        <v>158</v>
       </c>
       <c r="G61" t="str">
-        <f t="shared" si="0"/>
-        <v>"name_fr":"souris "</v>
+        <f t="shared" si="9"/>
+        <v>"name_fr":"Girafe "</v>
       </c>
       <c r="H61" t="str">
-        <f t="shared" si="1"/>
-        <v>"name_en":"mouse"</v>
+        <f t="shared" si="10"/>
+        <v>"name_en":"giraffe"</v>
       </c>
       <c r="I61" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>"img_src":""</v>
       </c>
       <c r="J61" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K61" t="str">
-        <f t="shared" si="4"/>
-        <v>"desc_en":""</v>
+        <f t="shared" si="13"/>
+        <v>"desc_en":"the giraffe enjoys dinner parties"</v>
       </c>
       <c r="L61" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N61" t="str">
-        <f t="shared" si="6"/>
-        <v>{"name_fr":"souris ","name_en":"mouse","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="15"/>
+        <v>{"name_fr":"Girafe ","name_en":"giraffe","img_src":"","img_attribution":"","desc_en":"the giraffe enjoys dinner parties","desc_fr":""}</v>
       </c>
       <c r="O61" t="str">
-        <f t="shared" si="8"/>
-        <v>,</v>
-      </c>
-      <c r="Q61" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>{"name_fr":"souris ","name_en":"mouse","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="18"/>
+        <v>,</v>
+      </c>
+      <c r="Q61" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>{"name_fr":"Girafe ","name_en":"giraffe","img_src":"","img_attribution":"","desc_en":"the giraffe enjoys dinner parties","desc_fr":""},</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="B62" t="s">
-        <v>70</v>
+        <v>127</v>
+      </c>
+      <c r="E62" t="s">
+        <v>167</v>
       </c>
       <c r="G62" t="str">
-        <f t="shared" si="0"/>
-        <v>"name_fr":"Taureau "</v>
+        <f t="shared" si="9"/>
+        <v>"name_fr":"gorille"</v>
       </c>
       <c r="H62" t="str">
-        <f t="shared" si="1"/>
-        <v>"name_en":"bull"</v>
+        <f t="shared" si="10"/>
+        <v>"name_en":"gorilla"</v>
       </c>
       <c r="I62" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>"img_src":""</v>
       </c>
       <c r="J62" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K62" t="str">
-        <f t="shared" si="4"/>
-        <v>"desc_en":""</v>
+        <f t="shared" si="13"/>
+        <v>"desc_en":"gorillas are good deadlifters"</v>
       </c>
       <c r="L62" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N62" t="str">
-        <f t="shared" si="6"/>
-        <v>{"name_fr":"Taureau ","name_en":"bull","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="15"/>
+        <v>{"name_fr":"gorille","name_en":"gorilla","img_src":"","img_attribution":"","desc_en":"gorillas are good deadlifters","desc_fr":""}</v>
       </c>
       <c r="O62" t="str">
-        <f t="shared" si="8"/>
-        <v>,</v>
-      </c>
-      <c r="Q62" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>{"name_fr":"Taureau ","name_en":"bull","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="18"/>
+        <v>,</v>
+      </c>
+      <c r="Q62" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>{"name_fr":"gorille","name_en":"gorilla","img_src":"","img_attribution":"","desc_en":"gorillas are good deadlifters","desc_fr":""},</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="G63" t="str">
-        <f t="shared" si="0"/>
-        <v>"name_fr":"Tigre "</v>
+        <f t="shared" si="9"/>
+        <v>"name_fr":"grenouille"</v>
       </c>
       <c r="H63" t="str">
-        <f t="shared" si="1"/>
-        <v>"name_en":"tiger"</v>
+        <f t="shared" si="10"/>
+        <v>"name_en":"frog"</v>
       </c>
       <c r="I63" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>"img_src":""</v>
       </c>
       <c r="J63" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K63" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L63" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N63" t="str">
-        <f t="shared" si="6"/>
-        <v>{"name_fr":"Tigre ","name_en":"tiger","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="15"/>
+        <v>{"name_fr":"grenouille","name_en":"frog","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O63" t="str">
-        <f t="shared" si="8"/>
-        <v>,</v>
-      </c>
-      <c r="Q63" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>{"name_fr":"Tigre ","name_en":"tiger","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="18"/>
+        <v>,</v>
+      </c>
+      <c r="Q63" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>{"name_fr":"grenouille","name_en":"frog","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="B64" t="s">
-        <v>54</v>
-      </c>
-      <c r="C64" t="s">
-        <v>173</v>
-      </c>
-      <c r="D64" t="s">
-        <v>172</v>
-      </c>
-      <c r="E64" t="s">
-        <v>181</v>
-      </c>
-      <c r="F64" t="s">
-        <v>199</v>
+        <v>123</v>
       </c>
       <c r="G64" t="str">
-        <f t="shared" si="0"/>
-        <v>"name_fr":"tortue "</v>
+        <f t="shared" si="9"/>
+        <v>"name_fr":"Hippopotame "</v>
       </c>
       <c r="H64" t="str">
-        <f t="shared" si="1"/>
-        <v>"name_en":"turtle"</v>
+        <f t="shared" si="10"/>
+        <v>"name_en":"hippo"</v>
       </c>
       <c r="I64" t="str">
-        <f t="shared" si="2"/>
-        <v>"img_src":"david-cadenas-VFTq3si9YVw-unsplash.jpg"</v>
+        <f t="shared" si="11"/>
+        <v>"img_src":""</v>
       </c>
       <c r="J64" t="str">
-        <f t="shared" si="3"/>
-        <v>"img_attribution":"Photo by David Cadenas on Unsplash"</v>
+        <f t="shared" si="12"/>
+        <v>"img_attribution":""</v>
       </c>
       <c r="K64" t="str">
-        <f t="shared" si="4"/>
-        <v>"desc_en":"This turtle appears to be yelling at the photographer."</v>
+        <f t="shared" si="13"/>
+        <v>"desc_en":""</v>
       </c>
       <c r="L64" t="str">
-        <f t="shared" si="5"/>
-        <v>"desc_fr":"Cette tortue semble crier sur le photographe."</v>
+        <f t="shared" si="14"/>
+        <v>"desc_fr":""</v>
       </c>
       <c r="N64" t="str">
-        <f t="shared" si="6"/>
-        <v>{"name_fr":"tortue ","name_en":"turtle","img_src":"david-cadenas-VFTq3si9YVw-unsplash.jpg","img_attribution":"Photo by David Cadenas on Unsplash","desc_en":"This turtle appears to be yelling at the photographer.","desc_fr":"Cette tortue semble crier sur le photographe."}</v>
+        <f t="shared" si="15"/>
+        <v>{"name_fr":"Hippopotame ","name_en":"hippo","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O64" t="str">
-        <f t="shared" si="8"/>
-        <v>,</v>
-      </c>
-      <c r="Q64" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>{"name_fr":"tortue ","name_en":"turtle","img_src":"david-cadenas-VFTq3si9YVw-unsplash.jpg","img_attribution":"Photo by David Cadenas on Unsplash","desc_en":"This turtle appears to be yelling at the photographer.","desc_fr":"Cette tortue semble crier sur le photographe."},</v>
+        <f t="shared" si="18"/>
+        <v>,</v>
+      </c>
+      <c r="Q64" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>{"name_fr":"Hippopotame ","name_en":"hippo","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="B65" t="s">
-        <v>74</v>
-      </c>
-      <c r="C65" t="s">
-        <v>171</v>
-      </c>
-      <c r="D65" t="s">
-        <v>170</v>
-      </c>
-      <c r="E65" t="s">
-        <v>189</v>
-      </c>
-      <c r="F65" t="s">
-        <v>200</v>
+        <v>107</v>
       </c>
       <c r="G65" t="str">
-        <f t="shared" si="0"/>
-        <v>"name_fr":"vache"</v>
+        <f t="shared" si="9"/>
+        <v>"name_fr":"homard"</v>
       </c>
       <c r="H65" t="str">
-        <f t="shared" si="1"/>
-        <v>"name_en":"cow"</v>
+        <f t="shared" si="10"/>
+        <v>"name_en":"lobster"</v>
       </c>
       <c r="I65" t="str">
-        <f t="shared" si="2"/>
-        <v>"img_src":"luke-stackpoole-RxHhxWnXmNs-unsplash.jpg"</v>
+        <f t="shared" si="11"/>
+        <v>"img_src":""</v>
       </c>
       <c r="J65" t="str">
-        <f t="shared" si="3"/>
-        <v>"img_attribution":"Photo by Luke Stackpoole on Unsplash"</v>
+        <f t="shared" si="12"/>
+        <v>"img_attribution":""</v>
       </c>
       <c r="K65" t="str">
-        <f t="shared" si="4"/>
-        <v>"desc_en":"Most cows cannot perform long division."</v>
+        <f t="shared" si="13"/>
+        <v>"desc_en":""</v>
       </c>
       <c r="L65" t="str">
-        <f t="shared" si="5"/>
-        <v>"desc_fr":"La plupart des vaches savent pas faire une division longue."</v>
+        <f t="shared" si="14"/>
+        <v>"desc_fr":""</v>
       </c>
       <c r="N65" t="str">
-        <f t="shared" si="6"/>
-        <v>{"name_fr":"vache","name_en":"cow","img_src":"luke-stackpoole-RxHhxWnXmNs-unsplash.jpg","img_attribution":"Photo by Luke Stackpoole on Unsplash","desc_en":"Most cows cannot perform long division.","desc_fr":"La plupart des vaches savent pas faire une division longue."}</v>
+        <f t="shared" si="15"/>
+        <v>{"name_fr":"homard","name_en":"lobster","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O65" t="str">
-        <f t="shared" si="8"/>
-        <v>,</v>
-      </c>
-      <c r="Q65" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>{"name_fr":"vache","name_en":"cow","img_src":"luke-stackpoole-RxHhxWnXmNs-unsplash.jpg","img_attribution":"Photo by Luke Stackpoole on Unsplash","desc_en":"Most cows cannot perform long division.","desc_fr":"La plupart des vaches savent pas faire une division longue."},</v>
+        <f t="shared" si="18"/>
+        <v>,</v>
+      </c>
+      <c r="Q65" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>{"name_fr":"homard","name_en":"lobster","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>119</v>
       </c>
       <c r="B66" t="s">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="G66" t="str">
-        <f t="shared" ref="G66:G84" si="9">CHAR(34) &amp; "name_fr" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;A66&amp;CHAR(34)</f>
-        <v>"name_fr":"Veau "</v>
+        <f t="shared" si="9"/>
+        <v>"name_fr":"iguane"</v>
       </c>
       <c r="H66" t="str">
-        <f t="shared" ref="H66:H84" si="10">CHAR(34) &amp; "name_en" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;B66&amp;CHAR(34)</f>
-        <v>"name_en":"calf"</v>
+        <f t="shared" si="10"/>
+        <v>"name_en":"iguana"</v>
       </c>
       <c r="I66" t="str">
-        <f t="shared" ref="I66:I84" si="11">CHAR(34) &amp; "img_src" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;C66&amp;CHAR(34)</f>
+        <f t="shared" si="11"/>
         <v>"img_src":""</v>
       </c>
       <c r="J66" t="str">
-        <f t="shared" ref="J66:J84" si="12">CHAR(34) &amp; "img_attribution" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;D66&amp;CHAR(34)</f>
+        <f t="shared" si="12"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K66" t="str">
-        <f t="shared" ref="K66:K84" si="13">CHAR(34) &amp; "desc_en" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;E66&amp;CHAR(34)</f>
+        <f t="shared" si="13"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L66" t="str">
-        <f t="shared" ref="L66:L84" si="14">CHAR(34) &amp; "desc_fr" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;F66&amp;CHAR(34)</f>
+        <f t="shared" si="14"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N66" t="str">
-        <f t="shared" ref="N66:N84" si="15">"{" &amp; G66 &amp; "," &amp; H66 &amp; "," &amp; I66 &amp; "," &amp; J66 &amp; "," &amp; K66 &amp; "," &amp; L66 &amp; "}"</f>
-        <v>{"name_fr":"Veau ","name_en":"calf","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="15"/>
+        <v>{"name_fr":"iguane","name_en":"iguana","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O66" t="str">
-        <f t="shared" si="8"/>
-        <v>,</v>
-      </c>
-      <c r="Q66" s="4" t="str">
-        <f t="shared" ref="Q66:Q84" si="16">N66&amp;O66</f>
-        <v>{"name_fr":"Veau ","name_en":"calf","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="18"/>
+        <v>,</v>
+      </c>
+      <c r="Q66" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>{"name_fr":"iguane","name_en":"iguana","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="B67" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="G67" t="str">
         <f t="shared" si="9"/>
-        <v>"name_fr":"ver"</v>
+        <v>"name_fr":"kangourou"</v>
       </c>
       <c r="H67" t="str">
         <f t="shared" si="10"/>
-        <v>"name_en":"worm"</v>
+        <v>"name_en":"kangaroo"</v>
       </c>
       <c r="I67" t="str">
         <f t="shared" si="11"/>
@@ -4066,31 +4021,31 @@
       </c>
       <c r="N67" t="str">
         <f t="shared" si="15"/>
-        <v>{"name_fr":"ver","name_en":"worm","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <v>{"name_fr":"kangourou","name_en":"kangaroo","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O83" si="17">","</f>
-        <v>,</v>
-      </c>
-      <c r="Q67" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>{"name_fr":"ver","name_en":"worm","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="18"/>
+        <v>,</v>
+      </c>
+      <c r="Q67" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>{"name_fr":"kangourou","name_en":"kangaroo","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="B68" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="G68" t="str">
         <f t="shared" si="9"/>
-        <v>"name_fr":"Zèbre "</v>
+        <v>"name_fr":"lapin"</v>
       </c>
       <c r="H68" t="str">
         <f t="shared" si="10"/>
-        <v>"name_en":"zebra"</v>
+        <v>"name_en":"rabbit"</v>
       </c>
       <c r="I68" t="str">
         <f t="shared" si="11"/>
@@ -4110,31 +4065,31 @@
       </c>
       <c r="N68" t="str">
         <f t="shared" si="15"/>
-        <v>{"name_fr":"Zèbre ","name_en":"zebra","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <v>{"name_fr":"lapin","name_en":"rabbit","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O68" t="str">
-        <f t="shared" si="17"/>
-        <v>,</v>
-      </c>
-      <c r="Q68" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>{"name_fr":"Zèbre ","name_en":"zebra","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="18"/>
+        <v>,</v>
+      </c>
+      <c r="Q68" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>{"name_fr":"lapin","name_en":"rabbit","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B69" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G69" t="str">
         <f t="shared" si="9"/>
-        <v>"name_fr":"bouquetin"</v>
+        <v>"name_fr":"léopard"</v>
       </c>
       <c r="H69" t="str">
         <f t="shared" si="10"/>
-        <v>"name_en":"ibex"</v>
+        <v>"name_en":"leopard"</v>
       </c>
       <c r="I69" t="str">
         <f t="shared" si="11"/>
@@ -4154,31 +4109,31 @@
       </c>
       <c r="N69" t="str">
         <f t="shared" si="15"/>
-        <v>{"name_fr":"bouquetin","name_en":"ibex","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <v>{"name_fr":"léopard","name_en":"leopard","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O69" t="str">
-        <f t="shared" si="17"/>
-        <v>,</v>
-      </c>
-      <c r="Q69" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>{"name_fr":"bouquetin","name_en":"ibex","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="18"/>
+        <v>,</v>
+      </c>
+      <c r="Q69" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>{"name_fr":"léopard","name_en":"leopard","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="B70" t="s">
-        <v>134</v>
+        <v>86</v>
       </c>
       <c r="G70" t="str">
         <f t="shared" si="9"/>
-        <v>"name_fr":"nandou"</v>
+        <v>"name_fr":"Lion "</v>
       </c>
       <c r="H70" t="str">
         <f t="shared" si="10"/>
-        <v>"name_en":"rhea"</v>
+        <v>"name_en":"lion"</v>
       </c>
       <c r="I70" t="str">
         <f t="shared" si="11"/>
@@ -4198,31 +4153,31 @@
       </c>
       <c r="N70" t="str">
         <f t="shared" si="15"/>
-        <v>{"name_fr":"nandou","name_en":"rhea","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <v>{"name_fr":"Lion ","name_en":"lion","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O70" t="str">
-        <f t="shared" si="17"/>
-        <v>,</v>
-      </c>
-      <c r="Q70" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>{"name_fr":"nandou","name_en":"rhea","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="18"/>
+        <v>,</v>
+      </c>
+      <c r="Q70" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>{"name_fr":"Lion ","name_en":"lion","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>138</v>
+        <v>28</v>
       </c>
       <c r="B71" t="s">
-        <v>137</v>
+        <v>29</v>
       </c>
       <c r="G71" t="str">
         <f t="shared" si="9"/>
-        <v>"name_fr":"orang-outang"</v>
+        <v>"name_fr":"loup"</v>
       </c>
       <c r="H71" t="str">
         <f t="shared" si="10"/>
-        <v>"name_en":"orangutan"</v>
+        <v>"name_en":"wolf"</v>
       </c>
       <c r="I71" t="str">
         <f t="shared" si="11"/>
@@ -4242,31 +4197,31 @@
       </c>
       <c r="N71" t="str">
         <f t="shared" si="15"/>
-        <v>{"name_fr":"orang-outang","name_en":"orangutan","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <v>{"name_fr":"loup","name_en":"wolf","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O71" t="str">
-        <f t="shared" si="17"/>
-        <v>,</v>
-      </c>
-      <c r="Q71" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>{"name_fr":"orang-outang","name_en":"orangutan","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="18"/>
+        <v>,</v>
+      </c>
+      <c r="Q71" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>{"name_fr":"loup","name_en":"wolf","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="B72" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G72" t="str">
         <f t="shared" si="9"/>
-        <v>"name_fr":"wapati"</v>
+        <v>"name_fr":"Mouche "</v>
       </c>
       <c r="H72" t="str">
         <f t="shared" si="10"/>
-        <v>"name_en":"elephant"</v>
+        <v>"name_en":"fly"</v>
       </c>
       <c r="I72" t="str">
         <f t="shared" si="11"/>
@@ -4286,31 +4241,31 @@
       </c>
       <c r="N72" t="str">
         <f t="shared" si="15"/>
-        <v>{"name_fr":"wapati","name_en":"elephant","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <v>{"name_fr":"Mouche ","name_en":"fly","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O72" t="str">
-        <f t="shared" si="17"/>
-        <v>,</v>
-      </c>
-      <c r="Q72" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>{"name_fr":"wapati","name_en":"elephant","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="18"/>
+        <v>,</v>
+      </c>
+      <c r="Q72" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>{"name_fr":"Mouche ","name_en":"fly","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A73" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>140</v>
+      <c r="A73" t="s">
+        <v>45</v>
+      </c>
+      <c r="B73" t="s">
+        <v>46</v>
       </c>
       <c r="G73" t="str">
         <f t="shared" si="9"/>
-        <v>"name_fr":"urubu"</v>
+        <v>"name_fr":"moufette"</v>
       </c>
       <c r="H73" t="str">
         <f t="shared" si="10"/>
-        <v>"name_en":"vulture"</v>
+        <v>"name_en":"skunk"</v>
       </c>
       <c r="I73" t="str">
         <f t="shared" si="11"/>
@@ -4330,495 +4285,543 @@
       </c>
       <c r="N73" t="str">
         <f t="shared" si="15"/>
-        <v>{"name_fr":"urubu","name_en":"vulture","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <v>{"name_fr":"moufette","name_en":"skunk","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O73" t="str">
-        <f t="shared" si="17"/>
-        <v>,</v>
-      </c>
-      <c r="Q73" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>{"name_fr":"urubu","name_en":"vulture","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="18"/>
+        <v>,</v>
+      </c>
+      <c r="Q73" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>{"name_fr":"moufette","name_en":"skunk","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A74" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>143</v>
+      <c r="A74" t="s">
+        <v>106</v>
+      </c>
+      <c r="B74" t="s">
+        <v>116</v>
       </c>
       <c r="G74" t="str">
-        <f t="shared" si="9"/>
-        <v>"name_fr":"xerus"</v>
+        <f t="shared" ref="G74:G85" si="19">CHAR(34) &amp; "name_fr" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;A74&amp;CHAR(34)</f>
+        <v>"name_fr":"moule"</v>
       </c>
       <c r="H74" t="str">
-        <f t="shared" si="10"/>
-        <v>"name_en":"squirrel"</v>
+        <f t="shared" ref="H74:H85" si="20">CHAR(34) &amp; "name_en" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;B74&amp;CHAR(34)</f>
+        <v>"name_en":"mussel"</v>
       </c>
       <c r="I74" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="I74:I85" si="21">CHAR(34) &amp; "img_src" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;C74&amp;CHAR(34)</f>
         <v>"img_src":""</v>
       </c>
       <c r="J74" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="J74:J85" si="22">CHAR(34) &amp; "img_attribution" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;D74&amp;CHAR(34)</f>
         <v>"img_attribution":""</v>
       </c>
       <c r="K74" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="K74:K85" si="23">CHAR(34) &amp; "desc_en" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;E74&amp;CHAR(34)</f>
         <v>"desc_en":""</v>
       </c>
       <c r="L74" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="L74:L85" si="24">CHAR(34) &amp; "desc_fr" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;F74&amp;CHAR(34)</f>
         <v>"desc_fr":""</v>
       </c>
       <c r="N74" t="str">
-        <f t="shared" si="15"/>
-        <v>{"name_fr":"xerus","name_en":"squirrel","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" ref="N74:N85" si="25">"{" &amp; G74 &amp; "," &amp; H74 &amp; "," &amp; I74 &amp; "," &amp; J74 &amp; "," &amp; K74 &amp; "," &amp; L74 &amp; "}"</f>
+        <v>{"name_fr":"moule","name_en":"mussel","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O74" t="str">
-        <f t="shared" si="17"/>
-        <v>,</v>
-      </c>
-      <c r="Q74" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>{"name_fr":"xerus","name_en":"squirrel","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="18"/>
+        <v>,</v>
+      </c>
+      <c r="Q74" s="3" t="str">
+        <f t="shared" ref="Q74:Q85" si="26">N74&amp;O74</f>
+        <v>{"name_fr":"moule","name_en":"mussel","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A75" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>144</v>
+      <c r="A75" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75" t="s">
+        <v>5</v>
       </c>
       <c r="G75" t="str">
-        <f t="shared" si="9"/>
-        <v>"name_fr":"yak"</v>
+        <f t="shared" si="19"/>
+        <v>"name_fr":"mouton"</v>
       </c>
       <c r="H75" t="str">
-        <f t="shared" si="10"/>
-        <v>"name_en":"yak"</v>
+        <f t="shared" si="20"/>
+        <v>"name_en":"lamb"</v>
       </c>
       <c r="I75" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>"img_src":""</v>
       </c>
       <c r="J75" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K75" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L75" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N75" t="str">
-        <f t="shared" si="15"/>
-        <v>{"name_fr":"yak","name_en":"yak","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="25"/>
+        <v>{"name_fr":"mouton","name_en":"lamb","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O75" t="str">
-        <f t="shared" si="17"/>
-        <v>,</v>
-      </c>
-      <c r="Q75" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>{"name_fr":"yak","name_en":"yak","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="18"/>
+        <v>,</v>
+      </c>
+      <c r="Q75" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>{"name_fr":"mouton","name_en":"lamb","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A76" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>145</v>
+      <c r="A76" t="s">
+        <v>51</v>
+      </c>
+      <c r="B76" t="s">
+        <v>52</v>
       </c>
       <c r="G76" t="str">
-        <f t="shared" si="9"/>
-        <v>"name_fr":"koala"</v>
+        <f t="shared" si="19"/>
+        <v>"name_fr":"oiseau"</v>
       </c>
       <c r="H76" t="str">
-        <f t="shared" si="10"/>
-        <v>"name_en":"koala"</v>
+        <f t="shared" si="20"/>
+        <v>"name_en":"bird"</v>
       </c>
       <c r="I76" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>"img_src":""</v>
       </c>
       <c r="J76" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K76" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L76" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N76" t="str">
-        <f t="shared" si="15"/>
-        <v>{"name_fr":"koala","name_en":"koala","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="25"/>
+        <v>{"name_fr":"oiseau","name_en":"bird","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O76" t="str">
-        <f t="shared" si="17"/>
-        <v>,</v>
-      </c>
-      <c r="Q76" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>{"name_fr":"koala","name_en":"koala","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="18"/>
+        <v>,</v>
+      </c>
+      <c r="Q76" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>{"name_fr":"oiseau","name_en":"bird","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A77" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>147</v>
+      <c r="A77" t="s">
+        <v>109</v>
+      </c>
+      <c r="B77" t="s">
+        <v>110</v>
       </c>
       <c r="G77" t="str">
-        <f t="shared" si="9"/>
-        <v>"name_fr":"frelon"</v>
+        <f t="shared" si="19"/>
+        <v>"name_fr":"Orque "</v>
       </c>
       <c r="H77" t="str">
-        <f t="shared" si="10"/>
-        <v>"name_en":"hornet"</v>
+        <f t="shared" si="20"/>
+        <v>"name_en":"orca"</v>
       </c>
       <c r="I77" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>"img_src":""</v>
       </c>
       <c r="J77" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K77" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L77" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N77" t="str">
-        <f t="shared" si="15"/>
-        <v>{"name_fr":"frelon","name_en":"hornet","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="25"/>
+        <v>{"name_fr":"Orque ","name_en":"orca","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O77" t="str">
-        <f t="shared" si="17"/>
-        <v>,</v>
-      </c>
-      <c r="Q77" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>{"name_fr":"frelon","name_en":"hornet","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="18"/>
+        <v>,</v>
+      </c>
+      <c r="Q77" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>{"name_fr":"Orque ","name_en":"orca","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A78" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>163</v>
+      <c r="A78" t="s">
+        <v>17</v>
+      </c>
+      <c r="B78" t="s">
+        <v>16</v>
       </c>
       <c r="G78" t="str">
-        <f t="shared" si="9"/>
-        <v>"name_fr":"tigresse"</v>
+        <f t="shared" si="19"/>
+        <v>"name_fr":"ours"</v>
       </c>
       <c r="H78" t="str">
-        <f t="shared" si="10"/>
-        <v>"name_en":"tigress"</v>
+        <f t="shared" si="20"/>
+        <v>"name_en":"bear"</v>
       </c>
       <c r="I78" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>"img_src":""</v>
       </c>
       <c r="J78" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K78" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L78" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N78" t="str">
-        <f t="shared" si="15"/>
-        <v>{"name_fr":"tigresse","name_en":"tigress","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="25"/>
+        <v>{"name_fr":"ours","name_en":"bear","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O78" t="str">
-        <f t="shared" si="17"/>
-        <v>,</v>
-      </c>
-      <c r="Q78" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>{"name_fr":"tigresse","name_en":"tigress","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="18"/>
+        <v>,</v>
+      </c>
+      <c r="Q78" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>{"name_fr":"ours","name_en":"bear","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A79" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>161</v>
+      <c r="A79" t="s">
+        <v>128</v>
+      </c>
+      <c r="B79" t="s">
+        <v>128</v>
       </c>
       <c r="G79" t="str">
-        <f t="shared" si="9"/>
-        <v>"name_fr":"lionesse"</v>
+        <f t="shared" si="19"/>
+        <v>"name_fr":"panda"</v>
       </c>
       <c r="H79" t="str">
-        <f t="shared" si="10"/>
-        <v>"name_en":"lioness"</v>
+        <f t="shared" si="20"/>
+        <v>"name_en":"panda"</v>
       </c>
       <c r="I79" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>"img_src":""</v>
       </c>
       <c r="J79" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K79" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L79" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N79" t="str">
-        <f t="shared" si="15"/>
-        <v>{"name_fr":"lionesse","name_en":"lioness","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="25"/>
+        <v>{"name_fr":"panda","name_en":"panda","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O79" t="str">
-        <f t="shared" si="17"/>
-        <v>,</v>
-      </c>
-      <c r="Q79" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>{"name_fr":"lionesse","name_en":"lioness","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="18"/>
+        <v>,</v>
+      </c>
+      <c r="Q79" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>{"name_fr":"panda","name_en":"panda","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A80" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>150</v>
+      <c r="A80" t="s">
+        <v>88</v>
+      </c>
+      <c r="B80" t="s">
+        <v>89</v>
       </c>
       <c r="G80" t="str">
-        <f t="shared" si="9"/>
-        <v>"name_fr":"termite"</v>
+        <f t="shared" si="19"/>
+        <v>"name_fr":"Panthère "</v>
       </c>
       <c r="H80" t="str">
-        <f t="shared" si="10"/>
-        <v>"name_en":"termite"</v>
+        <f t="shared" si="20"/>
+        <v>"name_en":"panther"</v>
       </c>
       <c r="I80" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>"img_src":""</v>
       </c>
       <c r="J80" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K80" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L80" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N80" t="str">
-        <f t="shared" si="15"/>
-        <v>{"name_fr":"termite","name_en":"termite","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="25"/>
+        <v>{"name_fr":"Panthère ","name_en":"panther","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O80" t="str">
-        <f t="shared" si="17"/>
-        <v>,</v>
-      </c>
-      <c r="Q80" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>{"name_fr":"termite","name_en":"termite","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="18"/>
+        <v>,</v>
+      </c>
+      <c r="Q80" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>{"name_fr":"Panthère ","name_en":"panther","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A81" s="2" t="s">
-        <v>151</v>
+      <c r="A81" t="s">
+        <v>97</v>
       </c>
       <c r="B81" t="s">
-        <v>152</v>
+        <v>98</v>
       </c>
       <c r="G81" t="str">
-        <f t="shared" si="9"/>
-        <v>"name_fr":"thon"</v>
+        <f t="shared" si="19"/>
+        <v>"name_fr":"papillon"</v>
       </c>
       <c r="H81" t="str">
-        <f t="shared" si="10"/>
-        <v>"name_en":"tuna"</v>
+        <f t="shared" si="20"/>
+        <v>"name_en":"butterfly"</v>
       </c>
       <c r="I81" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>"img_src":""</v>
       </c>
       <c r="J81" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K81" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L81" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N81" t="str">
-        <f t="shared" si="15"/>
-        <v>{"name_fr":"thon","name_en":"tuna","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="25"/>
+        <v>{"name_fr":"papillon","name_en":"butterfly","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O81" t="str">
-        <f t="shared" si="17"/>
-        <v>,</v>
-      </c>
-      <c r="Q81" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>{"name_fr":"thon","name_en":"tuna","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="18"/>
+        <v>,</v>
+      </c>
+      <c r="Q81" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>{"name_fr":"papillon","name_en":"butterfly","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A82" s="2" t="s">
-        <v>153</v>
+      <c r="A82" t="s">
+        <v>57</v>
       </c>
       <c r="B82" t="s">
-        <v>154</v>
+        <v>58</v>
       </c>
       <c r="G82" t="str">
-        <f t="shared" si="9"/>
-        <v>"name_fr":"truite"</v>
+        <f t="shared" si="19"/>
+        <v>"name_fr":"poisson"</v>
       </c>
       <c r="H82" t="str">
-        <f t="shared" si="10"/>
-        <v>"name_en":"trout"</v>
+        <f t="shared" si="20"/>
+        <v>"name_en":"fish"</v>
       </c>
       <c r="I82" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>"img_src":""</v>
       </c>
       <c r="J82" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K82" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L82" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N82" t="str">
-        <f t="shared" si="15"/>
-        <v>{"name_fr":"truite","name_en":"trout","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="25"/>
+        <v>{"name_fr":"poisson","name_en":"fish","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O82" t="str">
-        <f t="shared" si="17"/>
-        <v>,</v>
-      </c>
-      <c r="Q82" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>{"name_fr":"truite","name_en":"trout","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="18"/>
+        <v>,</v>
+      </c>
+      <c r="Q82" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>{"name_fr":"poisson","name_en":"fish","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A83" s="2" t="s">
-        <v>155</v>
+      <c r="A83" t="s">
+        <v>64</v>
       </c>
       <c r="B83" t="s">
-        <v>156</v>
+        <v>73</v>
       </c>
       <c r="G83" t="str">
-        <f t="shared" si="9"/>
-        <v>"name_fr":"loutre"</v>
+        <f t="shared" si="19"/>
+        <v>"name_fr":"poule"</v>
       </c>
       <c r="H83" t="str">
-        <f t="shared" si="10"/>
-        <v>"name_en":"otter"</v>
+        <f t="shared" si="20"/>
+        <v>"name_en":"chicken"</v>
       </c>
       <c r="I83" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>"img_src":""</v>
       </c>
       <c r="J83" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K83" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L83" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N83" t="str">
-        <f t="shared" si="15"/>
-        <v>{"name_fr":"loutre","name_en":"otter","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="25"/>
+        <v>{"name_fr":"poule","name_en":"chicken","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O83" t="str">
-        <f t="shared" si="17"/>
-        <v>,</v>
-      </c>
-      <c r="Q83" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>{"name_fr":"loutre","name_en":"otter","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="18"/>
+        <v>,</v>
+      </c>
+      <c r="Q83" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>{"name_fr":"poule","name_en":"chicken","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A84" s="2" t="s">
-        <v>157</v>
+      <c r="A84" t="s">
+        <v>6</v>
       </c>
       <c r="B84" t="s">
-        <v>162</v>
+        <v>7</v>
       </c>
       <c r="G84" t="str">
-        <f t="shared" si="9"/>
-        <v>"name_fr":"etoile de mer"</v>
+        <f t="shared" si="19"/>
+        <v>"name_fr":"puce"</v>
       </c>
       <c r="H84" t="str">
-        <f t="shared" si="10"/>
-        <v>"name_en":"starfish"</v>
+        <f t="shared" si="20"/>
+        <v>"name_en":"flea"</v>
       </c>
       <c r="I84" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>"img_src":""</v>
       </c>
       <c r="J84" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K84" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L84" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N84" t="str">
-        <f t="shared" si="15"/>
-        <v>{"name_fr":"etoile de mer","name_en":"starfish","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
-      </c>
-      <c r="Q84" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>{"name_fr":"etoile de mer","name_en":"starfish","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="25"/>
+        <v>{"name_fr":"puce","name_en":"flea","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="18"/>
+        <v>,</v>
+      </c>
+      <c r="Q84" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>{"name_fr":"puce","name_en":"flea","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>48</v>
+      </c>
+      <c r="B85" t="s">
+        <v>50</v>
+      </c>
+      <c r="G85" t="str">
+        <f t="shared" si="19"/>
+        <v>"name_fr":"raton"</v>
+      </c>
+      <c r="H85" t="str">
+        <f t="shared" si="20"/>
+        <v>"name_en":"rat"</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="21"/>
+        <v>"img_src":""</v>
+      </c>
+      <c r="J85" t="str">
+        <f t="shared" si="22"/>
+        <v>"img_attribution":""</v>
+      </c>
+      <c r="K85" t="str">
+        <f t="shared" si="23"/>
+        <v>"desc_en":""</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="24"/>
+        <v>"desc_fr":""</v>
+      </c>
+      <c r="N85" t="str">
+        <f t="shared" si="25"/>
+        <v>{"name_fr":"raton","name_en":"rat","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="18"/>
+        <v>,</v>
+      </c>
+      <c r="Q85" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>{"name_fr":"raton","name_en":"rat","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
   </sheetData>

--- a/les_animaux.xlsx
+++ b/les_animaux.xlsx
@@ -559,9 +559,6 @@
     <t>Photo by Ed van duijn on Unsplash</t>
   </si>
   <si>
-    <t>This turtle appears to be yelling at the photographer.</t>
-  </si>
-  <si>
     <t>The racoon uses its formidable intelligence to find and eat garbage.</t>
   </si>
   <si>
@@ -577,9 +574,6 @@
     <t>Photo by Dušan veverkolog on Unsplash</t>
   </si>
   <si>
-    <t>The measure of this fox can be taken in liters.</t>
-  </si>
-  <si>
     <t>Most cows cannot perform long division.</t>
   </si>
   <si>
@@ -589,15 +583,6 @@
     <t>Despite his many legs, this spider pursues a career in ballet.</t>
   </si>
   <si>
-    <t>Malgré ses nombreuses pattes, cette araignée poursuit une carrière dans le ballet.</t>
-  </si>
-  <si>
-    <t>La mesure de ce renard peut être prise en litres.</t>
-  </si>
-  <si>
-    <t>Cette tortue semble crier sur le photographe.</t>
-  </si>
-  <si>
     <t>La plupart des vaches savent pas faire une division longue.</t>
   </si>
   <si>
@@ -617,13 +602,28 @@
   </si>
   <si>
     <t>Le raton laveur utilise sa formidable intelligence pour trouver et manger des déchets.</t>
+  </si>
+  <si>
+    <t>Malgré ses nombreuses pattes, cette araignée considère une carrière dans le ballet.</t>
+  </si>
+  <si>
+    <t>La taille de cette boîte peut être mesurée en litres.</t>
+  </si>
+  <si>
+    <t>The size of this box can be measured in litres.</t>
+  </si>
+  <si>
+    <t>This turtle has just learned Russian.</t>
+  </si>
+  <si>
+    <t>Cette tortue vient d'apprendre le russe.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -651,8 +651,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -662,6 +669,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -674,19 +686,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -988,8 +1003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1026,10 +1041,10 @@
         <v>174</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G1" t="str">
         <f>CHAR(34) &amp; "name_fr" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;A1&amp;CHAR(34)</f>
@@ -1082,10 +1097,10 @@
         <v>176</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G2" t="str">
         <f t="shared" ref="G2:G8" si="0">CHAR(34) &amp; "name_fr" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;A2&amp;CHAR(34)</f>
@@ -1137,11 +1152,11 @@
       <c r="D3" t="s">
         <v>180</v>
       </c>
-      <c r="E3" t="s">
-        <v>190</v>
-      </c>
-      <c r="F3" t="s">
-        <v>191</v>
+      <c r="E3" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" si="0"/>
@@ -1165,11 +1180,11 @@
       </c>
       <c r="L3" t="str">
         <f t="shared" si="5"/>
-        <v>"desc_fr":"Malgré ses nombreuses pattes, cette araignée poursuit une carrière dans le ballet."</v>
+        <v>"desc_fr":"Malgré ses nombreuses pattes, cette araignée considère une carrière dans le ballet."</v>
       </c>
       <c r="N3" t="str">
         <f t="shared" si="6"/>
-        <v>{"name_fr":"araignee","name_en":"spider","img_src":"ed-van-duijn-UUdJ-0LQs0M-unsplash.jpg","img_attribution":"Photo by Ed van duijn on Unsplash","desc_en":"Despite his many legs, this spider pursues a career in ballet.","desc_fr":"Malgré ses nombreuses pattes, cette araignée poursuit une carrière dans le ballet."}</v>
+        <v>{"name_fr":"araignee","name_en":"spider","img_src":"ed-van-duijn-UUdJ-0LQs0M-unsplash.jpg","img_attribution":"Photo by Ed van duijn on Unsplash","desc_en":"Despite his many legs, this spider pursues a career in ballet.","desc_fr":"Malgré ses nombreuses pattes, cette araignée considère une carrière dans le ballet."}</v>
       </c>
       <c r="O3" t="str">
         <f t="shared" ref="O3:O10" si="8">","</f>
@@ -1177,7 +1192,7 @@
       </c>
       <c r="Q3" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>{"name_fr":"araignee","name_en":"spider","img_src":"ed-van-duijn-UUdJ-0LQs0M-unsplash.jpg","img_attribution":"Photo by Ed van duijn on Unsplash","desc_en":"Despite his many legs, this spider pursues a career in ballet.","desc_fr":"Malgré ses nombreuses pattes, cette araignée poursuit une carrière dans le ballet."},</v>
+        <v>{"name_fr":"araignee","name_en":"spider","img_src":"ed-van-duijn-UUdJ-0LQs0M-unsplash.jpg","img_attribution":"Photo by Ed van duijn on Unsplash","desc_en":"Despite his many legs, this spider pursues a career in ballet.","desc_fr":"Malgré ses nombreuses pattes, cette araignée considère une carrière dans le ballet."},</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -1188,16 +1203,16 @@
         <v>49</v>
       </c>
       <c r="C4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D4" t="s">
         <v>183</v>
       </c>
-      <c r="D4" t="s">
-        <v>184</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
@@ -1244,16 +1259,16 @@
         <v>27</v>
       </c>
       <c r="C5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" t="s">
         <v>185</v>
       </c>
-      <c r="D5" t="s">
-        <v>186</v>
-      </c>
-      <c r="E5" t="s">
-        <v>187</v>
-      </c>
-      <c r="F5" t="s">
-        <v>192</v>
+      <c r="E5" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>197</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
@@ -1273,15 +1288,15 @@
       </c>
       <c r="K5" t="str">
         <f t="shared" si="4"/>
-        <v>"desc_en":"The measure of this fox can be taken in liters."</v>
+        <v>"desc_en":"The size of this box can be measured in litres."</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="5"/>
-        <v>"desc_fr":"La mesure de ce renard peut être prise en litres."</v>
+        <v>"desc_fr":"La taille de cette boîte peut être mesurée en litres."</v>
       </c>
       <c r="N5" t="str">
         <f t="shared" si="6"/>
-        <v>{"name_fr":"renard","name_en":"fox","img_src":"dusan-veverkolog-nOsJYzXEG98-unsplash.jpg","img_attribution":"Photo by Dušan veverkolog on Unsplash","desc_en":"The measure of this fox can be taken in liters.","desc_fr":"La mesure de ce renard peut être prise en litres."}</v>
+        <v>{"name_fr":"renard","name_en":"fox","img_src":"dusan-veverkolog-nOsJYzXEG98-unsplash.jpg","img_attribution":"Photo by Dušan veverkolog on Unsplash","desc_en":"The size of this box can be measured in litres.","desc_fr":"La taille de cette boîte peut être mesurée en litres."}</v>
       </c>
       <c r="O5" t="str">
         <f t="shared" si="8"/>
@@ -1289,7 +1304,7 @@
       </c>
       <c r="Q5" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>{"name_fr":"renard","name_en":"fox","img_src":"dusan-veverkolog-nOsJYzXEG98-unsplash.jpg","img_attribution":"Photo by Dušan veverkolog on Unsplash","desc_en":"The measure of this fox can be taken in liters.","desc_fr":"La mesure de ce renard peut être prise en litres."},</v>
+        <v>{"name_fr":"renard","name_en":"fox","img_src":"dusan-veverkolog-nOsJYzXEG98-unsplash.jpg","img_attribution":"Photo by Dušan veverkolog on Unsplash","desc_en":"The size of this box can be measured in litres.","desc_fr":"La taille de cette boîte peut être mesurée en litres."},</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1306,10 +1321,10 @@
         <v>168</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
@@ -1362,10 +1377,10 @@
         <v>172</v>
       </c>
       <c r="E7" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="F7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
@@ -1385,15 +1400,15 @@
       </c>
       <c r="K7" t="str">
         <f t="shared" si="4"/>
-        <v>"desc_en":"This turtle appears to be yelling at the photographer."</v>
+        <v>"desc_en":"This turtle has just learned Russian."</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" si="5"/>
-        <v>"desc_fr":"Cette tortue semble crier sur le photographe."</v>
+        <v>"desc_fr":"Cette tortue vient d'apprendre le russe."</v>
       </c>
       <c r="N7" t="str">
         <f t="shared" si="6"/>
-        <v>{"name_fr":"tortue ","name_en":"turtle","img_src":"david-cadenas-VFTq3si9YVw-unsplash.jpg","img_attribution":"Photo by David Cadenas on Unsplash","desc_en":"This turtle appears to be yelling at the photographer.","desc_fr":"Cette tortue semble crier sur le photographe."}</v>
+        <v>{"name_fr":"tortue ","name_en":"turtle","img_src":"david-cadenas-VFTq3si9YVw-unsplash.jpg","img_attribution":"Photo by David Cadenas on Unsplash","desc_en":"This turtle has just learned Russian.","desc_fr":"Cette tortue vient d'apprendre le russe."}</v>
       </c>
       <c r="O7" t="str">
         <f t="shared" si="8"/>
@@ -1401,7 +1416,7 @@
       </c>
       <c r="Q7" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>{"name_fr":"tortue ","name_en":"turtle","img_src":"david-cadenas-VFTq3si9YVw-unsplash.jpg","img_attribution":"Photo by David Cadenas on Unsplash","desc_en":"This turtle appears to be yelling at the photographer.","desc_fr":"Cette tortue semble crier sur le photographe."},</v>
+        <v>{"name_fr":"tortue ","name_en":"turtle","img_src":"david-cadenas-VFTq3si9YVw-unsplash.jpg","img_attribution":"Photo by David Cadenas on Unsplash","desc_en":"This turtle has just learned Russian.","desc_fr":"Cette tortue vient d'apprendre le russe."},</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1418,10 +1433,10 @@
         <v>170</v>
       </c>
       <c r="E8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F8" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>

--- a/les_animaux.xlsx
+++ b/les_animaux.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="240">
   <si>
     <t>requin</t>
   </si>
@@ -574,18 +574,9 @@
     <t>Photo by Dušan veverkolog on Unsplash</t>
   </si>
   <si>
-    <t>Most cows cannot perform long division.</t>
-  </si>
-  <si>
-    <t>This eagle's parents want him to become a doctor; he flies in solitude and contemplates his future.</t>
-  </si>
-  <si>
     <t>Despite his many legs, this spider pursues a career in ballet.</t>
   </si>
   <si>
-    <t>La plupart des vaches savent pas faire une division longue.</t>
-  </si>
-  <si>
     <t>Les parents de cette aigle veulent qu'elle devienne médecin. Elle vole dans la solitude et pense au futur.</t>
   </si>
   <si>
@@ -607,23 +598,149 @@
     <t>Malgré ses nombreuses pattes, cette araignée considère une carrière dans le ballet.</t>
   </si>
   <si>
-    <t>La taille de cette boîte peut être mesurée en litres.</t>
-  </si>
-  <si>
-    <t>The size of this box can be measured in litres.</t>
-  </si>
-  <si>
     <t>This turtle has just learned Russian.</t>
   </si>
   <si>
     <t>Cette tortue vient d'apprendre le russe.</t>
+  </si>
+  <si>
+    <t>The size of this fox can be measured in litres.</t>
+  </si>
+  <si>
+    <t>La taille de ce renard peut être mesurée en litres.</t>
+  </si>
+  <si>
+    <t>this camel has opened a dance club in London.</t>
+  </si>
+  <si>
+    <t>This mouse is unaware that the interest rate has increased.</t>
+  </si>
+  <si>
+    <t>Cette souris a appris à faire des pâtes fraîches</t>
+  </si>
+  <si>
+    <t>This worm has been divorced twice. His third marriage will be a success.</t>
+  </si>
+  <si>
+    <t>the chimpanzee goes fishing every Thursday with his neice. Last time, she caught a salmon.</t>
+  </si>
+  <si>
+    <t>With malice in his heart, this duck plots revenge</t>
+  </si>
+  <si>
+    <t>has wisdom to share, but he will not</t>
+  </si>
+  <si>
+    <t>Ce cerf t'a regardé tout au long de la journée, mais de loin.</t>
+  </si>
+  <si>
+    <t>Avec malveillance dans sa coeur, ce canard se prépare à se venger.</t>
+  </si>
+  <si>
+    <t>Ce ver a divorcé deux fois. Son troisième mariage sera un succès.</t>
+  </si>
+  <si>
+    <t>Spiralling in chaotic descent, this bull found a moment of clarity, and looked inward. He forgives.</t>
+  </si>
+  <si>
+    <t>the crab looks to the sky and sees the spirit of his ancestors.</t>
+  </si>
+  <si>
+    <t>The life of this salmon comes to an end, captured by a primate duo. Smiles fill the air, though not the salmons.</t>
+  </si>
+  <si>
+    <t>Most cows cannot perform long division. But this cow knows what it is to be underestimated. Beware.</t>
+  </si>
+  <si>
+    <t>hampster</t>
+  </si>
+  <si>
+    <t>This hamster has just been dumped. He drowns his sorrow in food.</t>
+  </si>
+  <si>
+    <t>This zebra has just gotten out of prison. He looks to start a new life.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This squirrel thinks about his relationships, </t>
+  </si>
+  <si>
+    <t>andre-mouton-GBEHjsPQbEQ-unsplash.jpg</t>
+  </si>
+  <si>
+    <t>Photo by Andre Mouton on Unsplash</t>
+  </si>
+  <si>
+    <t>This monkey examines his reflection. He ponders his place in the world and resolves to find meaning.</t>
+  </si>
+  <si>
+    <t>ricky-kharawala-adK3Vu70DEQ-unsplash.jpg</t>
+  </si>
+  <si>
+    <t>Photo by Ricky Kharawala on Unsplash</t>
+  </si>
+  <si>
+    <t>This mouse has learned to make fresh pasta. He is eager to share with his friends.</t>
+  </si>
+  <si>
+    <t>goose</t>
+  </si>
+  <si>
+    <t>jonnelle-yankovich-IpZlGRQ-57E-unsplash.jpg</t>
+  </si>
+  <si>
+    <t>Photo by Jonnelle Yankovich on Unsplash</t>
+  </si>
+  <si>
+    <t>This goose thinks only of conquest.</t>
+  </si>
+  <si>
+    <t>They have been discussing you.</t>
+  </si>
+  <si>
+    <t>brandon-enPHTN3OPRw-unsplash.jpg</t>
+  </si>
+  <si>
+    <t>Photo by Brandon on Unsplash</t>
+  </si>
+  <si>
+    <t>fredrik-solli-wandem-WVcV-C0jELw-unsplash.jpg</t>
+  </si>
+  <si>
+    <t>Photo by Fredrik Solli Wandem on Unsplash</t>
+  </si>
+  <si>
+    <t>ron-dauphin-k-8-eX4Y3no-unsplash.jpg</t>
+  </si>
+  <si>
+    <t>Photo by Ron Dauphin on Unsplash</t>
+  </si>
+  <si>
+    <t>siska-vrijburg-AjyF1e_AGmc-unsplash.jpg</t>
+  </si>
+  <si>
+    <t>Photo by Siska Vrijburg on Unsplash</t>
+  </si>
+  <si>
+    <t>His loan has been twice denied. How will he explain this to his business partners this time?</t>
+  </si>
+  <si>
+    <t>This deer has been watching you all morning, from afar.</t>
+  </si>
+  <si>
+    <t>Ce singe examine son reflet. Il réfléchit à sa place dans le monde et s'engage à faire trouver un sens.</t>
+  </si>
+  <si>
+    <t>This eagle's parents want her to become a doctor. She flies in solitude and contemplates her future.</t>
+  </si>
+  <si>
+    <t>La plupart des vaches ne peuvent pas effectuer une division longue. Mais cette vache sait bien qu'elle a été sous-estimée. Il faut se méfier.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -658,8 +775,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -676,6 +800,11 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -686,20 +815,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1001,10 +1133,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q85"/>
+  <dimension ref="A1:Q91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1013,7 +1145,7 @@
     <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43.6640625" customWidth="1"/>
-    <col min="5" max="5" width="82.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="104.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="86.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1"/>
@@ -1041,10 +1173,10 @@
         <v>174</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G1" t="str">
         <f>CHAR(34) &amp; "name_fr" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;A1&amp;CHAR(34)</f>
@@ -1097,10 +1229,10 @@
         <v>176</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>190</v>
       </c>
       <c r="G2" t="str">
         <f t="shared" ref="G2:G8" si="0">CHAR(34) &amp; "name_fr" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;A2&amp;CHAR(34)</f>
@@ -1120,7 +1252,7 @@
       </c>
       <c r="K2" t="str">
         <f t="shared" ref="K2:K8" si="4">CHAR(34) &amp; "desc_en" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;E2&amp;CHAR(34)</f>
-        <v>"desc_en":"This eagle's parents want him to become a doctor; he flies in solitude and contemplates his future."</v>
+        <v>"desc_en":"This eagle's parents want her to become a doctor. She flies in solitude and contemplates her future."</v>
       </c>
       <c r="L2" t="str">
         <f t="shared" ref="L2:L8" si="5">CHAR(34) &amp; "desc_fr" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;F2&amp;CHAR(34)</f>
@@ -1128,7 +1260,7 @@
       </c>
       <c r="N2" t="str">
         <f t="shared" ref="N2:N8" si="6">"{" &amp; G2 &amp; "," &amp; H2 &amp; "," &amp; I2 &amp; "," &amp; J2 &amp; "," &amp; K2 &amp; "," &amp; L2 &amp; "}"</f>
-        <v>{"name_fr":"aigle ","name_en":"eagle","img_src":"mathew-schwartz-OjQgsR1oyEw-unsplash.jpg","img_attribution":"Photo by Mathew Schwartz on Unsplash","desc_en":"This eagle's parents want him to become a doctor; he flies in solitude and contemplates his future.","desc_fr":"Les parents de cette aigle veulent qu'elle devienne médecin. Elle vole dans la solitude et pense au futur."}</v>
+        <v>{"name_fr":"aigle ","name_en":"eagle","img_src":"mathew-schwartz-OjQgsR1oyEw-unsplash.jpg","img_attribution":"Photo by Mathew Schwartz on Unsplash","desc_en":"This eagle's parents want her to become a doctor. She flies in solitude and contemplates her future.","desc_fr":"Les parents de cette aigle veulent qu'elle devienne médecin. Elle vole dans la solitude et pense au futur."}</v>
       </c>
       <c r="O2" t="str">
         <f>","</f>
@@ -1136,7 +1268,7 @@
       </c>
       <c r="Q2" s="3" t="str">
         <f t="shared" ref="Q2:Q8" si="7">N2&amp;O2</f>
-        <v>{"name_fr":"aigle ","name_en":"eagle","img_src":"mathew-schwartz-OjQgsR1oyEw-unsplash.jpg","img_attribution":"Photo by Mathew Schwartz on Unsplash","desc_en":"This eagle's parents want him to become a doctor; he flies in solitude and contemplates his future.","desc_fr":"Les parents de cette aigle veulent qu'elle devienne médecin. Elle vole dans la solitude et pense au futur."},</v>
+        <v>{"name_fr":"aigle ","name_en":"eagle","img_src":"mathew-schwartz-OjQgsR1oyEw-unsplash.jpg","img_attribution":"Photo by Mathew Schwartz on Unsplash","desc_en":"This eagle's parents want her to become a doctor. She flies in solitude and contemplates her future.","desc_fr":"Les parents de cette aigle veulent qu'elle devienne médecin. Elle vole dans la solitude et pense au futur."},</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -1153,10 +1285,10 @@
         <v>180</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" si="0"/>
@@ -1187,7 +1319,7 @@
         <v>{"name_fr":"araignee","name_en":"spider","img_src":"ed-van-duijn-UUdJ-0LQs0M-unsplash.jpg","img_attribution":"Photo by Ed van duijn on Unsplash","desc_en":"Despite his many legs, this spider pursues a career in ballet.","desc_fr":"Malgré ses nombreuses pattes, cette araignée considère une carrière dans le ballet."}</v>
       </c>
       <c r="O3" t="str">
-        <f t="shared" ref="O3:O10" si="8">","</f>
+        <f t="shared" ref="O3:O25" si="8">","</f>
         <v>,</v>
       </c>
       <c r="Q3" s="3" t="str">
@@ -1212,7 +1344,7 @@
         <v>181</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
@@ -1265,7 +1397,7 @@
         <v>185</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>197</v>
@@ -1288,15 +1420,15 @@
       </c>
       <c r="K5" t="str">
         <f t="shared" si="4"/>
-        <v>"desc_en":"The size of this box can be measured in litres."</v>
+        <v>"desc_en":"The size of this fox can be measured in litres."</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="5"/>
-        <v>"desc_fr":"La taille de cette boîte peut être mesurée en litres."</v>
+        <v>"desc_fr":"La taille de ce renard peut être mesurée en litres."</v>
       </c>
       <c r="N5" t="str">
         <f t="shared" si="6"/>
-        <v>{"name_fr":"renard","name_en":"fox","img_src":"dusan-veverkolog-nOsJYzXEG98-unsplash.jpg","img_attribution":"Photo by Dušan veverkolog on Unsplash","desc_en":"The size of this box can be measured in litres.","desc_fr":"La taille de cette boîte peut être mesurée en litres."}</v>
+        <v>{"name_fr":"renard","name_en":"fox","img_src":"dusan-veverkolog-nOsJYzXEG98-unsplash.jpg","img_attribution":"Photo by Dušan veverkolog on Unsplash","desc_en":"The size of this fox can be measured in litres.","desc_fr":"La taille de ce renard peut être mesurée en litres."}</v>
       </c>
       <c r="O5" t="str">
         <f t="shared" si="8"/>
@@ -1304,7 +1436,7 @@
       </c>
       <c r="Q5" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>{"name_fr":"renard","name_en":"fox","img_src":"dusan-veverkolog-nOsJYzXEG98-unsplash.jpg","img_attribution":"Photo by Dušan veverkolog on Unsplash","desc_en":"The size of this box can be measured in litres.","desc_fr":"La taille de cette boîte peut être mesurée en litres."},</v>
+        <v>{"name_fr":"renard","name_en":"fox","img_src":"dusan-veverkolog-nOsJYzXEG98-unsplash.jpg","img_attribution":"Photo by Dušan veverkolog on Unsplash","desc_en":"The size of this fox can be measured in litres.","desc_fr":"La taille de ce renard peut être mesurée en litres."},</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1321,10 +1453,10 @@
         <v>168</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
@@ -1376,11 +1508,11 @@
       <c r="D7" t="s">
         <v>172</v>
       </c>
-      <c r="E7" t="s">
-        <v>199</v>
-      </c>
-      <c r="F7" t="s">
-        <v>200</v>
+      <c r="E7" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>195</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
@@ -1432,11 +1564,11 @@
       <c r="D8" t="s">
         <v>170</v>
       </c>
-      <c r="E8" t="s">
-        <v>186</v>
-      </c>
-      <c r="F8" t="s">
-        <v>189</v>
+      <c r="E8" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>239</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
@@ -1456,15 +1588,15 @@
       </c>
       <c r="K8" t="str">
         <f t="shared" si="4"/>
-        <v>"desc_en":"Most cows cannot perform long division."</v>
+        <v>"desc_en":"Most cows cannot perform long division. But this cow knows what it is to be underestimated. Beware."</v>
       </c>
       <c r="L8" t="str">
         <f t="shared" si="5"/>
-        <v>"desc_fr":"La plupart des vaches savent pas faire une division longue."</v>
+        <v>"desc_fr":"La plupart des vaches ne peuvent pas effectuer une division longue. Mais cette vache sait bien qu'elle a été sous-estimée. Il faut se méfier."</v>
       </c>
       <c r="N8" t="str">
         <f t="shared" si="6"/>
-        <v>{"name_fr":"vache","name_en":"cow","img_src":"luke-stackpoole-RxHhxWnXmNs-unsplash.jpg","img_attribution":"Photo by Luke Stackpoole on Unsplash","desc_en":"Most cows cannot perform long division.","desc_fr":"La plupart des vaches savent pas faire une division longue."}</v>
+        <v>{"name_fr":"vache","name_en":"cow","img_src":"luke-stackpoole-RxHhxWnXmNs-unsplash.jpg","img_attribution":"Photo by Luke Stackpoole on Unsplash","desc_en":"Most cows cannot perform long division. But this cow knows what it is to be underestimated. Beware.","desc_fr":"La plupart des vaches ne peuvent pas effectuer une division longue. Mais cette vache sait bien qu'elle a été sous-estimée. Il faut se méfier."}</v>
       </c>
       <c r="O8" t="str">
         <f t="shared" si="8"/>
@@ -1472,170 +1604,215 @@
       </c>
       <c r="Q8" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>{"name_fr":"vache","name_en":"cow","img_src":"luke-stackpoole-RxHhxWnXmNs-unsplash.jpg","img_attribution":"Photo by Luke Stackpoole on Unsplash","desc_en":"Most cows cannot perform long division.","desc_fr":"La plupart des vaches savent pas faire une division longue."},</v>
+        <v>{"name_fr":"vache","name_en":"cow","img_src":"luke-stackpoole-RxHhxWnXmNs-unsplash.jpg","img_attribution":"Photo by Luke Stackpoole on Unsplash","desc_en":"Most cows cannot perform long division. But this cow knows what it is to be underestimated. Beware.","desc_fr":"La plupart des vaches ne peuvent pas effectuer une division longue. Mais cette vache sait bien qu'elle a été sous-estimée. Il faut se méfier."},</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="Q9" s="3"/>
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>216</v>
+      </c>
+      <c r="D9" t="s">
+        <v>217</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" ref="G9:G19" si="9">CHAR(34) &amp; "name_fr" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;A9&amp;CHAR(34)</f>
+        <v>"name_fr":"singe"</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" ref="H9:H19" si="10">CHAR(34) &amp; "name_en" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;B9&amp;CHAR(34)</f>
+        <v>"name_en":"monkey"</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" ref="I9:I19" si="11">CHAR(34) &amp; "img_src" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;C9&amp;CHAR(34)</f>
+        <v>"img_src":"andre-mouton-GBEHjsPQbEQ-unsplash.jpg"</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" ref="J9:J19" si="12">CHAR(34) &amp; "img_attribution" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;D9&amp;CHAR(34)</f>
+        <v>"img_attribution":"Photo by Andre Mouton on Unsplash"</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" ref="K9:K19" si="13">CHAR(34) &amp; "desc_en" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;E9&amp;CHAR(34)</f>
+        <v>"desc_en":"This monkey examines his reflection. He ponders his place in the world and resolves to find meaning."</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" ref="L9:L19" si="14">CHAR(34) &amp; "desc_fr" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;F9&amp;CHAR(34)</f>
+        <v>"desc_fr":"Ce singe examine son reflet. Il réfléchit à sa place dans le monde et s'engage à faire trouver un sens."</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" ref="N9:N19" si="15">"{" &amp; G9 &amp; "," &amp; H9 &amp; "," &amp; I9 &amp; "," &amp; J9 &amp; "," &amp; K9 &amp; "," &amp; L9 &amp; "}"</f>
+        <v>{"name_fr":"singe","name_en":"monkey","img_src":"andre-mouton-GBEHjsPQbEQ-unsplash.jpg","img_attribution":"Photo by Andre Mouton on Unsplash","desc_en":"This monkey examines his reflection. He ponders his place in the world and resolves to find meaning.","desc_fr":"Ce singe examine son reflet. Il réfléchit à sa place dans le monde et s'engage à faire trouver un sens."}</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" ref="O9:O19" si="16">","</f>
+        <v>,</v>
+      </c>
+      <c r="Q9" s="3" t="str">
+        <f t="shared" ref="Q9:Q19" si="17">N9&amp;O9</f>
+        <v>{"name_fr":"singe","name_en":"monkey","img_src":"andre-mouton-GBEHjsPQbEQ-unsplash.jpg","img_attribution":"Photo by Andre Mouton on Unsplash","desc_en":"This monkey examines his reflection. He ponders his place in the world and resolves to find meaning.","desc_fr":"Ce singe examine son reflet. Il réfléchit à sa place dans le monde et s'engage à faire trouver un sens."},</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="C10" t="s">
+        <v>229</v>
+      </c>
+      <c r="D10" t="s">
+        <v>230</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>206</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" ref="G10:G73" si="9">CHAR(34) &amp; "name_fr" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;A10&amp;CHAR(34)</f>
-        <v>"name_fr":"Veau "</v>
+        <f t="shared" ref="G10" si="18">CHAR(34) &amp; "name_fr" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;A10&amp;CHAR(34)</f>
+        <v>"name_fr":"canard"</v>
       </c>
       <c r="H10" t="str">
-        <f t="shared" ref="H10:H73" si="10">CHAR(34) &amp; "name_en" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;B10&amp;CHAR(34)</f>
-        <v>"name_en":"calf"</v>
+        <f t="shared" ref="H10" si="19">CHAR(34) &amp; "name_en" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;B10&amp;CHAR(34)</f>
+        <v>"name_en":"duck"</v>
       </c>
       <c r="I10" t="str">
-        <f t="shared" ref="I10:I73" si="11">CHAR(34) &amp; "img_src" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;C10&amp;CHAR(34)</f>
-        <v>"img_src":""</v>
+        <f t="shared" ref="I10" si="20">CHAR(34) &amp; "img_src" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;C10&amp;CHAR(34)</f>
+        <v>"img_src":"fredrik-solli-wandem-WVcV-C0jELw-unsplash.jpg"</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" ref="J10:J73" si="12">CHAR(34) &amp; "img_attribution" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;D10&amp;CHAR(34)</f>
-        <v>"img_attribution":""</v>
+        <f t="shared" ref="J10" si="21">CHAR(34) &amp; "img_attribution" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;D10&amp;CHAR(34)</f>
+        <v>"img_attribution":"Photo by Fredrik Solli Wandem on Unsplash"</v>
       </c>
       <c r="K10" t="str">
-        <f t="shared" ref="K10:K73" si="13">CHAR(34) &amp; "desc_en" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;E10&amp;CHAR(34)</f>
-        <v>"desc_en":""</v>
+        <f t="shared" ref="K10" si="22">CHAR(34) &amp; "desc_en" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;E10&amp;CHAR(34)</f>
+        <v>"desc_en":"With malice in his heart, this duck plots revenge"</v>
       </c>
       <c r="L10" t="str">
-        <f t="shared" ref="L10:L73" si="14">CHAR(34) &amp; "desc_fr" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;F10&amp;CHAR(34)</f>
-        <v>"desc_fr":""</v>
+        <f t="shared" ref="L10" si="23">CHAR(34) &amp; "desc_fr" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;F10&amp;CHAR(34)</f>
+        <v>"desc_fr":"Avec malveillance dans sa coeur, ce canard se prépare à se venger."</v>
       </c>
       <c r="N10" t="str">
-        <f t="shared" ref="N10:N73" si="15">"{" &amp; G10 &amp; "," &amp; H10 &amp; "," &amp; I10 &amp; "," &amp; J10 &amp; "," &amp; K10 &amp; "," &amp; L10 &amp; "}"</f>
-        <v>{"name_fr":"Veau ","name_en":"calf","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" ref="N10" si="24">"{" &amp; G10 &amp; "," &amp; H10 &amp; "," &amp; I10 &amp; "," &amp; J10 &amp; "," &amp; K10 &amp; "," &amp; L10 &amp; "}"</f>
+        <v>{"name_fr":"canard","name_en":"duck","img_src":"fredrik-solli-wandem-WVcV-C0jELw-unsplash.jpg","img_attribution":"Photo by Fredrik Solli Wandem on Unsplash","desc_en":"With malice in his heart, this duck plots revenge","desc_fr":"Avec malveillance dans sa coeur, ce canard se prépare à se venger."}</v>
       </c>
       <c r="O10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>,</v>
       </c>
       <c r="Q10" s="3" t="str">
-        <f t="shared" ref="Q10:Q73" si="16">N10&amp;O10</f>
-        <v>{"name_fr":"Veau ","name_en":"calf","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" ref="Q10" si="25">N10&amp;O10</f>
+        <v>{"name_fr":"canard","name_en":"duck","img_src":"fredrik-solli-wandem-WVcV-C0jELw-unsplash.jpg","img_attribution":"Photo by Fredrik Solli Wandem on Unsplash","desc_en":"With malice in his heart, this duck plots revenge","desc_fr":"Avec malveillance dans sa coeur, ce canard se prépare à se venger."},</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B11" t="s">
-        <v>101</v>
-      </c>
-      <c r="G11" t="str">
-        <f t="shared" si="9"/>
-        <v>"name_fr":"ver"</v>
-      </c>
-      <c r="H11" t="str">
-        <f t="shared" si="10"/>
-        <v>"name_en":"worm"</v>
-      </c>
-      <c r="I11" t="str">
-        <f t="shared" si="11"/>
-        <v>"img_src":""</v>
-      </c>
-      <c r="J11" t="str">
-        <f t="shared" si="12"/>
-        <v>"img_attribution":""</v>
-      </c>
-      <c r="K11" t="str">
-        <f t="shared" si="13"/>
-        <v>"desc_en":""</v>
-      </c>
-      <c r="L11" t="str">
-        <f t="shared" si="14"/>
-        <v>"desc_fr":""</v>
-      </c>
-      <c r="N11" t="str">
-        <f t="shared" si="15"/>
-        <v>{"name_fr":"ver","name_en":"worm","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
-      </c>
-      <c r="O11" t="str">
-        <f t="shared" ref="O11:O27" si="17">","</f>
-        <v>,</v>
-      </c>
-      <c r="Q11" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>{"name_fr":"ver","name_en":"worm","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
-      </c>
+      <c r="Q11" s="3"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>60</v>
+      </c>
+      <c r="C12" t="s">
+        <v>219</v>
+      </c>
+      <c r="D12" t="s">
+        <v>220</v>
+      </c>
+      <c r="E12" t="s">
+        <v>221</v>
+      </c>
+      <c r="F12" t="s">
+        <v>200</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="9"/>
-        <v>"name_fr":"Zèbre "</v>
+        <v>"name_fr":"souris "</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="10"/>
-        <v>"name_en":"zebra"</v>
+        <v>"name_en":"mouse"</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="11"/>
-        <v>"img_src":""</v>
+        <v>"img_src":"ricky-kharawala-adK3Vu70DEQ-unsplash.jpg"</v>
       </c>
       <c r="J12" t="str">
         <f t="shared" si="12"/>
-        <v>"img_attribution":""</v>
+        <v>"img_attribution":"Photo by Ricky Kharawala on Unsplash"</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" si="13"/>
-        <v>"desc_en":""</v>
+        <v>"desc_en":"This mouse has learned to make fresh pasta. He is eager to share with his friends."</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="14"/>
-        <v>"desc_fr":""</v>
+        <v>"desc_fr":"Cette souris a appris à faire des pâtes fraîches"</v>
       </c>
       <c r="N12" t="str">
         <f t="shared" si="15"/>
-        <v>{"name_fr":"Zèbre ","name_en":"zebra","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <v>{"name_fr":"souris ","name_en":"mouse","img_src":"ricky-kharawala-adK3Vu70DEQ-unsplash.jpg","img_attribution":"Photo by Ricky Kharawala on Unsplash","desc_en":"This mouse has learned to make fresh pasta. He is eager to share with his friends.","desc_fr":"Cette souris a appris à faire des pâtes fraîches"}</v>
       </c>
       <c r="O12" t="str">
+        <f t="shared" si="16"/>
+        <v>,</v>
+      </c>
+      <c r="Q12" s="3" t="str">
         <f t="shared" si="17"/>
-        <v>,</v>
-      </c>
-      <c r="Q12" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>{"name_fr":"Zèbre ","name_en":"zebra","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <v>{"name_fr":"souris ","name_en":"mouse","img_src":"ricky-kharawala-adK3Vu70DEQ-unsplash.jpg","img_attribution":"Photo by Ricky Kharawala on Unsplash","desc_en":"This mouse has learned to make fresh pasta. He is eager to share with his friends.","desc_fr":"Cette souris a appris à faire des pâtes fraîches"},</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="B13" t="s">
-        <v>133</v>
+        <v>115</v>
+      </c>
+      <c r="C13" t="s">
+        <v>227</v>
+      </c>
+      <c r="D13" t="s">
+        <v>228</v>
+      </c>
+      <c r="E13" t="s">
+        <v>210</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="9"/>
-        <v>"name_fr":"bouquetin"</v>
+        <v>"name_fr":"saumon"</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="10"/>
-        <v>"name_en":"ibex"</v>
+        <v>"name_en":"salmon"</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" si="11"/>
-        <v>"img_src":""</v>
+        <v>"img_src":"brandon-enPHTN3OPRw-unsplash.jpg"</v>
       </c>
       <c r="J13" t="str">
         <f t="shared" si="12"/>
-        <v>"img_attribution":""</v>
+        <v>"img_attribution":"Photo by Brandon on Unsplash"</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" si="13"/>
-        <v>"desc_en":""</v>
+        <v>"desc_en":"The life of this salmon comes to an end, captured by a primate duo. Smiles fill the air, though not the salmons."</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="14"/>
@@ -1643,119 +1820,143 @@
       </c>
       <c r="N13" t="str">
         <f t="shared" si="15"/>
-        <v>{"name_fr":"bouquetin","name_en":"ibex","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <v>{"name_fr":"saumon","name_en":"salmon","img_src":"brandon-enPHTN3OPRw-unsplash.jpg","img_attribution":"Photo by Brandon on Unsplash","desc_en":"The life of this salmon comes to an end, captured by a primate duo. Smiles fill the air, though not the salmons.","desc_fr":""}</v>
       </c>
       <c r="O13" t="str">
+        <f t="shared" si="16"/>
+        <v>,</v>
+      </c>
+      <c r="Q13" s="3" t="str">
         <f t="shared" si="17"/>
-        <v>,</v>
-      </c>
-      <c r="Q13" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>{"name_fr":"bouquetin","name_en":"ibex","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <v>{"name_fr":"saumon","name_en":"salmon","img_src":"brandon-enPHTN3OPRw-unsplash.jpg","img_attribution":"Photo by Brandon on Unsplash","desc_en":"The life of this salmon comes to an end, captured by a primate duo. Smiles fill the air, though not the salmons.","desc_fr":""},</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="B14" t="s">
-        <v>134</v>
+        <v>118</v>
+      </c>
+      <c r="C14" t="s">
+        <v>233</v>
+      </c>
+      <c r="D14" t="s">
+        <v>234</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="F14" t="s">
+        <v>205</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="9"/>
-        <v>"name_fr":"nandou"</v>
+        <v>"name_fr":"cerf"</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="10"/>
-        <v>"name_en":"rhea"</v>
+        <v>"name_en":"deer"</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="11"/>
-        <v>"img_src":""</v>
+        <v>"img_src":"siska-vrijburg-AjyF1e_AGmc-unsplash.jpg"</v>
       </c>
       <c r="J14" t="str">
         <f t="shared" si="12"/>
-        <v>"img_attribution":""</v>
+        <v>"img_attribution":"Photo by Siska Vrijburg on Unsplash"</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="13"/>
-        <v>"desc_en":""</v>
+        <v>"desc_en":"This deer has been watching you all morning, from afar."</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="14"/>
-        <v>"desc_fr":""</v>
+        <v>"desc_fr":"Ce cerf t'a regardé tout au long de la journée, mais de loin."</v>
       </c>
       <c r="N14" t="str">
         <f t="shared" si="15"/>
-        <v>{"name_fr":"nandou","name_en":"rhea","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <v>{"name_fr":"cerf","name_en":"deer","img_src":"siska-vrijburg-AjyF1e_AGmc-unsplash.jpg","img_attribution":"Photo by Siska Vrijburg on Unsplash","desc_en":"This deer has been watching you all morning, from afar.","desc_fr":"Ce cerf t'a regardé tout au long de la journée, mais de loin."}</v>
       </c>
       <c r="O14" t="str">
+        <f t="shared" si="16"/>
+        <v>,</v>
+      </c>
+      <c r="Q14" s="3" t="str">
         <f t="shared" si="17"/>
-        <v>,</v>
-      </c>
-      <c r="Q14" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>{"name_fr":"nandou","name_en":"rhea","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <v>{"name_fr":"cerf","name_en":"deer","img_src":"siska-vrijburg-AjyF1e_AGmc-unsplash.jpg","img_attribution":"Photo by Siska Vrijburg on Unsplash","desc_en":"This deer has been watching you all morning, from afar.","desc_fr":"Ce cerf t'a regardé tout au long de la journée, mais de loin."},</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s">
-        <v>137</v>
+        <v>85</v>
+      </c>
+      <c r="C15" t="s">
+        <v>231</v>
+      </c>
+      <c r="D15" t="s">
+        <v>232</v>
+      </c>
+      <c r="E15" t="s">
+        <v>214</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="9"/>
-        <v>"name_fr":"orang-outang"</v>
+        <f>CHAR(34) &amp; "name_fr" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;A15&amp;CHAR(34)</f>
+        <v>"name_fr":"Zèbre "</v>
       </c>
       <c r="H15" t="str">
-        <f t="shared" si="10"/>
-        <v>"name_en":"orangutan"</v>
+        <f>CHAR(34) &amp; "name_en" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;B15&amp;CHAR(34)</f>
+        <v>"name_en":"zebra"</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="11"/>
-        <v>"img_src":""</v>
+        <f>CHAR(34) &amp; "img_src" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;C15&amp;CHAR(34)</f>
+        <v>"img_src":"ron-dauphin-k-8-eX4Y3no-unsplash.jpg"</v>
       </c>
       <c r="J15" t="str">
-        <f t="shared" si="12"/>
-        <v>"img_attribution":""</v>
+        <f>CHAR(34) &amp; "img_attribution" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;D15&amp;CHAR(34)</f>
+        <v>"img_attribution":"Photo by Ron Dauphin on Unsplash"</v>
       </c>
       <c r="K15" t="str">
-        <f t="shared" si="13"/>
-        <v>"desc_en":""</v>
+        <f>CHAR(34) &amp; "desc_en" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;E15&amp;CHAR(34)</f>
+        <v>"desc_en":"This zebra has just gotten out of prison. He looks to start a new life."</v>
       </c>
       <c r="L15" t="str">
-        <f t="shared" si="14"/>
+        <f>CHAR(34) &amp; "desc_fr" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;F15&amp;CHAR(34)</f>
         <v>"desc_fr":""</v>
       </c>
       <c r="N15" t="str">
-        <f t="shared" si="15"/>
-        <v>{"name_fr":"orang-outang","name_en":"orangutan","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f>"{" &amp; G15 &amp; "," &amp; H15 &amp; "," &amp; I15 &amp; "," &amp; J15 &amp; "," &amp; K15 &amp; "," &amp; L15 &amp; "}"</f>
+        <v>{"name_fr":"Zèbre ","name_en":"zebra","img_src":"ron-dauphin-k-8-eX4Y3no-unsplash.jpg","img_attribution":"Photo by Ron Dauphin on Unsplash","desc_en":"This zebra has just gotten out of prison. He looks to start a new life.","desc_fr":""}</v>
       </c>
       <c r="O15" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>,</v>
       </c>
       <c r="Q15" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>{"name_fr":"orang-outang","name_en":"orangutan","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f>N15&amp;O15</f>
+        <v>{"name_fr":"Zèbre ","name_en":"zebra","img_src":"ron-dauphin-k-8-eX4Y3no-unsplash.jpg","img_attribution":"Photo by Ron Dauphin on Unsplash","desc_en":"This zebra has just gotten out of prison. He looks to start a new life.","desc_fr":""},</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>84</v>
+      </c>
+      <c r="E16" t="s">
+        <v>198</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="9"/>
-        <v>"name_fr":"wapati"</v>
+        <v>"name_fr":"Chameau "</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="10"/>
-        <v>"name_en":"elephant"</v>
+        <v>"name_en":"camel"</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" si="11"/>
@@ -1767,7 +1968,7 @@
       </c>
       <c r="K16" t="str">
         <f t="shared" si="13"/>
-        <v>"desc_en":""</v>
+        <v>"desc_en":"this camel has opened a dance club in London."</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" si="14"/>
@@ -1775,31 +1976,34 @@
       </c>
       <c r="N16" t="str">
         <f t="shared" si="15"/>
-        <v>{"name_fr":"wapati","name_en":"elephant","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <v>{"name_fr":"Chameau ","name_en":"camel","img_src":"","img_attribution":"","desc_en":"this camel has opened a dance club in London.","desc_fr":""}</v>
       </c>
       <c r="O16" t="str">
+        <f t="shared" si="16"/>
+        <v>,</v>
+      </c>
+      <c r="Q16" s="3" t="str">
         <f t="shared" si="17"/>
-        <v>,</v>
-      </c>
-      <c r="Q16" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>{"name_fr":"wapati","name_en":"elephant","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <v>{"name_fr":"Chameau ","name_en":"camel","img_src":"","img_attribution":"","desc_en":"this camel has opened a dance club in London.","desc_fr":""},</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>140</v>
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" t="s">
+        <v>159</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="9"/>
-        <v>"name_fr":"urubu"</v>
+        <v>"name_fr":"chat"</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="10"/>
-        <v>"name_en":"vulture"</v>
+        <v>"name_en":"cat"</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" si="11"/>
@@ -1811,7 +2015,7 @@
       </c>
       <c r="K17" t="str">
         <f t="shared" si="13"/>
-        <v>"desc_en":""</v>
+        <v>"desc_en":"the cat thinks only of your demise"</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" si="14"/>
@@ -1819,31 +2023,34 @@
       </c>
       <c r="N17" t="str">
         <f t="shared" si="15"/>
-        <v>{"name_fr":"urubu","name_en":"vulture","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <v>{"name_fr":"chat","name_en":"cat","img_src":"","img_attribution":"","desc_en":"the cat thinks only of your demise","desc_fr":""}</v>
       </c>
       <c r="O17" t="str">
+        <f t="shared" si="16"/>
+        <v>,</v>
+      </c>
+      <c r="Q17" s="3" t="str">
         <f t="shared" si="17"/>
-        <v>,</v>
-      </c>
-      <c r="Q17" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>{"name_fr":"urubu","name_en":"vulture","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <v>{"name_fr":"chat","name_en":"cat","img_src":"","img_attribution":"","desc_en":"the cat thinks only of your demise","desc_fr":""},</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>143</v>
+      <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" t="s">
+        <v>160</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="9"/>
-        <v>"name_fr":"xerus"</v>
+        <v>"name_fr":"chauve souris"</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="10"/>
-        <v>"name_en":"squirrel"</v>
+        <v>"name_en":"bat"</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="11"/>
@@ -1855,7 +2062,7 @@
       </c>
       <c r="K18" t="str">
         <f t="shared" si="13"/>
-        <v>"desc_en":""</v>
+        <v>"desc_en":"this bat extends the life of darkness"</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" si="14"/>
@@ -1863,31 +2070,34 @@
       </c>
       <c r="N18" t="str">
         <f t="shared" si="15"/>
-        <v>{"name_fr":"xerus","name_en":"squirrel","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <v>{"name_fr":"chauve souris","name_en":"bat","img_src":"","img_attribution":"","desc_en":"this bat extends the life of darkness","desc_fr":""}</v>
       </c>
       <c r="O18" t="str">
+        <f t="shared" si="16"/>
+        <v>,</v>
+      </c>
+      <c r="Q18" s="3" t="str">
         <f t="shared" si="17"/>
-        <v>,</v>
-      </c>
-      <c r="Q18" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>{"name_fr":"xerus","name_en":"squirrel","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <v>{"name_fr":"chauve souris","name_en":"bat","img_src":"","img_attribution":"","desc_en":"this bat extends the life of darkness","desc_fr":""},</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>144</v>
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>202</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="9"/>
-        <v>"name_fr":"yak"</v>
+        <v>"name_fr":"chimpanzee"</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="10"/>
-        <v>"name_en":"yak"</v>
+        <v>"name_en":"chimp"</v>
       </c>
       <c r="I19" t="str">
         <f t="shared" si="11"/>
@@ -1899,7 +2109,7 @@
       </c>
       <c r="K19" t="str">
         <f t="shared" si="13"/>
-        <v>"desc_en":""</v>
+        <v>"desc_en":"the chimpanzee goes fishing every Thursday with his neice. Last time, she caught a salmon."</v>
       </c>
       <c r="L19" t="str">
         <f t="shared" si="14"/>
@@ -1907,1249 +2117,1065 @@
       </c>
       <c r="N19" t="str">
         <f t="shared" si="15"/>
-        <v>{"name_fr":"yak","name_en":"yak","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <v>{"name_fr":"chimpanzee","name_en":"chimp","img_src":"","img_attribution":"","desc_en":"the chimpanzee goes fishing every Thursday with his neice. Last time, she caught a salmon.","desc_fr":""}</v>
       </c>
       <c r="O19" t="str">
+        <f t="shared" si="16"/>
+        <v>,</v>
+      </c>
+      <c r="Q19" s="3" t="str">
         <f t="shared" si="17"/>
-        <v>,</v>
-      </c>
-      <c r="Q19" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>{"name_fr":"yak","name_en":"yak","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <v>{"name_fr":"chimpanzee","name_en":"chimp","img_src":"","img_attribution":"","desc_en":"the chimpanzee goes fishing every Thursday with his neice. Last time, she caught a salmon.","desc_fr":""},</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>145</v>
+      <c r="A20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="F20" t="s">
+        <v>207</v>
       </c>
       <c r="G20" t="str">
-        <f t="shared" si="9"/>
-        <v>"name_fr":"koala"</v>
+        <f t="shared" ref="G20:G73" si="26">CHAR(34) &amp; "name_fr" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;A20&amp;CHAR(34)</f>
+        <v>"name_fr":"ver"</v>
       </c>
       <c r="H20" t="str">
-        <f t="shared" si="10"/>
-        <v>"name_en":"koala"</v>
+        <f t="shared" ref="H20:H73" si="27">CHAR(34) &amp; "name_en" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;B20&amp;CHAR(34)</f>
+        <v>"name_en":"worm"</v>
       </c>
       <c r="I20" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="I20:I73" si="28">CHAR(34) &amp; "img_src" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;C20&amp;CHAR(34)</f>
         <v>"img_src":""</v>
       </c>
       <c r="J20" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="J20:J73" si="29">CHAR(34) &amp; "img_attribution" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;D20&amp;CHAR(34)</f>
         <v>"img_attribution":""</v>
       </c>
       <c r="K20" t="str">
-        <f t="shared" si="13"/>
-        <v>"desc_en":""</v>
+        <f t="shared" ref="K20:K73" si="30">CHAR(34) &amp; "desc_en" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;E20&amp;CHAR(34)</f>
+        <v>"desc_en":"This worm has been divorced twice. His third marriage will be a success."</v>
       </c>
       <c r="L20" t="str">
-        <f t="shared" si="14"/>
-        <v>"desc_fr":""</v>
+        <f t="shared" ref="L20:L73" si="31">CHAR(34) &amp; "desc_fr" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;F20&amp;CHAR(34)</f>
+        <v>"desc_fr":"Ce ver a divorcé deux fois. Son troisième mariage sera un succès."</v>
       </c>
       <c r="N20" t="str">
-        <f t="shared" si="15"/>
-        <v>{"name_fr":"koala","name_en":"koala","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" ref="N20:N73" si="32">"{" &amp; G20 &amp; "," &amp; H20 &amp; "," &amp; I20 &amp; "," &amp; J20 &amp; "," &amp; K20 &amp; "," &amp; L20 &amp; "}"</f>
+        <v>{"name_fr":"ver","name_en":"worm","img_src":"","img_attribution":"","desc_en":"This worm has been divorced twice. His third marriage will be a success.","desc_fr":"Ce ver a divorcé deux fois. Son troisième mariage sera un succès."}</v>
       </c>
       <c r="O20" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="O20:O41" si="33">","</f>
         <v>,</v>
       </c>
       <c r="Q20" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>{"name_fr":"koala","name_en":"koala","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" ref="Q20:Q73" si="34">N20&amp;O20</f>
+        <v>{"name_fr":"ver","name_en":"worm","img_src":"","img_attribution":"","desc_en":"This worm has been divorced twice. His third marriage will be a success.","desc_fr":"Ce ver a divorcé deux fois. Son troisième mariage sera un succès."},</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G21" t="str">
-        <f t="shared" si="9"/>
-        <v>"name_fr":"frelon"</v>
-      </c>
-      <c r="H21" t="str">
-        <f t="shared" si="10"/>
-        <v>"name_en":"hornet"</v>
-      </c>
-      <c r="I21" t="str">
-        <f t="shared" si="11"/>
-        <v>"img_src":""</v>
-      </c>
-      <c r="J21" t="str">
-        <f t="shared" si="12"/>
-        <v>"img_attribution":""</v>
-      </c>
-      <c r="K21" t="str">
-        <f t="shared" si="13"/>
-        <v>"desc_en":""</v>
-      </c>
-      <c r="L21" t="str">
-        <f t="shared" si="14"/>
-        <v>"desc_fr":""</v>
-      </c>
-      <c r="N21" t="str">
-        <f t="shared" si="15"/>
-        <v>{"name_fr":"frelon","name_en":"hornet","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
-      </c>
-      <c r="O21" t="str">
-        <f t="shared" si="17"/>
-        <v>,</v>
-      </c>
-      <c r="Q21" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>{"name_fr":"frelon","name_en":"hornet","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
-      </c>
+      <c r="Q21" s="3"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="G22" t="str">
-        <f t="shared" si="9"/>
-        <v>"name_fr":"tigresse"</v>
-      </c>
-      <c r="H22" t="str">
-        <f t="shared" si="10"/>
-        <v>"name_en":"tigress"</v>
-      </c>
-      <c r="I22" t="str">
-        <f t="shared" si="11"/>
-        <v>"img_src":""</v>
-      </c>
-      <c r="J22" t="str">
-        <f t="shared" si="12"/>
-        <v>"img_attribution":""</v>
-      </c>
-      <c r="K22" t="str">
-        <f t="shared" si="13"/>
-        <v>"desc_en":""</v>
-      </c>
-      <c r="L22" t="str">
-        <f t="shared" si="14"/>
-        <v>"desc_fr":""</v>
-      </c>
-      <c r="N22" t="str">
-        <f t="shared" si="15"/>
-        <v>{"name_fr":"tigresse","name_en":"tigress","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
-      </c>
-      <c r="O22" t="str">
-        <f t="shared" si="17"/>
-        <v>,</v>
-      </c>
-      <c r="Q22" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>{"name_fr":"tigresse","name_en":"tigress","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
-      </c>
+      <c r="Q22" s="3"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G23" t="str">
-        <f t="shared" si="9"/>
-        <v>"name_fr":"lionesse"</v>
-      </c>
-      <c r="H23" t="str">
-        <f t="shared" si="10"/>
-        <v>"name_en":"lioness"</v>
-      </c>
-      <c r="I23" t="str">
-        <f t="shared" si="11"/>
-        <v>"img_src":""</v>
-      </c>
-      <c r="J23" t="str">
-        <f t="shared" si="12"/>
-        <v>"img_attribution":""</v>
-      </c>
-      <c r="K23" t="str">
-        <f t="shared" si="13"/>
-        <v>"desc_en":""</v>
-      </c>
-      <c r="L23" t="str">
-        <f t="shared" si="14"/>
-        <v>"desc_fr":""</v>
-      </c>
-      <c r="N23" t="str">
-        <f t="shared" si="15"/>
-        <v>{"name_fr":"lionesse","name_en":"lioness","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
-      </c>
-      <c r="O23" t="str">
-        <f t="shared" si="17"/>
-        <v>,</v>
-      </c>
-      <c r="Q23" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>{"name_fr":"lionesse","name_en":"lioness","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
-      </c>
+      <c r="E23" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q23" s="3"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G24" t="str">
-        <f t="shared" si="9"/>
-        <v>"name_fr":"termite"</v>
-      </c>
-      <c r="H24" t="str">
-        <f t="shared" si="10"/>
-        <v>"name_en":"termite"</v>
-      </c>
-      <c r="I24" t="str">
-        <f t="shared" si="11"/>
-        <v>"img_src":""</v>
-      </c>
-      <c r="J24" t="str">
-        <f t="shared" si="12"/>
-        <v>"img_attribution":""</v>
-      </c>
-      <c r="K24" t="str">
-        <f t="shared" si="13"/>
-        <v>"desc_en":""</v>
-      </c>
-      <c r="L24" t="str">
-        <f t="shared" si="14"/>
-        <v>"desc_fr":""</v>
-      </c>
-      <c r="N24" t="str">
-        <f t="shared" si="15"/>
-        <v>{"name_fr":"termite","name_en":"termite","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
-      </c>
-      <c r="O24" t="str">
-        <f t="shared" si="17"/>
-        <v>,</v>
-      </c>
-      <c r="Q24" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>{"name_fr":"termite","name_en":"termite","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
-      </c>
+      <c r="B24" t="s">
+        <v>222</v>
+      </c>
+      <c r="C24" t="s">
+        <v>223</v>
+      </c>
+      <c r="D24" t="s">
+        <v>224</v>
+      </c>
+      <c r="E24" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q24" s="3"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>151</v>
+      <c r="A25" t="s">
+        <v>68</v>
       </c>
       <c r="B25" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="G25" t="str">
-        <f t="shared" si="9"/>
-        <v>"name_fr":"thon"</v>
+        <f>CHAR(34) &amp; "name_fr" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;A25&amp;CHAR(34)</f>
+        <v>"name_fr":"Veau "</v>
       </c>
       <c r="H25" t="str">
-        <f t="shared" si="10"/>
-        <v>"name_en":"tuna"</v>
+        <f>CHAR(34) &amp; "name_en" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;B25&amp;CHAR(34)</f>
+        <v>"name_en":"calf"</v>
       </c>
       <c r="I25" t="str">
-        <f t="shared" si="11"/>
+        <f>CHAR(34) &amp; "img_src" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;C25&amp;CHAR(34)</f>
         <v>"img_src":""</v>
       </c>
       <c r="J25" t="str">
-        <f t="shared" si="12"/>
+        <f>CHAR(34) &amp; "img_attribution" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;D25&amp;CHAR(34)</f>
         <v>"img_attribution":""</v>
       </c>
       <c r="K25" t="str">
-        <f t="shared" si="13"/>
+        <f>CHAR(34) &amp; "desc_en" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;E25&amp;CHAR(34)</f>
         <v>"desc_en":""</v>
       </c>
       <c r="L25" t="str">
-        <f t="shared" si="14"/>
+        <f>CHAR(34) &amp; "desc_fr" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;F25&amp;CHAR(34)</f>
         <v>"desc_fr":""</v>
       </c>
       <c r="N25" t="str">
-        <f t="shared" si="15"/>
-        <v>{"name_fr":"thon","name_en":"tuna","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f>"{" &amp; G25 &amp; "," &amp; H25 &amp; "," &amp; I25 &amp; "," &amp; J25 &amp; "," &amp; K25 &amp; "," &amp; L25 &amp; "}"</f>
+        <v>{"name_fr":"Veau ","name_en":"calf","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O25" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>,</v>
       </c>
       <c r="Q25" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>{"name_fr":"thon","name_en":"tuna","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B26" t="s">
-        <v>154</v>
-      </c>
-      <c r="G26" t="str">
-        <f t="shared" si="9"/>
-        <v>"name_fr":"truite"</v>
-      </c>
-      <c r="H26" t="str">
-        <f t="shared" si="10"/>
-        <v>"name_en":"trout"</v>
-      </c>
-      <c r="I26" t="str">
-        <f t="shared" si="11"/>
-        <v>"img_src":""</v>
-      </c>
-      <c r="J26" t="str">
-        <f t="shared" si="12"/>
-        <v>"img_attribution":""</v>
-      </c>
-      <c r="K26" t="str">
-        <f t="shared" si="13"/>
-        <v>"desc_en":""</v>
-      </c>
-      <c r="L26" t="str">
-        <f t="shared" si="14"/>
-        <v>"desc_fr":""</v>
-      </c>
-      <c r="N26" t="str">
-        <f t="shared" si="15"/>
-        <v>{"name_fr":"truite","name_en":"trout","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
-      </c>
-      <c r="O26" t="str">
-        <f t="shared" si="17"/>
-        <v>,</v>
-      </c>
-      <c r="Q26" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>{"name_fr":"truite","name_en":"trout","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f>N25&amp;O25</f>
+        <v>{"name_fr":"Veau ","name_en":"calf","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>155</v>
+      <c r="A27" t="s">
+        <v>135</v>
       </c>
       <c r="B27" t="s">
-        <v>156</v>
+        <v>133</v>
+      </c>
+      <c r="E27" t="s">
+        <v>226</v>
       </c>
       <c r="G27" t="str">
-        <f t="shared" si="9"/>
-        <v>"name_fr":"loutre"</v>
+        <f t="shared" si="26"/>
+        <v>"name_fr":"bouquetin"</v>
       </c>
       <c r="H27" t="str">
-        <f t="shared" si="10"/>
-        <v>"name_en":"otter"</v>
+        <f t="shared" si="27"/>
+        <v>"name_en":"ibex"</v>
       </c>
       <c r="I27" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>"img_src":""</v>
       </c>
       <c r="J27" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K27" t="str">
-        <f t="shared" si="13"/>
-        <v>"desc_en":""</v>
+        <f t="shared" si="30"/>
+        <v>"desc_en":"They have been discussing you."</v>
       </c>
       <c r="L27" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N27" t="str">
-        <f t="shared" si="15"/>
-        <v>{"name_fr":"loutre","name_en":"otter","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="32"/>
+        <v>{"name_fr":"bouquetin","name_en":"ibex","img_src":"","img_attribution":"","desc_en":"They have been discussing you.","desc_fr":""}</v>
       </c>
       <c r="O27" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>,</v>
       </c>
       <c r="Q27" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>{"name_fr":"loutre","name_en":"otter","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="34"/>
+        <v>{"name_fr":"bouquetin","name_en":"ibex","img_src":"","img_attribution":"","desc_en":"They have been discussing you.","desc_fr":""},</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>157</v>
+      <c r="A28" t="s">
+        <v>136</v>
       </c>
       <c r="B28" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="G28" t="str">
-        <f t="shared" si="9"/>
-        <v>"name_fr":"etoile de mer"</v>
+        <f t="shared" si="26"/>
+        <v>"name_fr":"nandou"</v>
       </c>
       <c r="H28" t="str">
-        <f t="shared" si="10"/>
-        <v>"name_en":"starfish"</v>
+        <f t="shared" si="27"/>
+        <v>"name_en":"rhea"</v>
       </c>
       <c r="I28" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>"img_src":""</v>
       </c>
       <c r="J28" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K28" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L28" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N28" t="str">
-        <f t="shared" si="15"/>
-        <v>{"name_fr":"etoile de mer","name_en":"starfish","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="32"/>
+        <v>{"name_fr":"nandou","name_en":"rhea","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+      </c>
+      <c r="O28" t="str">
+        <f t="shared" si="33"/>
+        <v>,</v>
       </c>
       <c r="Q28" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>{"name_fr":"etoile de mer","name_en":"starfish","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="34"/>
+        <v>{"name_fr":"nandou","name_en":"rhea","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="B29" t="s">
-        <v>91</v>
+        <v>137</v>
+      </c>
+      <c r="E29" t="s">
+        <v>199</v>
       </c>
       <c r="G29" t="str">
-        <f t="shared" si="9"/>
-        <v>"name_fr":"Rhinocéros "</v>
+        <f t="shared" si="26"/>
+        <v>"name_fr":"orang-outang"</v>
       </c>
       <c r="H29" t="str">
-        <f t="shared" si="10"/>
-        <v>"name_en":"rhino"</v>
+        <f t="shared" si="27"/>
+        <v>"name_en":"orangutan"</v>
       </c>
       <c r="I29" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>"img_src":""</v>
       </c>
       <c r="J29" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K29" t="str">
-        <f t="shared" si="13"/>
-        <v>"desc_en":""</v>
+        <f t="shared" si="30"/>
+        <v>"desc_en":"This mouse is unaware that the interest rate has increased."</v>
       </c>
       <c r="L29" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N29" t="str">
-        <f t="shared" si="15"/>
-        <v>{"name_fr":"Rhinocéros ","name_en":"rhino","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="32"/>
+        <v>{"name_fr":"orang-outang","name_en":"orangutan","img_src":"","img_attribution":"","desc_en":"This mouse is unaware that the interest rate has increased.","desc_fr":""}</v>
       </c>
       <c r="O29" t="str">
-        <f t="shared" ref="O29:O85" si="18">","</f>
+        <f t="shared" si="33"/>
         <v>,</v>
       </c>
       <c r="Q29" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>{"name_fr":"Rhinocéros ","name_en":"rhino","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="34"/>
+        <v>{"name_fr":"orang-outang","name_en":"orangutan","img_src":"","img_attribution":"","desc_en":"This mouse is unaware that the interest rate has increased.","desc_fr":""},</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>112</v>
-      </c>
-      <c r="B30" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="G30" t="str">
-        <f t="shared" si="9"/>
-        <v>"name_fr":"Sardine "</v>
+        <f t="shared" si="26"/>
+        <v>"name_fr":"wapati"</v>
       </c>
       <c r="H30" t="str">
-        <f t="shared" si="10"/>
-        <v>"name_en":"sardine"</v>
+        <f t="shared" si="27"/>
+        <v>"name_en":""</v>
       </c>
       <c r="I30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>"img_src":""</v>
       </c>
       <c r="J30" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K30" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L30" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N30" t="str">
-        <f t="shared" si="15"/>
-        <v>{"name_fr":"Sardine ","name_en":"sardine","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="32"/>
+        <v>{"name_fr":"wapati","name_en":"","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O30" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>,</v>
       </c>
       <c r="Q30" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>{"name_fr":"Sardine ","name_en":"sardine","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="34"/>
+        <v>{"name_fr":"wapati","name_en":"","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>114</v>
-      </c>
-      <c r="B31" t="s">
-        <v>115</v>
+      <c r="A31" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E31" t="s">
+        <v>235</v>
       </c>
       <c r="G31" t="str">
-        <f t="shared" si="9"/>
-        <v>"name_fr":"saumon"</v>
+        <f t="shared" si="26"/>
+        <v>"name_fr":"urubu"</v>
       </c>
       <c r="H31" t="str">
-        <f t="shared" si="10"/>
-        <v>"name_en":"salmon"</v>
+        <f t="shared" si="27"/>
+        <v>"name_en":"vulture"</v>
       </c>
       <c r="I31" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>"img_src":""</v>
       </c>
       <c r="J31" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K31" t="str">
-        <f t="shared" si="13"/>
-        <v>"desc_en":""</v>
+        <f t="shared" si="30"/>
+        <v>"desc_en":"His loan has been twice denied. How will he explain this to his business partners this time?"</v>
       </c>
       <c r="L31" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N31" t="str">
-        <f t="shared" si="15"/>
-        <v>{"name_fr":"saumon","name_en":"salmon","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="32"/>
+        <v>{"name_fr":"urubu","name_en":"vulture","img_src":"","img_attribution":"","desc_en":"His loan has been twice denied. How will he explain this to his business partners this time?","desc_fr":""}</v>
       </c>
       <c r="O31" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>,</v>
       </c>
       <c r="Q31" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>{"name_fr":"saumon","name_en":"salmon","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="34"/>
+        <v>{"name_fr":"urubu","name_en":"vulture","img_src":"","img_attribution":"","desc_en":"His loan has been twice denied. How will he explain this to his business partners this time?","desc_fr":""},</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>33</v>
+      <c r="A32" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E32" t="s">
+        <v>215</v>
       </c>
       <c r="G32" t="str">
-        <f t="shared" si="9"/>
-        <v>"name_fr":"serpent"</v>
+        <f t="shared" si="26"/>
+        <v>"name_fr":"xerus"</v>
       </c>
       <c r="H32" t="str">
-        <f t="shared" si="10"/>
-        <v>"name_en":"snake"</v>
+        <f t="shared" si="27"/>
+        <v>"name_en":"squirrel"</v>
       </c>
       <c r="I32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>"img_src":""</v>
       </c>
       <c r="J32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K32" t="str">
-        <f t="shared" si="13"/>
-        <v>"desc_en":""</v>
+        <f t="shared" si="30"/>
+        <v>"desc_en":"This squirrel thinks about his relationships, "</v>
       </c>
       <c r="L32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N32" t="str">
-        <f t="shared" si="15"/>
-        <v>{"name_fr":"serpent","name_en":"snake","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="32"/>
+        <v>{"name_fr":"xerus","name_en":"squirrel","img_src":"","img_attribution":"","desc_en":"This squirrel thinks about his relationships, ","desc_fr":""}</v>
       </c>
       <c r="O32" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>,</v>
       </c>
       <c r="Q32" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>{"name_fr":"serpent","name_en":"snake","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="34"/>
+        <v>{"name_fr":"xerus","name_en":"squirrel","img_src":"","img_attribution":"","desc_en":"This squirrel thinks about his relationships, ","desc_fr":""},</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" t="s">
-        <v>3</v>
+      <c r="A33" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="G33" t="str">
-        <f t="shared" si="9"/>
-        <v>"name_fr":"singe"</v>
+        <f t="shared" si="26"/>
+        <v>"name_fr":"yak"</v>
       </c>
       <c r="H33" t="str">
-        <f t="shared" si="10"/>
-        <v>"name_en":"monkey"</v>
+        <f t="shared" si="27"/>
+        <v>"name_en":"yak"</v>
       </c>
       <c r="I33" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>"img_src":""</v>
       </c>
       <c r="J33" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K33" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L33" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N33" t="str">
-        <f t="shared" si="15"/>
-        <v>{"name_fr":"singe","name_en":"monkey","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="32"/>
+        <v>{"name_fr":"yak","name_en":"yak","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O33" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>,</v>
       </c>
       <c r="Q33" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>{"name_fr":"singe","name_en":"monkey","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="34"/>
+        <v>{"name_fr":"yak","name_en":"yak","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" t="s">
-        <v>60</v>
+      <c r="A34" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="G34" t="str">
-        <f t="shared" si="9"/>
-        <v>"name_fr":"souris "</v>
+        <f t="shared" si="26"/>
+        <v>"name_fr":"koala"</v>
       </c>
       <c r="H34" t="str">
-        <f t="shared" si="10"/>
-        <v>"name_en":"mouse"</v>
+        <f t="shared" si="27"/>
+        <v>"name_en":"koala"</v>
       </c>
       <c r="I34" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>"img_src":""</v>
       </c>
       <c r="J34" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K34" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L34" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N34" t="str">
-        <f t="shared" si="15"/>
-        <v>{"name_fr":"souris ","name_en":"mouse","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="32"/>
+        <v>{"name_fr":"koala","name_en":"koala","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O34" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>,</v>
       </c>
       <c r="Q34" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>{"name_fr":"souris ","name_en":"mouse","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="34"/>
+        <v>{"name_fr":"koala","name_en":"koala","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" t="s">
-        <v>70</v>
+      <c r="A35" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="G35" t="str">
-        <f t="shared" si="9"/>
-        <v>"name_fr":"Taureau "</v>
+        <f t="shared" si="26"/>
+        <v>"name_fr":"frelon"</v>
       </c>
       <c r="H35" t="str">
-        <f t="shared" si="10"/>
-        <v>"name_en":"bull"</v>
+        <f t="shared" si="27"/>
+        <v>"name_en":"hornet"</v>
       </c>
       <c r="I35" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>"img_src":""</v>
       </c>
       <c r="J35" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K35" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L35" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N35" t="str">
-        <f t="shared" si="15"/>
-        <v>{"name_fr":"Taureau ","name_en":"bull","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="32"/>
+        <v>{"name_fr":"frelon","name_en":"hornet","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O35" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>,</v>
       </c>
       <c r="Q35" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>{"name_fr":"Taureau ","name_en":"bull","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="34"/>
+        <v>{"name_fr":"frelon","name_en":"hornet","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>79</v>
-      </c>
-      <c r="B36" t="s">
-        <v>87</v>
+      <c r="A36" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="G36" t="str">
-        <f t="shared" si="9"/>
-        <v>"name_fr":"Tigre "</v>
+        <f t="shared" si="26"/>
+        <v>"name_fr":"tigresse"</v>
       </c>
       <c r="H36" t="str">
-        <f t="shared" si="10"/>
-        <v>"name_en":"tiger"</v>
+        <f t="shared" si="27"/>
+        <v>"name_en":"tigress"</v>
       </c>
       <c r="I36" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>"img_src":""</v>
       </c>
       <c r="J36" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K36" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L36" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N36" t="str">
-        <f t="shared" si="15"/>
-        <v>{"name_fr":"Tigre ","name_en":"tiger","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="32"/>
+        <v>{"name_fr":"tigresse","name_en":"tigress","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O36" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>,</v>
       </c>
       <c r="Q36" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>{"name_fr":"Tigre ","name_en":"tiger","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="34"/>
+        <v>{"name_fr":"tigresse","name_en":"tigress","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>124</v>
-      </c>
-      <c r="B37" t="s">
-        <v>125</v>
+      <c r="A37" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="G37" t="str">
-        <f t="shared" si="9"/>
-        <v>"name_fr":"autruche"</v>
+        <f t="shared" si="26"/>
+        <v>"name_fr":"lionesse"</v>
       </c>
       <c r="H37" t="str">
-        <f t="shared" si="10"/>
-        <v>"name_en":"ostrich"</v>
+        <f t="shared" si="27"/>
+        <v>"name_en":"lioness"</v>
       </c>
       <c r="I37" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>"img_src":""</v>
       </c>
       <c r="J37" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K37" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L37" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N37" t="str">
-        <f t="shared" si="15"/>
-        <v>{"name_fr":"autruche","name_en":"ostrich","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="32"/>
+        <v>{"name_fr":"lionesse","name_en":"lioness","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O37" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>,</v>
       </c>
       <c r="Q37" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>{"name_fr":"autruche","name_en":"ostrich","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="34"/>
+        <v>{"name_fr":"lionesse","name_en":"lioness","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" t="s">
-        <v>35</v>
+      <c r="A38" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="G38" t="str">
-        <f t="shared" si="9"/>
-        <v>"name_fr":"baleine"</v>
+        <f t="shared" si="26"/>
+        <v>"name_fr":"termite"</v>
       </c>
       <c r="H38" t="str">
-        <f t="shared" si="10"/>
-        <v>"name_en":"whale"</v>
+        <f t="shared" si="27"/>
+        <v>"name_en":"termite"</v>
       </c>
       <c r="I38" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>"img_src":""</v>
       </c>
       <c r="J38" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K38" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L38" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N38" t="str">
-        <f t="shared" si="15"/>
-        <v>{"name_fr":"baleine","name_en":"whale","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="32"/>
+        <v>{"name_fr":"termite","name_en":"termite","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O38" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>,</v>
       </c>
       <c r="Q38" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>{"name_fr":"baleine","name_en":"whale","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="34"/>
+        <v>{"name_fr":"termite","name_en":"termite","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>65</v>
+      <c r="A39" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="B39" t="s">
-        <v>72</v>
+        <v>152</v>
       </c>
       <c r="G39" t="str">
-        <f t="shared" si="9"/>
-        <v>"name_fr":"canard"</v>
+        <f t="shared" si="26"/>
+        <v>"name_fr":"thon"</v>
       </c>
       <c r="H39" t="str">
-        <f t="shared" si="10"/>
-        <v>"name_en":"duck"</v>
+        <f t="shared" si="27"/>
+        <v>"name_en":"tuna"</v>
       </c>
       <c r="I39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>"img_src":""</v>
       </c>
       <c r="J39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L39" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N39" t="str">
-        <f t="shared" si="15"/>
-        <v>{"name_fr":"canard","name_en":"duck","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="32"/>
+        <v>{"name_fr":"thon","name_en":"tuna","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O39" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>,</v>
       </c>
       <c r="Q39" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>{"name_fr":"canard","name_en":"duck","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="34"/>
+        <v>{"name_fr":"thon","name_en":"tuna","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>117</v>
+      <c r="A40" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="B40" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="G40" t="str">
-        <f t="shared" si="9"/>
-        <v>"name_fr":"cerf"</v>
+        <f t="shared" si="26"/>
+        <v>"name_fr":"truite"</v>
       </c>
       <c r="H40" t="str">
-        <f t="shared" si="10"/>
-        <v>"name_en":"deer"</v>
+        <f t="shared" si="27"/>
+        <v>"name_en":"trout"</v>
       </c>
       <c r="I40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>"img_src":""</v>
       </c>
       <c r="J40" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K40" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L40" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N40" t="str">
-        <f t="shared" si="15"/>
-        <v>{"name_fr":"cerf","name_en":"deer","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="32"/>
+        <v>{"name_fr":"truite","name_en":"trout","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>,</v>
       </c>
       <c r="Q40" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>{"name_fr":"cerf","name_en":"deer","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="34"/>
+        <v>{"name_fr":"truite","name_en":"trout","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>82</v>
+      <c r="A41" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>156</v>
       </c>
       <c r="G41" t="str">
-        <f t="shared" si="9"/>
-        <v>"name_fr":"Chameau "</v>
+        <f t="shared" si="26"/>
+        <v>"name_fr":"loutre"</v>
       </c>
       <c r="H41" t="str">
-        <f t="shared" si="10"/>
-        <v>"name_en":"camel"</v>
+        <f t="shared" si="27"/>
+        <v>"name_en":"otter"</v>
       </c>
       <c r="I41" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>"img_src":""</v>
       </c>
       <c r="J41" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K41" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L41" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N41" t="str">
-        <f t="shared" si="15"/>
-        <v>{"name_fr":"Chameau ","name_en":"camel","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="32"/>
+        <v>{"name_fr":"loutre","name_en":"otter","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O41" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>,</v>
       </c>
       <c r="Q41" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>{"name_fr":"Chameau ","name_en":"camel","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="34"/>
+        <v>{"name_fr":"loutre","name_en":"otter","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>23</v>
+      <c r="A42" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="B42" t="s">
-        <v>22</v>
-      </c>
-      <c r="E42" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G42" t="str">
-        <f t="shared" si="9"/>
-        <v>"name_fr":"chat"</v>
+        <f t="shared" si="26"/>
+        <v>"name_fr":"etoile de mer"</v>
       </c>
       <c r="H42" t="str">
-        <f t="shared" si="10"/>
-        <v>"name_en":"cat"</v>
+        <f t="shared" si="27"/>
+        <v>"name_en":"starfish"</v>
       </c>
       <c r="I42" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>"img_src":""</v>
       </c>
       <c r="J42" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K42" t="str">
-        <f t="shared" si="13"/>
-        <v>"desc_en":"the cat thinks only of your demise"</v>
+        <f t="shared" si="30"/>
+        <v>"desc_en":""</v>
       </c>
       <c r="L42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N42" t="str">
-        <f t="shared" si="15"/>
-        <v>{"name_fr":"chat","name_en":"cat","img_src":"","img_attribution":"","desc_en":"the cat thinks only of your demise","desc_fr":""}</v>
-      </c>
-      <c r="O42" t="str">
-        <f t="shared" si="18"/>
-        <v>,</v>
+        <f t="shared" si="32"/>
+        <v>{"name_fr":"etoile de mer","name_en":"starfish","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="Q42" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>{"name_fr":"chat","name_en":"cat","img_src":"","img_attribution":"","desc_en":"the cat thinks only of your demise","desc_fr":""},</v>
+        <f t="shared" si="34"/>
+        <v>{"name_fr":"etoile de mer","name_en":"starfish","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="B43" t="s">
-        <v>59</v>
-      </c>
-      <c r="E43" t="s">
-        <v>160</v>
+        <v>91</v>
       </c>
       <c r="G43" t="str">
-        <f t="shared" si="9"/>
-        <v>"name_fr":"chauve souris"</v>
+        <f t="shared" si="26"/>
+        <v>"name_fr":"Rhinocéros "</v>
       </c>
       <c r="H43" t="str">
-        <f t="shared" si="10"/>
-        <v>"name_en":"bat"</v>
+        <f t="shared" si="27"/>
+        <v>"name_en":"rhino"</v>
       </c>
       <c r="I43" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>"img_src":""</v>
       </c>
       <c r="J43" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K43" t="str">
-        <f t="shared" si="13"/>
-        <v>"desc_en":"this bat extends the life of darkness"</v>
+        <f t="shared" si="30"/>
+        <v>"desc_en":""</v>
       </c>
       <c r="L43" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N43" t="str">
-        <f t="shared" si="15"/>
-        <v>{"name_fr":"chauve souris","name_en":"bat","img_src":"","img_attribution":"","desc_en":"this bat extends the life of darkness","desc_fr":""}</v>
+        <f t="shared" si="32"/>
+        <v>{"name_fr":"Rhinocéros ","name_en":"rhino","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O43" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="O43:O90" si="35">","</f>
         <v>,</v>
       </c>
       <c r="Q43" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>{"name_fr":"chauve souris","name_en":"bat","img_src":"","img_attribution":"","desc_en":"this bat extends the life of darkness","desc_fr":""},</v>
+        <f t="shared" si="34"/>
+        <v>{"name_fr":"Rhinocéros ","name_en":"rhino","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="B44" t="s">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="G44" t="str">
-        <f t="shared" si="9"/>
-        <v>"name_fr":"cheval"</v>
+        <f t="shared" si="26"/>
+        <v>"name_fr":"Sardine "</v>
       </c>
       <c r="H44" t="str">
-        <f t="shared" si="10"/>
-        <v>"name_en":"horse"</v>
+        <f t="shared" si="27"/>
+        <v>"name_en":"sardine"</v>
       </c>
       <c r="I44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>"img_src":""</v>
       </c>
       <c r="J44" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K44" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N44" t="str">
-        <f t="shared" si="15"/>
-        <v>{"name_fr":"cheval","name_en":"horse","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="32"/>
+        <v>{"name_fr":"Sardine ","name_en":"sardine","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="35"/>
         <v>,</v>
       </c>
       <c r="Q44" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>{"name_fr":"cheval","name_en":"horse","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="34"/>
+        <v>{"name_fr":"Sardine ","name_en":"sardine","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B45" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G45" t="str">
-        <f t="shared" si="9"/>
-        <v>"name_fr":"chevre"</v>
+        <f t="shared" si="26"/>
+        <v>"name_fr":"cheval"</v>
       </c>
       <c r="H45" t="str">
-        <f t="shared" si="10"/>
-        <v>"name_en":"goat"</v>
+        <f t="shared" si="27"/>
+        <v>"name_en":"horse"</v>
       </c>
       <c r="I45" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>"img_src":""</v>
       </c>
       <c r="J45" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K45" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L45" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N45" t="str">
-        <f t="shared" si="15"/>
-        <v>{"name_fr":"chevre","name_en":"goat","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="32"/>
+        <v>{"name_fr":"cheval","name_en":"horse","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O45" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="35"/>
         <v>,</v>
       </c>
       <c r="Q45" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>{"name_fr":"chevre","name_en":"goat","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="34"/>
+        <v>{"name_fr":"cheval","name_en":"horse","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B46" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="G46" t="str">
-        <f t="shared" si="9"/>
-        <v>"name_fr":"chien"</v>
+        <f t="shared" si="26"/>
+        <v>"name_fr":"chevre"</v>
       </c>
       <c r="H46" t="str">
-        <f t="shared" si="10"/>
-        <v>"name_en":"dog"</v>
+        <f t="shared" si="27"/>
+        <v>"name_en":"goat"</v>
       </c>
       <c r="I46" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>"img_src":""</v>
       </c>
       <c r="J46" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K46" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L46" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N46" t="str">
-        <f t="shared" si="15"/>
-        <v>{"name_fr":"chien","name_en":"dog","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="32"/>
+        <v>{"name_fr":"chevre","name_en":"goat","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O46" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="35"/>
         <v>,</v>
       </c>
       <c r="Q46" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>{"name_fr":"chien","name_en":"dog","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="34"/>
+        <v>{"name_fr":"chevre","name_en":"goat","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B47" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G47" t="str">
-        <f t="shared" si="9"/>
-        <v>"name_fr":"chimpanzee"</v>
+        <f t="shared" si="26"/>
+        <v>"name_fr":"chien"</v>
       </c>
       <c r="H47" t="str">
-        <f t="shared" si="10"/>
-        <v>"name_en":"chimp"</v>
+        <f t="shared" si="27"/>
+        <v>"name_en":"dog"</v>
       </c>
       <c r="I47" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>"img_src":""</v>
       </c>
       <c r="J47" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K47" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L47" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N47" t="str">
-        <f t="shared" si="15"/>
-        <v>{"name_fr":"chimpanzee","name_en":"chimp","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="32"/>
+        <v>{"name_fr":"chien","name_en":"dog","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O47" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="35"/>
         <v>,</v>
       </c>
       <c r="Q47" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>{"name_fr":"chimpanzee","name_en":"chimp","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="34"/>
+        <v>{"name_fr":"chien","name_en":"dog","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3160,39 +3186,39 @@
         <v>14</v>
       </c>
       <c r="G48" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>"name_fr":"chouette"</v>
       </c>
       <c r="H48" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>"name_en":"owl"</v>
       </c>
       <c r="I48" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>"img_src":""</v>
       </c>
       <c r="J48" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K48" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L48" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N48" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="32"/>
         <v>{"name_fr":"chouette","name_en":"owl","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O48" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="35"/>
         <v>,</v>
       </c>
       <c r="Q48" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>{"name_fr":"chouette","name_en":"owl","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
@@ -3204,39 +3230,39 @@
         <v>9</v>
       </c>
       <c r="G49" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>"name_fr":"coccinelle"</v>
       </c>
       <c r="H49" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>"name_en":"ladybuy"</v>
       </c>
       <c r="I49" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>"img_src":""</v>
       </c>
       <c r="J49" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K49" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L49" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N49" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="32"/>
         <v>{"name_fr":"coccinelle","name_en":"ladybuy","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O49" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="35"/>
         <v>,</v>
       </c>
       <c r="Q49" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>{"name_fr":"coccinelle","name_en":"ladybuy","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
@@ -3248,39 +3274,39 @@
         <v>71</v>
       </c>
       <c r="G50" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>"name_fr":"cochon"</v>
       </c>
       <c r="H50" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>"name_en":"pig"</v>
       </c>
       <c r="I50" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>"img_src":""</v>
       </c>
       <c r="J50" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K50" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L50" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N50" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="32"/>
         <v>{"name_fr":"cochon","name_en":"pig","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O50" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="35"/>
         <v>,</v>
       </c>
       <c r="Q50" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>{"name_fr":"cochon","name_en":"pig","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
@@ -3292,39 +3318,39 @@
         <v>108</v>
       </c>
       <c r="G51" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>"name_fr":"coquillage"</v>
       </c>
       <c r="H51" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>"name_en":"shellfish"</v>
       </c>
       <c r="I51" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>"img_src":""</v>
       </c>
       <c r="J51" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K51" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L51" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N51" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="32"/>
         <v>{"name_fr":"coquillage","name_en":"shellfish","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O51" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="35"/>
         <v>,</v>
       </c>
       <c r="Q51" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>{"name_fr":"coquillage","name_en":"shellfish","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
@@ -3339,39 +3365,39 @@
         <v>164</v>
       </c>
       <c r="G52" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>"name_fr":"corbeau"</v>
       </c>
       <c r="H52" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>"name_en":"raven"</v>
       </c>
       <c r="I52" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>"img_src":""</v>
       </c>
       <c r="J52" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K52" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>"desc_en":"the ravens celebrate death"</v>
       </c>
       <c r="L52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N52" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="32"/>
         <v>{"name_fr":"corbeau","name_en":"raven","img_src":"","img_attribution":"","desc_en":"the ravens celebrate death","desc_fr":""}</v>
       </c>
       <c r="O52" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="35"/>
         <v>,</v>
       </c>
       <c r="Q52" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>{"name_fr":"corbeau","name_en":"raven","img_src":"","img_attribution":"","desc_en":"the ravens celebrate death","desc_fr":""},</v>
       </c>
     </row>
@@ -3383,39 +3409,39 @@
         <v>40</v>
       </c>
       <c r="G53" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>"name_fr":"coyote"</v>
       </c>
       <c r="H53" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>"name_en":"coyote"</v>
       </c>
       <c r="I53" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>"img_src":""</v>
       </c>
       <c r="J53" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K53" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L53" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N53" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="32"/>
         <v>{"name_fr":"coyote","name_en":"coyote","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O53" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="35"/>
         <v>,</v>
       </c>
       <c r="Q53" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>{"name_fr":"coyote","name_en":"coyote","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
@@ -3426,41 +3452,44 @@
       <c r="B54" t="s">
         <v>111</v>
       </c>
+      <c r="E54" t="s">
+        <v>209</v>
+      </c>
       <c r="G54" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>"name_fr":"Crabe "</v>
       </c>
       <c r="H54" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>"name_en":"crab"</v>
       </c>
       <c r="I54" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>"img_src":""</v>
       </c>
       <c r="J54" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K54" t="str">
-        <f t="shared" si="13"/>
-        <v>"desc_en":""</v>
+        <f t="shared" si="30"/>
+        <v>"desc_en":"the crab looks to the sky and sees the spirit of his ancestors."</v>
       </c>
       <c r="L54" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N54" t="str">
-        <f t="shared" si="15"/>
-        <v>{"name_fr":"Crabe ","name_en":"crab","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="32"/>
+        <v>{"name_fr":"Crabe ","name_en":"crab","img_src":"","img_attribution":"","desc_en":"the crab looks to the sky and sees the spirit of his ancestors.","desc_fr":""}</v>
       </c>
       <c r="O54" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="35"/>
         <v>,</v>
       </c>
       <c r="Q54" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>{"name_fr":"Crabe ","name_en":"crab","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="34"/>
+        <v>{"name_fr":"Crabe ","name_en":"crab","img_src":"","img_attribution":"","desc_en":"the crab looks to the sky and sees the spirit of his ancestors.","desc_fr":""},</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -3471,39 +3500,39 @@
         <v>37</v>
       </c>
       <c r="G55" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>"name_fr":"dauphin"</v>
       </c>
       <c r="H55" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>"name_en":"dolphin"</v>
       </c>
       <c r="I55" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>"img_src":""</v>
       </c>
       <c r="J55" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K55" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L55" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N55" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="32"/>
         <v>{"name_fr":"dauphin","name_en":"dolphin","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O55" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="35"/>
         <v>,</v>
       </c>
       <c r="Q55" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>{"name_fr":"dauphin","name_en":"dolphin","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
@@ -3515,39 +3544,39 @@
         <v>76</v>
       </c>
       <c r="G56" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>"name_fr":"dinde"</v>
       </c>
       <c r="H56" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>"name_en":"turkey"</v>
       </c>
       <c r="I56" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>"img_src":""</v>
       </c>
       <c r="J56" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K56" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L56" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N56" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="32"/>
         <v>{"name_fr":"dinde","name_en":"turkey","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O56" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="35"/>
         <v>,</v>
       </c>
       <c r="Q56" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>{"name_fr":"dinde","name_en":"turkey","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
@@ -3559,39 +3588,39 @@
         <v>42</v>
       </c>
       <c r="G57" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>"name_fr":"ecureuil"</v>
       </c>
       <c r="H57" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>"name_en":"squirell"</v>
       </c>
       <c r="I57" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>"img_src":""</v>
       </c>
       <c r="J57" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K57" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L57" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N57" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="32"/>
         <v>{"name_fr":"ecureuil","name_en":"squirell","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O57" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="35"/>
         <v>,</v>
       </c>
       <c r="Q57" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>{"name_fr":"ecureuil","name_en":"squirell","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
@@ -3606,39 +3635,39 @@
         <v>165</v>
       </c>
       <c r="G58" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>"name_fr":"Éléphant "</v>
       </c>
       <c r="H58" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>"name_en":"elephant"</v>
       </c>
       <c r="I58" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>"img_src":""</v>
       </c>
       <c r="J58" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K58" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>"desc_en":"this elephant has chosen to wear a hat"</v>
       </c>
       <c r="L58" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N58" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="32"/>
         <v>{"name_fr":"Éléphant ","name_en":"elephant","img_src":"","img_attribution":"","desc_en":"this elephant has chosen to wear a hat","desc_fr":""}</v>
       </c>
       <c r="O58" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="35"/>
         <v>,</v>
       </c>
       <c r="Q58" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>{"name_fr":"Éléphant ","name_en":"elephant","img_src":"","img_attribution":"","desc_en":"this elephant has chosen to wear a hat","desc_fr":""},</v>
       </c>
     </row>
@@ -3650,39 +3679,39 @@
         <v>102</v>
       </c>
       <c r="G59" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>"name_fr":"escargot"</v>
       </c>
       <c r="H59" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>"name_en":"snail"</v>
       </c>
       <c r="I59" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>"img_src":""</v>
       </c>
       <c r="J59" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K59" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L59" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N59" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="32"/>
         <v>{"name_fr":"escargot","name_en":"snail","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O59" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="35"/>
         <v>,</v>
       </c>
       <c r="Q59" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>{"name_fr":"escargot","name_en":"snail","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
@@ -3697,39 +3726,39 @@
         <v>166</v>
       </c>
       <c r="G60" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>"name_fr":"fourmi"</v>
       </c>
       <c r="H60" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>"name_en":"ant"</v>
       </c>
       <c r="I60" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>"img_src":""</v>
       </c>
       <c r="J60" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K60" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>"desc_en":"ants commit genocide"</v>
       </c>
       <c r="L60" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N60" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="32"/>
         <v>{"name_fr":"fourmi","name_en":"ant","img_src":"","img_attribution":"","desc_en":"ants commit genocide","desc_fr":""}</v>
       </c>
       <c r="O60" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="35"/>
         <v>,</v>
       </c>
       <c r="Q60" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>{"name_fr":"fourmi","name_en":"ant","img_src":"","img_attribution":"","desc_en":"ants commit genocide","desc_fr":""},</v>
       </c>
     </row>
@@ -3744,39 +3773,39 @@
         <v>158</v>
       </c>
       <c r="G61" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>"name_fr":"Girafe "</v>
       </c>
       <c r="H61" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>"name_en":"giraffe"</v>
       </c>
       <c r="I61" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>"img_src":""</v>
       </c>
       <c r="J61" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K61" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>"desc_en":"the giraffe enjoys dinner parties"</v>
       </c>
       <c r="L61" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N61" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="32"/>
         <v>{"name_fr":"Girafe ","name_en":"giraffe","img_src":"","img_attribution":"","desc_en":"the giraffe enjoys dinner parties","desc_fr":""}</v>
       </c>
       <c r="O61" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="35"/>
         <v>,</v>
       </c>
       <c r="Q61" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>{"name_fr":"Girafe ","name_en":"giraffe","img_src":"","img_attribution":"","desc_en":"the giraffe enjoys dinner parties","desc_fr":""},</v>
       </c>
     </row>
@@ -3791,39 +3820,39 @@
         <v>167</v>
       </c>
       <c r="G62" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>"name_fr":"gorille"</v>
       </c>
       <c r="H62" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>"name_en":"gorilla"</v>
       </c>
       <c r="I62" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>"img_src":""</v>
       </c>
       <c r="J62" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K62" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>"desc_en":"gorillas are good deadlifters"</v>
       </c>
       <c r="L62" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N62" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="32"/>
         <v>{"name_fr":"gorille","name_en":"gorilla","img_src":"","img_attribution":"","desc_en":"gorillas are good deadlifters","desc_fr":""}</v>
       </c>
       <c r="O62" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="35"/>
         <v>,</v>
       </c>
       <c r="Q62" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>{"name_fr":"gorille","name_en":"gorilla","img_src":"","img_attribution":"","desc_en":"gorillas are good deadlifters","desc_fr":""},</v>
       </c>
     </row>
@@ -3835,39 +3864,39 @@
         <v>62</v>
       </c>
       <c r="G63" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>"name_fr":"grenouille"</v>
       </c>
       <c r="H63" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>"name_en":"frog"</v>
       </c>
       <c r="I63" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>"img_src":""</v>
       </c>
       <c r="J63" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K63" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L63" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N63" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="32"/>
         <v>{"name_fr":"grenouille","name_en":"frog","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O63" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="35"/>
         <v>,</v>
       </c>
       <c r="Q63" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>{"name_fr":"grenouille","name_en":"frog","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
@@ -3879,39 +3908,39 @@
         <v>123</v>
       </c>
       <c r="G64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>"name_fr":"Hippopotame "</v>
       </c>
       <c r="H64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>"name_en":"hippo"</v>
       </c>
       <c r="I64" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>"img_src":""</v>
       </c>
       <c r="J64" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K64" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L64" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N64" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="32"/>
         <v>{"name_fr":"Hippopotame ","name_en":"hippo","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O64" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="35"/>
         <v>,</v>
       </c>
       <c r="Q64" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>{"name_fr":"Hippopotame ","name_en":"hippo","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
@@ -3923,39 +3952,39 @@
         <v>107</v>
       </c>
       <c r="G65" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>"name_fr":"homard"</v>
       </c>
       <c r="H65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>"name_en":"lobster"</v>
       </c>
       <c r="I65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>"img_src":""</v>
       </c>
       <c r="J65" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K65" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L65" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N65" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="32"/>
         <v>{"name_fr":"homard","name_en":"lobster","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O65" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="35"/>
         <v>,</v>
       </c>
       <c r="Q65" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>{"name_fr":"homard","name_en":"lobster","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
@@ -3967,39 +3996,39 @@
         <v>120</v>
       </c>
       <c r="G66" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>"name_fr":"iguane"</v>
       </c>
       <c r="H66" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>"name_en":"iguana"</v>
       </c>
       <c r="I66" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>"img_src":""</v>
       </c>
       <c r="J66" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K66" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L66" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N66" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="32"/>
         <v>{"name_fr":"iguane","name_en":"iguana","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O66" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="35"/>
         <v>,</v>
       </c>
       <c r="Q66" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>{"name_fr":"iguane","name_en":"iguana","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
@@ -4011,39 +4040,39 @@
         <v>129</v>
       </c>
       <c r="G67" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>"name_fr":"kangourou"</v>
       </c>
       <c r="H67" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>"name_en":"kangaroo"</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>"img_src":""</v>
       </c>
       <c r="J67" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K67" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N67" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="32"/>
         <v>{"name_fr":"kangourou","name_en":"kangaroo","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="35"/>
         <v>,</v>
       </c>
       <c r="Q67" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>{"name_fr":"kangourou","name_en":"kangaroo","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
@@ -4055,39 +4084,39 @@
         <v>44</v>
       </c>
       <c r="G68" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>"name_fr":"lapin"</v>
       </c>
       <c r="H68" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>"name_en":"rabbit"</v>
       </c>
       <c r="I68" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>"img_src":""</v>
       </c>
       <c r="J68" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K68" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L68" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N68" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="32"/>
         <v>{"name_fr":"lapin","name_en":"rabbit","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O68" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="35"/>
         <v>,</v>
       </c>
       <c r="Q68" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>{"name_fr":"lapin","name_en":"rabbit","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
@@ -4099,39 +4128,39 @@
         <v>131</v>
       </c>
       <c r="G69" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>"name_fr":"léopard"</v>
       </c>
       <c r="H69" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>"name_en":"leopard"</v>
       </c>
       <c r="I69" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>"img_src":""</v>
       </c>
       <c r="J69" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K69" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L69" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N69" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="32"/>
         <v>{"name_fr":"léopard","name_en":"leopard","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O69" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="35"/>
         <v>,</v>
       </c>
       <c r="Q69" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>{"name_fr":"léopard","name_en":"leopard","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
@@ -4143,39 +4172,39 @@
         <v>86</v>
       </c>
       <c r="G70" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>"name_fr":"Lion "</v>
       </c>
       <c r="H70" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>"name_en":"lion"</v>
       </c>
       <c r="I70" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>"img_src":""</v>
       </c>
       <c r="J70" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K70" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L70" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N70" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="32"/>
         <v>{"name_fr":"Lion ","name_en":"lion","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O70" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="35"/>
         <v>,</v>
       </c>
       <c r="Q70" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>{"name_fr":"Lion ","name_en":"lion","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
@@ -4187,39 +4216,39 @@
         <v>29</v>
       </c>
       <c r="G71" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>"name_fr":"loup"</v>
       </c>
       <c r="H71" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>"name_en":"wolf"</v>
       </c>
       <c r="I71" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>"img_src":""</v>
       </c>
       <c r="J71" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K71" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L71" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N71" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="32"/>
         <v>{"name_fr":"loup","name_en":"wolf","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O71" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="35"/>
         <v>,</v>
       </c>
       <c r="Q71" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>{"name_fr":"loup","name_en":"wolf","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
@@ -4231,39 +4260,39 @@
         <v>96</v>
       </c>
       <c r="G72" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>"name_fr":"Mouche "</v>
       </c>
       <c r="H72" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>"name_en":"fly"</v>
       </c>
       <c r="I72" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>"img_src":""</v>
       </c>
       <c r="J72" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K72" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L72" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N72" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="32"/>
         <v>{"name_fr":"Mouche ","name_en":"fly","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O72" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="35"/>
         <v>,</v>
       </c>
       <c r="Q72" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>{"name_fr":"Mouche ","name_en":"fly","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
@@ -4275,39 +4304,39 @@
         <v>46</v>
       </c>
       <c r="G73" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>"name_fr":"moufette"</v>
       </c>
       <c r="H73" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>"name_en":"skunk"</v>
       </c>
       <c r="I73" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>"img_src":""</v>
       </c>
       <c r="J73" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K73" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L73" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N73" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="32"/>
         <v>{"name_fr":"moufette","name_en":"skunk","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O73" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="35"/>
         <v>,</v>
       </c>
       <c r="Q73" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>{"name_fr":"moufette","name_en":"skunk","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
@@ -4319,39 +4348,39 @@
         <v>116</v>
       </c>
       <c r="G74" t="str">
-        <f t="shared" ref="G74:G85" si="19">CHAR(34) &amp; "name_fr" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;A74&amp;CHAR(34)</f>
+        <f t="shared" ref="G74:G90" si="36">CHAR(34) &amp; "name_fr" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;A74&amp;CHAR(34)</f>
         <v>"name_fr":"moule"</v>
       </c>
       <c r="H74" t="str">
-        <f t="shared" ref="H74:H85" si="20">CHAR(34) &amp; "name_en" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;B74&amp;CHAR(34)</f>
+        <f t="shared" ref="H74:H91" si="37">CHAR(34) &amp; "name_en" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;B74&amp;CHAR(34)</f>
         <v>"name_en":"mussel"</v>
       </c>
       <c r="I74" t="str">
-        <f t="shared" ref="I74:I85" si="21">CHAR(34) &amp; "img_src" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;C74&amp;CHAR(34)</f>
+        <f t="shared" ref="I74:I90" si="38">CHAR(34) &amp; "img_src" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;C74&amp;CHAR(34)</f>
         <v>"img_src":""</v>
       </c>
       <c r="J74" t="str">
-        <f t="shared" ref="J74:J85" si="22">CHAR(34) &amp; "img_attribution" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;D74&amp;CHAR(34)</f>
+        <f t="shared" ref="J74:J90" si="39">CHAR(34) &amp; "img_attribution" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;D74&amp;CHAR(34)</f>
         <v>"img_attribution":""</v>
       </c>
       <c r="K74" t="str">
-        <f t="shared" ref="K74:K85" si="23">CHAR(34) &amp; "desc_en" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;E74&amp;CHAR(34)</f>
+        <f t="shared" ref="K74:K90" si="40">CHAR(34) &amp; "desc_en" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;E74&amp;CHAR(34)</f>
         <v>"desc_en":""</v>
       </c>
       <c r="L74" t="str">
-        <f t="shared" ref="L74:L85" si="24">CHAR(34) &amp; "desc_fr" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;F74&amp;CHAR(34)</f>
+        <f t="shared" ref="L74:L90" si="41">CHAR(34) &amp; "desc_fr" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;F74&amp;CHAR(34)</f>
         <v>"desc_fr":""</v>
       </c>
       <c r="N74" t="str">
-        <f t="shared" ref="N74:N85" si="25">"{" &amp; G74 &amp; "," &amp; H74 &amp; "," &amp; I74 &amp; "," &amp; J74 &amp; "," &amp; K74 &amp; "," &amp; L74 &amp; "}"</f>
+        <f t="shared" ref="N74:N90" si="42">"{" &amp; G74 &amp; "," &amp; H74 &amp; "," &amp; I74 &amp; "," &amp; J74 &amp; "," &amp; K74 &amp; "," &amp; L74 &amp; "}"</f>
         <v>{"name_fr":"moule","name_en":"mussel","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O74" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="35"/>
         <v>,</v>
       </c>
       <c r="Q74" s="3" t="str">
-        <f t="shared" ref="Q74:Q85" si="26">N74&amp;O74</f>
+        <f t="shared" ref="Q74:Q90" si="43">N74&amp;O74</f>
         <v>{"name_fr":"moule","name_en":"mussel","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
@@ -4363,39 +4392,39 @@
         <v>5</v>
       </c>
       <c r="G75" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="36"/>
         <v>"name_fr":"mouton"</v>
       </c>
       <c r="H75" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="37"/>
         <v>"name_en":"lamb"</v>
       </c>
       <c r="I75" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="38"/>
         <v>"img_src":""</v>
       </c>
       <c r="J75" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="39"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K75" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="40"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L75" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="41"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N75" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="42"/>
         <v>{"name_fr":"mouton","name_en":"lamb","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O75" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="35"/>
         <v>,</v>
       </c>
       <c r="Q75" s="3" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="43"/>
         <v>{"name_fr":"mouton","name_en":"lamb","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
@@ -4407,39 +4436,39 @@
         <v>52</v>
       </c>
       <c r="G76" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="36"/>
         <v>"name_fr":"oiseau"</v>
       </c>
       <c r="H76" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="37"/>
         <v>"name_en":"bird"</v>
       </c>
       <c r="I76" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="38"/>
         <v>"img_src":""</v>
       </c>
       <c r="J76" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="39"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K76" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="40"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L76" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="41"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N76" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="42"/>
         <v>{"name_fr":"oiseau","name_en":"bird","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O76" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="35"/>
         <v>,</v>
       </c>
       <c r="Q76" s="3" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="43"/>
         <v>{"name_fr":"oiseau","name_en":"bird","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
@@ -4451,39 +4480,39 @@
         <v>110</v>
       </c>
       <c r="G77" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="36"/>
         <v>"name_fr":"Orque "</v>
       </c>
       <c r="H77" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="37"/>
         <v>"name_en":"orca"</v>
       </c>
       <c r="I77" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="38"/>
         <v>"img_src":""</v>
       </c>
       <c r="J77" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="39"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K77" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="40"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L77" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="41"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N77" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="42"/>
         <v>{"name_fr":"Orque ","name_en":"orca","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O77" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="35"/>
         <v>,</v>
       </c>
       <c r="Q77" s="3" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="43"/>
         <v>{"name_fr":"Orque ","name_en":"orca","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
@@ -4495,39 +4524,39 @@
         <v>16</v>
       </c>
       <c r="G78" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="36"/>
         <v>"name_fr":"ours"</v>
       </c>
       <c r="H78" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="37"/>
         <v>"name_en":"bear"</v>
       </c>
       <c r="I78" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="38"/>
         <v>"img_src":""</v>
       </c>
       <c r="J78" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="39"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K78" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="40"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L78" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="41"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N78" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="42"/>
         <v>{"name_fr":"ours","name_en":"bear","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O78" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="35"/>
         <v>,</v>
       </c>
       <c r="Q78" s="3" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="43"/>
         <v>{"name_fr":"ours","name_en":"bear","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
@@ -4539,39 +4568,39 @@
         <v>128</v>
       </c>
       <c r="G79" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="36"/>
         <v>"name_fr":"panda"</v>
       </c>
       <c r="H79" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="37"/>
         <v>"name_en":"panda"</v>
       </c>
       <c r="I79" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="38"/>
         <v>"img_src":""</v>
       </c>
       <c r="J79" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="39"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K79" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="40"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L79" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="41"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N79" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="42"/>
         <v>{"name_fr":"panda","name_en":"panda","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O79" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="35"/>
         <v>,</v>
       </c>
       <c r="Q79" s="3" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="43"/>
         <v>{"name_fr":"panda","name_en":"panda","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
@@ -4583,39 +4612,39 @@
         <v>89</v>
       </c>
       <c r="G80" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="36"/>
         <v>"name_fr":"Panthère "</v>
       </c>
       <c r="H80" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="37"/>
         <v>"name_en":"panther"</v>
       </c>
       <c r="I80" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="38"/>
         <v>"img_src":""</v>
       </c>
       <c r="J80" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="39"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K80" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="40"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L80" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="41"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N80" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="42"/>
         <v>{"name_fr":"Panthère ","name_en":"panther","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O80" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="35"/>
         <v>,</v>
       </c>
       <c r="Q80" s="3" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="43"/>
         <v>{"name_fr":"Panthère ","name_en":"panther","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
@@ -4627,39 +4656,39 @@
         <v>98</v>
       </c>
       <c r="G81" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="36"/>
         <v>"name_fr":"papillon"</v>
       </c>
       <c r="H81" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="37"/>
         <v>"name_en":"butterfly"</v>
       </c>
       <c r="I81" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="38"/>
         <v>"img_src":""</v>
       </c>
       <c r="J81" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="39"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K81" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="40"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L81" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="41"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N81" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="42"/>
         <v>{"name_fr":"papillon","name_en":"butterfly","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O81" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="35"/>
         <v>,</v>
       </c>
       <c r="Q81" s="3" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="43"/>
         <v>{"name_fr":"papillon","name_en":"butterfly","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
@@ -4671,39 +4700,39 @@
         <v>58</v>
       </c>
       <c r="G82" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="36"/>
         <v>"name_fr":"poisson"</v>
       </c>
       <c r="H82" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="37"/>
         <v>"name_en":"fish"</v>
       </c>
       <c r="I82" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="38"/>
         <v>"img_src":""</v>
       </c>
       <c r="J82" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="39"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K82" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="40"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L82" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="41"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N82" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="42"/>
         <v>{"name_fr":"poisson","name_en":"fish","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O82" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="35"/>
         <v>,</v>
       </c>
       <c r="Q82" s="3" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="43"/>
         <v>{"name_fr":"poisson","name_en":"fish","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
@@ -4715,39 +4744,39 @@
         <v>73</v>
       </c>
       <c r="G83" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="36"/>
         <v>"name_fr":"poule"</v>
       </c>
       <c r="H83" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="37"/>
         <v>"name_en":"chicken"</v>
       </c>
       <c r="I83" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="38"/>
         <v>"img_src":""</v>
       </c>
       <c r="J83" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="39"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K83" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="40"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L83" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="41"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N83" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="42"/>
         <v>{"name_fr":"poule","name_en":"chicken","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O83" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="35"/>
         <v>,</v>
       </c>
       <c r="Q83" s="3" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="43"/>
         <v>{"name_fr":"poule","name_en":"chicken","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
@@ -4759,39 +4788,39 @@
         <v>7</v>
       </c>
       <c r="G84" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="36"/>
         <v>"name_fr":"puce"</v>
       </c>
       <c r="H84" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="37"/>
         <v>"name_en":"flea"</v>
       </c>
       <c r="I84" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="38"/>
         <v>"img_src":""</v>
       </c>
       <c r="J84" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="39"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K84" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="40"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L84" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="41"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N84" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="42"/>
         <v>{"name_fr":"puce","name_en":"flea","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O84" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="35"/>
         <v>,</v>
       </c>
       <c r="Q84" s="3" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="43"/>
         <v>{"name_fr":"puce","name_en":"flea","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
@@ -4803,40 +4832,275 @@
         <v>50</v>
       </c>
       <c r="G85" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="36"/>
         <v>"name_fr":"raton"</v>
       </c>
       <c r="H85" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="37"/>
         <v>"name_en":"rat"</v>
       </c>
       <c r="I85" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="38"/>
         <v>"img_src":""</v>
       </c>
       <c r="J85" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="39"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K85" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="40"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L85" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="41"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N85" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="42"/>
         <v>{"name_fr":"raton","name_en":"rat","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O85" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="35"/>
         <v>,</v>
       </c>
       <c r="Q85" s="3" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="43"/>
         <v>{"name_fr":"raton","name_en":"rat","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>32</v>
+      </c>
+      <c r="B86" t="s">
+        <v>33</v>
+      </c>
+      <c r="G86" t="str">
+        <f t="shared" si="36"/>
+        <v>"name_fr":"serpent"</v>
+      </c>
+      <c r="H86" t="str">
+        <f t="shared" si="37"/>
+        <v>"name_en":"snake"</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="38"/>
+        <v>"img_src":""</v>
+      </c>
+      <c r="J86" t="str">
+        <f t="shared" si="39"/>
+        <v>"img_attribution":""</v>
+      </c>
+      <c r="K86" t="str">
+        <f t="shared" si="40"/>
+        <v>"desc_en":""</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="41"/>
+        <v>"desc_fr":""</v>
+      </c>
+      <c r="N86" t="str">
+        <f t="shared" si="42"/>
+        <v>{"name_fr":"serpent","name_en":"snake","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="35"/>
+        <v>,</v>
+      </c>
+      <c r="Q86" s="3" t="str">
+        <f t="shared" si="43"/>
+        <v>{"name_fr":"serpent","name_en":"snake","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>67</v>
+      </c>
+      <c r="B87" t="s">
+        <v>70</v>
+      </c>
+      <c r="E87" t="s">
+        <v>208</v>
+      </c>
+      <c r="G87" t="str">
+        <f t="shared" si="36"/>
+        <v>"name_fr":"Taureau "</v>
+      </c>
+      <c r="H87" t="str">
+        <f t="shared" si="37"/>
+        <v>"name_en":"bull"</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="38"/>
+        <v>"img_src":""</v>
+      </c>
+      <c r="J87" t="str">
+        <f t="shared" si="39"/>
+        <v>"img_attribution":""</v>
+      </c>
+      <c r="K87" t="str">
+        <f t="shared" si="40"/>
+        <v>"desc_en":"Spiralling in chaotic descent, this bull found a moment of clarity, and looked inward. He forgives."</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="41"/>
+        <v>"desc_fr":""</v>
+      </c>
+      <c r="N87" t="str">
+        <f t="shared" si="42"/>
+        <v>{"name_fr":"Taureau ","name_en":"bull","img_src":"","img_attribution":"","desc_en":"Spiralling in chaotic descent, this bull found a moment of clarity, and looked inward. He forgives.","desc_fr":""}</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="35"/>
+        <v>,</v>
+      </c>
+      <c r="Q87" s="3" t="str">
+        <f t="shared" si="43"/>
+        <v>{"name_fr":"Taureau ","name_en":"bull","img_src":"","img_attribution":"","desc_en":"Spiralling in chaotic descent, this bull found a moment of clarity, and looked inward. He forgives.","desc_fr":""},</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>79</v>
+      </c>
+      <c r="B88" t="s">
+        <v>87</v>
+      </c>
+      <c r="G88" t="str">
+        <f t="shared" si="36"/>
+        <v>"name_fr":"Tigre "</v>
+      </c>
+      <c r="H88" t="str">
+        <f t="shared" si="37"/>
+        <v>"name_en":"tiger"</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="38"/>
+        <v>"img_src":""</v>
+      </c>
+      <c r="J88" t="str">
+        <f t="shared" si="39"/>
+        <v>"img_attribution":""</v>
+      </c>
+      <c r="K88" t="str">
+        <f t="shared" si="40"/>
+        <v>"desc_en":""</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="41"/>
+        <v>"desc_fr":""</v>
+      </c>
+      <c r="N88" t="str">
+        <f t="shared" si="42"/>
+        <v>{"name_fr":"Tigre ","name_en":"tiger","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="35"/>
+        <v>,</v>
+      </c>
+      <c r="Q88" s="3" t="str">
+        <f t="shared" si="43"/>
+        <v>{"name_fr":"Tigre ","name_en":"tiger","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>124</v>
+      </c>
+      <c r="B89" t="s">
+        <v>125</v>
+      </c>
+      <c r="G89" t="str">
+        <f t="shared" si="36"/>
+        <v>"name_fr":"autruche"</v>
+      </c>
+      <c r="H89" t="str">
+        <f t="shared" si="37"/>
+        <v>"name_en":"ostrich"</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="38"/>
+        <v>"img_src":""</v>
+      </c>
+      <c r="J89" t="str">
+        <f t="shared" si="39"/>
+        <v>"img_attribution":""</v>
+      </c>
+      <c r="K89" t="str">
+        <f t="shared" si="40"/>
+        <v>"desc_en":""</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="41"/>
+        <v>"desc_fr":""</v>
+      </c>
+      <c r="N89" t="str">
+        <f t="shared" si="42"/>
+        <v>{"name_fr":"autruche","name_en":"ostrich","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="35"/>
+        <v>,</v>
+      </c>
+      <c r="Q89" s="3" t="str">
+        <f t="shared" si="43"/>
+        <v>{"name_fr":"autruche","name_en":"ostrich","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>34</v>
+      </c>
+      <c r="B90" t="s">
+        <v>35</v>
+      </c>
+      <c r="G90" t="str">
+        <f t="shared" si="36"/>
+        <v>"name_fr":"baleine"</v>
+      </c>
+      <c r="H90" t="str">
+        <f t="shared" si="37"/>
+        <v>"name_en":"whale"</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="38"/>
+        <v>"img_src":""</v>
+      </c>
+      <c r="J90" t="str">
+        <f t="shared" si="39"/>
+        <v>"img_attribution":""</v>
+      </c>
+      <c r="K90" t="str">
+        <f t="shared" si="40"/>
+        <v>"desc_en":""</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="41"/>
+        <v>"desc_fr":""</v>
+      </c>
+      <c r="N90" t="str">
+        <f t="shared" si="42"/>
+        <v>{"name_fr":"baleine","name_en":"whale","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="35"/>
+        <v>,</v>
+      </c>
+      <c r="Q90" s="3" t="str">
+        <f t="shared" si="43"/>
+        <v>{"name_fr":"baleine","name_en":"whale","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>212</v>
+      </c>
+      <c r="E91" t="s">
+        <v>213</v>
+      </c>
+      <c r="H91" t="str">
+        <f t="shared" si="37"/>
+        <v>"name_en":"hampster"</v>
       </c>
     </row>
   </sheetData>

--- a/les_animaux.xlsx
+++ b/les_animaux.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="244">
   <si>
     <t>requin</t>
   </si>
@@ -259,9 +259,6 @@
     <t>Lion </t>
   </si>
   <si>
-    <t>Zèbre </t>
-  </si>
-  <si>
     <t>Chameau </t>
   </si>
   <si>
@@ -616,9 +613,6 @@
     <t>This mouse is unaware that the interest rate has increased.</t>
   </si>
   <si>
-    <t>Cette souris a appris à faire des pâtes fraîches</t>
-  </si>
-  <si>
     <t>This worm has been divorced twice. His third marriage will be a success.</t>
   </si>
   <si>
@@ -631,9 +625,6 @@
     <t>has wisdom to share, but he will not</t>
   </si>
   <si>
-    <t>Ce cerf t'a regardé tout au long de la journée, mais de loin.</t>
-  </si>
-  <si>
     <t>Avec malveillance dans sa coeur, ce canard se prépare à se venger.</t>
   </si>
   <si>
@@ -658,9 +649,6 @@
     <t>This hamster has just been dumped. He drowns his sorrow in food.</t>
   </si>
   <si>
-    <t>This zebra has just gotten out of prison. He looks to start a new life.</t>
-  </si>
-  <si>
     <t xml:space="preserve">This squirrel thinks about his relationships, </t>
   </si>
   <si>
@@ -679,9 +667,6 @@
     <t>Photo by Ricky Kharawala on Unsplash</t>
   </si>
   <si>
-    <t>This mouse has learned to make fresh pasta. He is eager to share with his friends.</t>
-  </si>
-  <si>
     <t>goose</t>
   </si>
   <si>
@@ -724,9 +709,6 @@
     <t>His loan has been twice denied. How will he explain this to his business partners this time?</t>
   </si>
   <si>
-    <t>This deer has been watching you all morning, from afar.</t>
-  </si>
-  <si>
     <t>Ce singe examine son reflet. Il réfléchit à sa place dans le monde et s'engage à faire trouver un sens.</t>
   </si>
   <si>
@@ -734,6 +716,36 @@
   </si>
   <si>
     <t>La plupart des vaches ne peuvent pas effectuer une division longue. Mais cette vache sait bien qu'elle a été sous-estimée. Il faut se méfier.</t>
+  </si>
+  <si>
+    <t>Ce cerf t'observait au fil de la journée, de loin. Quelles sont ses intentions ?</t>
+  </si>
+  <si>
+    <t>This deer has been watching you all morning, from afar. What are her intentions?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This bison dreams to gore </t>
+  </si>
+  <si>
+    <t>This dog's ancestors were brave wolves.</t>
+  </si>
+  <si>
+    <t>This wolf laments over the decline of … what would his ancestors think ?</t>
+  </si>
+  <si>
+    <t>Ce zèbre vient de sortir de prison. Il veut une nouvelle vie, mais pour ça, il peut pas retourner dans sa ville natale. Il fait face à un choix difficile.</t>
+  </si>
+  <si>
+    <t>This zebra has just gotten out of prison. He wants a new life, but for that, he cannot return to ​his home town. He faces a tough choice.</t>
+  </si>
+  <si>
+    <t>zèbre </t>
+  </si>
+  <si>
+    <t>This mouse took a year off school to travel across Europe. There, he learned to make fresh pasta. He is eager to show his friends.</t>
+  </si>
+  <si>
+    <t>Cette souris a pris une année sabbatique pour voyager à travers l'Europe. Là, il a appris à faire des pâtes fraîches. Il a hâte de le montrer à ses amis.</t>
   </si>
 </sst>
 </file>
@@ -1133,10 +1145,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q91"/>
+  <dimension ref="A1:Q92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1145,8 +1157,8 @@
     <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43.6640625" customWidth="1"/>
-    <col min="5" max="5" width="104.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="86.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="112.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="122.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="53.77734375" bestFit="1" customWidth="1"/>
@@ -1167,16 +1179,16 @@
         <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E1" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>190</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>191</v>
       </c>
       <c r="G1" t="str">
         <f>CHAR(34) &amp; "name_fr" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;A1&amp;CHAR(34)</f>
@@ -1217,22 +1229,22 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>238</v>
+        <v>175</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>232</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G2" t="str">
         <f t="shared" ref="G2:G8" si="0">CHAR(34) &amp; "name_fr" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;A2&amp;CHAR(34)</f>
@@ -1279,16 +1291,16 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" t="s">
         <v>179</v>
       </c>
-      <c r="D3" t="s">
-        <v>180</v>
-      </c>
       <c r="E3" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>193</v>
+        <v>185</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" si="0"/>
@@ -1319,7 +1331,7 @@
         <v>{"name_fr":"araignee","name_en":"spider","img_src":"ed-van-duijn-UUdJ-0LQs0M-unsplash.jpg","img_attribution":"Photo by Ed van duijn on Unsplash","desc_en":"Despite his many legs, this spider pursues a career in ballet.","desc_fr":"Malgré ses nombreuses pattes, cette araignée considère une carrière dans le ballet."}</v>
       </c>
       <c r="O3" t="str">
-        <f t="shared" ref="O3:O25" si="8">","</f>
+        <f t="shared" ref="O3:O26" si="8">","</f>
         <v>,</v>
       </c>
       <c r="Q3" s="3" t="str">
@@ -1335,16 +1347,16 @@
         <v>49</v>
       </c>
       <c r="C4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D4" t="s">
         <v>182</v>
       </c>
-      <c r="D4" t="s">
-        <v>183</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>181</v>
+      <c r="E4" s="5" t="s">
+        <v>180</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
@@ -1391,16 +1403,16 @@
         <v>27</v>
       </c>
       <c r="C5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5" t="s">
         <v>184</v>
       </c>
-      <c r="D5" t="s">
-        <v>185</v>
-      </c>
       <c r="E5" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>197</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
@@ -1447,16 +1459,16 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D6" t="s">
-        <v>168</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>189</v>
+        <v>167</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>188</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
@@ -1503,16 +1515,16 @@
         <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D7" t="s">
-        <v>172</v>
-      </c>
-      <c r="E7" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>195</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
@@ -1559,16 +1571,16 @@
         <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D8" t="s">
-        <v>170</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>239</v>
+        <v>169</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>233</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
@@ -1615,51 +1627,51 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D9" t="s">
-        <v>217</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>237</v>
+        <v>213</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>231</v>
       </c>
       <c r="G9" t="str">
-        <f t="shared" ref="G9:G19" si="9">CHAR(34) &amp; "name_fr" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;A9&amp;CHAR(34)</f>
+        <f t="shared" ref="G9:G20" si="9">CHAR(34) &amp; "name_fr" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;A9&amp;CHAR(34)</f>
         <v>"name_fr":"singe"</v>
       </c>
       <c r="H9" t="str">
-        <f t="shared" ref="H9:H19" si="10">CHAR(34) &amp; "name_en" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;B9&amp;CHAR(34)</f>
+        <f t="shared" ref="H9:H20" si="10">CHAR(34) &amp; "name_en" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;B9&amp;CHAR(34)</f>
         <v>"name_en":"monkey"</v>
       </c>
       <c r="I9" t="str">
-        <f t="shared" ref="I9:I19" si="11">CHAR(34) &amp; "img_src" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;C9&amp;CHAR(34)</f>
+        <f t="shared" ref="I9:I20" si="11">CHAR(34) &amp; "img_src" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;C9&amp;CHAR(34)</f>
         <v>"img_src":"andre-mouton-GBEHjsPQbEQ-unsplash.jpg"</v>
       </c>
       <c r="J9" t="str">
-        <f t="shared" ref="J9:J19" si="12">CHAR(34) &amp; "img_attribution" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;D9&amp;CHAR(34)</f>
+        <f t="shared" ref="J9:J20" si="12">CHAR(34) &amp; "img_attribution" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;D9&amp;CHAR(34)</f>
         <v>"img_attribution":"Photo by Andre Mouton on Unsplash"</v>
       </c>
       <c r="K9" t="str">
-        <f t="shared" ref="K9:K19" si="13">CHAR(34) &amp; "desc_en" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;E9&amp;CHAR(34)</f>
+        <f t="shared" ref="K9:K20" si="13">CHAR(34) &amp; "desc_en" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;E9&amp;CHAR(34)</f>
         <v>"desc_en":"This monkey examines his reflection. He ponders his place in the world and resolves to find meaning."</v>
       </c>
       <c r="L9" t="str">
-        <f t="shared" ref="L9:L19" si="14">CHAR(34) &amp; "desc_fr" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;F9&amp;CHAR(34)</f>
+        <f t="shared" ref="L9:L20" si="14">CHAR(34) &amp; "desc_fr" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;F9&amp;CHAR(34)</f>
         <v>"desc_fr":"Ce singe examine son reflet. Il réfléchit à sa place dans le monde et s'engage à faire trouver un sens."</v>
       </c>
       <c r="N9" t="str">
-        <f t="shared" ref="N9:N19" si="15">"{" &amp; G9 &amp; "," &amp; H9 &amp; "," &amp; I9 &amp; "," &amp; J9 &amp; "," &amp; K9 &amp; "," &amp; L9 &amp; "}"</f>
+        <f t="shared" ref="N9:N20" si="15">"{" &amp; G9 &amp; "," &amp; H9 &amp; "," &amp; I9 &amp; "," &amp; J9 &amp; "," &amp; K9 &amp; "," &amp; L9 &amp; "}"</f>
         <v>{"name_fr":"singe","name_en":"monkey","img_src":"andre-mouton-GBEHjsPQbEQ-unsplash.jpg","img_attribution":"Photo by Andre Mouton on Unsplash","desc_en":"This monkey examines his reflection. He ponders his place in the world and resolves to find meaning.","desc_fr":"Ce singe examine son reflet. Il réfléchit à sa place dans le monde et s'engage à faire trouver un sens."}</v>
       </c>
       <c r="O9" t="str">
-        <f t="shared" ref="O9:O19" si="16">","</f>
+        <f t="shared" ref="O9:O20" si="16">","</f>
         <v>,</v>
       </c>
       <c r="Q9" s="3" t="str">
-        <f t="shared" ref="Q9:Q19" si="17">N9&amp;O9</f>
+        <f t="shared" ref="Q9:Q20" si="17">N9&amp;O9</f>
         <v>{"name_fr":"singe","name_en":"monkey","img_src":"andre-mouton-GBEHjsPQbEQ-unsplash.jpg","img_attribution":"Photo by Andre Mouton on Unsplash","desc_en":"This monkey examines his reflection. He ponders his place in the world and resolves to find meaning.","desc_fr":"Ce singe examine son reflet. Il réfléchit à sa place dans le monde et s'engage à faire trouver un sens."},</v>
       </c>
     </row>
@@ -1671,43 +1683,43 @@
         <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D10" t="s">
-        <v>230</v>
-      </c>
-      <c r="E10" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>206</v>
-      </c>
       <c r="G10" t="str">
-        <f t="shared" ref="G10" si="18">CHAR(34) &amp; "name_fr" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;A10&amp;CHAR(34)</f>
+        <f t="shared" ref="G10:G11" si="18">CHAR(34) &amp; "name_fr" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;A10&amp;CHAR(34)</f>
         <v>"name_fr":"canard"</v>
       </c>
       <c r="H10" t="str">
-        <f t="shared" ref="H10" si="19">CHAR(34) &amp; "name_en" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;B10&amp;CHAR(34)</f>
+        <f t="shared" ref="H10:H11" si="19">CHAR(34) &amp; "name_en" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;B10&amp;CHAR(34)</f>
         <v>"name_en":"duck"</v>
       </c>
       <c r="I10" t="str">
-        <f t="shared" ref="I10" si="20">CHAR(34) &amp; "img_src" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;C10&amp;CHAR(34)</f>
+        <f t="shared" ref="I10:I11" si="20">CHAR(34) &amp; "img_src" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;C10&amp;CHAR(34)</f>
         <v>"img_src":"fredrik-solli-wandem-WVcV-C0jELw-unsplash.jpg"</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" ref="J10" si="21">CHAR(34) &amp; "img_attribution" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;D10&amp;CHAR(34)</f>
+        <f t="shared" ref="J10:J11" si="21">CHAR(34) &amp; "img_attribution" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;D10&amp;CHAR(34)</f>
         <v>"img_attribution":"Photo by Fredrik Solli Wandem on Unsplash"</v>
       </c>
       <c r="K10" t="str">
-        <f t="shared" ref="K10" si="22">CHAR(34) &amp; "desc_en" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;E10&amp;CHAR(34)</f>
+        <f t="shared" ref="K10:K11" si="22">CHAR(34) &amp; "desc_en" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;E10&amp;CHAR(34)</f>
         <v>"desc_en":"With malice in his heart, this duck plots revenge"</v>
       </c>
       <c r="L10" t="str">
-        <f t="shared" ref="L10" si="23">CHAR(34) &amp; "desc_fr" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;F10&amp;CHAR(34)</f>
+        <f t="shared" ref="L10:L11" si="23">CHAR(34) &amp; "desc_fr" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;F10&amp;CHAR(34)</f>
         <v>"desc_fr":"Avec malveillance dans sa coeur, ce canard se prépare à se venger."</v>
       </c>
       <c r="N10" t="str">
-        <f t="shared" ref="N10" si="24">"{" &amp; G10 &amp; "," &amp; H10 &amp; "," &amp; I10 &amp; "," &amp; J10 &amp; "," &amp; K10 &amp; "," &amp; L10 &amp; "}"</f>
+        <f t="shared" ref="N10:N11" si="24">"{" &amp; G10 &amp; "," &amp; H10 &amp; "," &amp; I10 &amp; "," &amp; J10 &amp; "," &amp; K10 &amp; "," &amp; L10 &amp; "}"</f>
         <v>{"name_fr":"canard","name_en":"duck","img_src":"fredrik-solli-wandem-WVcV-C0jELw-unsplash.jpg","img_attribution":"Photo by Fredrik Solli Wandem on Unsplash","desc_en":"With malice in his heart, this duck plots revenge","desc_fr":"Avec malveillance dans sa coeur, ce canard se prépare à se venger."}</v>
       </c>
       <c r="O10" t="str">
@@ -1715,3391 +1727,3410 @@
         <v>,</v>
       </c>
       <c r="Q10" s="3" t="str">
-        <f t="shared" ref="Q10" si="25">N10&amp;O10</f>
+        <f t="shared" ref="Q10:Q11" si="25">N10&amp;O10</f>
         <v>{"name_fr":"canard","name_en":"duck","img_src":"fredrik-solli-wandem-WVcV-C0jELw-unsplash.jpg","img_attribution":"Photo by Fredrik Solli Wandem on Unsplash","desc_en":"With malice in his heart, this duck plots revenge","desc_fr":"Avec malveillance dans sa coeur, ce canard se prépare à se venger."},</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="Q11" s="3"/>
+      <c r="A11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" t="s">
+        <v>228</v>
+      </c>
+      <c r="D11" t="s">
+        <v>229</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="18"/>
+        <v>"name_fr":"cerf"</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="19"/>
+        <v>"name_en":"deer"</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="20"/>
+        <v>"img_src":"siska-vrijburg-AjyF1e_AGmc-unsplash.jpg"</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="21"/>
+        <v>"img_attribution":"Photo by Siska Vrijburg on Unsplash"</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="22"/>
+        <v>"desc_en":"This deer has been watching you all morning, from afar. What are her intentions?"</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="23"/>
+        <v>"desc_fr":"Ce cerf t'observait au fil de la journée, de loin. Quelles sont ses intentions ?"</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="24"/>
+        <v>{"name_fr":"cerf","name_en":"deer","img_src":"siska-vrijburg-AjyF1e_AGmc-unsplash.jpg","img_attribution":"Photo by Siska Vrijburg on Unsplash","desc_en":"This deer has been watching you all morning, from afar. What are her intentions?","desc_fr":"Ce cerf t'observait au fil de la journée, de loin. Quelles sont ses intentions ?"}</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="16"/>
+        <v>,</v>
+      </c>
+      <c r="Q11" s="3" t="str">
+        <f t="shared" si="25"/>
+        <v>{"name_fr":"cerf","name_en":"deer","img_src":"siska-vrijburg-AjyF1e_AGmc-unsplash.jpg","img_attribution":"Photo by Siska Vrijburg on Unsplash","desc_en":"This deer has been watching you all morning, from afar. What are her intentions?","desc_fr":"Ce cerf t'observait au fil de la journée, de loin. Quelles sont ses intentions ?"},</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>241</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="D12" t="s">
-        <v>220</v>
-      </c>
-      <c r="E12" t="s">
-        <v>221</v>
-      </c>
-      <c r="F12" t="s">
-        <v>200</v>
+        <v>227</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>239</v>
       </c>
       <c r="G12" t="str">
-        <f t="shared" si="9"/>
-        <v>"name_fr":"souris "</v>
+        <f>CHAR(34) &amp; "name_fr" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;A12&amp;CHAR(34)</f>
+        <v>"name_fr":"zèbre "</v>
       </c>
       <c r="H12" t="str">
-        <f t="shared" si="10"/>
-        <v>"name_en":"mouse"</v>
+        <f>CHAR(34) &amp; "name_en" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;B12&amp;CHAR(34)</f>
+        <v>"name_en":"zebra"</v>
       </c>
       <c r="I12" t="str">
-        <f t="shared" si="11"/>
-        <v>"img_src":"ricky-kharawala-adK3Vu70DEQ-unsplash.jpg"</v>
+        <f>CHAR(34) &amp; "img_src" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;C12&amp;CHAR(34)</f>
+        <v>"img_src":"ron-dauphin-k-8-eX4Y3no-unsplash.jpg"</v>
       </c>
       <c r="J12" t="str">
-        <f t="shared" si="12"/>
-        <v>"img_attribution":"Photo by Ricky Kharawala on Unsplash"</v>
+        <f>CHAR(34) &amp; "img_attribution" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;D12&amp;CHAR(34)</f>
+        <v>"img_attribution":"Photo by Ron Dauphin on Unsplash"</v>
       </c>
       <c r="K12" t="str">
-        <f t="shared" si="13"/>
-        <v>"desc_en":"This mouse has learned to make fresh pasta. He is eager to share with his friends."</v>
+        <f>CHAR(34) &amp; "desc_en" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;E12&amp;CHAR(34)</f>
+        <v>"desc_en":"This zebra has just gotten out of prison. He wants a new life, but for that, he cannot return to ​his home town. He faces a tough choice."</v>
       </c>
       <c r="L12" t="str">
-        <f t="shared" si="14"/>
-        <v>"desc_fr":"Cette souris a appris à faire des pâtes fraîches"</v>
+        <f>CHAR(34) &amp; "desc_fr" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;F12&amp;CHAR(34)</f>
+        <v>"desc_fr":"Ce zèbre vient de sortir de prison. Il veut une nouvelle vie, mais pour ça, il peut pas retourner dans sa ville natale. Il fait face à un choix difficile."</v>
       </c>
       <c r="N12" t="str">
-        <f t="shared" si="15"/>
-        <v>{"name_fr":"souris ","name_en":"mouse","img_src":"ricky-kharawala-adK3Vu70DEQ-unsplash.jpg","img_attribution":"Photo by Ricky Kharawala on Unsplash","desc_en":"This mouse has learned to make fresh pasta. He is eager to share with his friends.","desc_fr":"Cette souris a appris à faire des pâtes fraîches"}</v>
+        <f>"{" &amp; G12 &amp; "," &amp; H12 &amp; "," &amp; I12 &amp; "," &amp; J12 &amp; "," &amp; K12 &amp; "," &amp; L12 &amp; "}"</f>
+        <v>{"name_fr":"zèbre ","name_en":"zebra","img_src":"ron-dauphin-k-8-eX4Y3no-unsplash.jpg","img_attribution":"Photo by Ron Dauphin on Unsplash","desc_en":"This zebra has just gotten out of prison. He wants a new life, but for that, he cannot return to ​his home town. He faces a tough choice.","desc_fr":"Ce zèbre vient de sortir de prison. Il veut une nouvelle vie, mais pour ça, il peut pas retourner dans sa ville natale. Il fait face à un choix difficile."}</v>
       </c>
       <c r="O12" t="str">
         <f t="shared" si="16"/>
         <v>,</v>
       </c>
       <c r="Q12" s="3" t="str">
-        <f t="shared" si="17"/>
-        <v>{"name_fr":"souris ","name_en":"mouse","img_src":"ricky-kharawala-adK3Vu70DEQ-unsplash.jpg","img_attribution":"Photo by Ricky Kharawala on Unsplash","desc_en":"This mouse has learned to make fresh pasta. He is eager to share with his friends.","desc_fr":"Cette souris a appris à faire des pâtes fraîches"},</v>
+        <f>N12&amp;O12</f>
+        <v>{"name_fr":"zèbre ","name_en":"zebra","img_src":"ron-dauphin-k-8-eX4Y3no-unsplash.jpg","img_attribution":"Photo by Ron Dauphin on Unsplash","desc_en":"This zebra has just gotten out of prison. He wants a new life, but for that, he cannot return to ​his home town. He faces a tough choice.","desc_fr":"Ce zèbre vient de sortir de prison. Il veut une nouvelle vie, mais pour ça, il peut pas retourner dans sa ville natale. Il fait face à un choix difficile."},</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" t="s">
+        <v>215</v>
+      </c>
+      <c r="D13" t="s">
+        <v>216</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" ref="G13" si="26">CHAR(34) &amp; "name_fr" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;A13&amp;CHAR(34)</f>
+        <v>"name_fr":"souris "</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" ref="H13" si="27">CHAR(34) &amp; "name_en" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;B13&amp;CHAR(34)</f>
+        <v>"name_en":"mouse"</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" ref="I13" si="28">CHAR(34) &amp; "img_src" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;C13&amp;CHAR(34)</f>
+        <v>"img_src":"ricky-kharawala-adK3Vu70DEQ-unsplash.jpg"</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" ref="J13" si="29">CHAR(34) &amp; "img_attribution" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;D13&amp;CHAR(34)</f>
+        <v>"img_attribution":"Photo by Ricky Kharawala on Unsplash"</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" ref="K13" si="30">CHAR(34) &amp; "desc_en" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;E13&amp;CHAR(34)</f>
+        <v>"desc_en":"This mouse took a year off school to travel across Europe. There, he learned to make fresh pasta. He is eager to show his friends."</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" ref="L13" si="31">CHAR(34) &amp; "desc_fr" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;F13&amp;CHAR(34)</f>
+        <v>"desc_fr":"Cette souris a pris une année sabbatique pour voyager à travers l'Europe. Là, il a appris à faire des pâtes fraîches. Il a hâte de le montrer à ses amis."</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" ref="N13" si="32">"{" &amp; G13 &amp; "," &amp; H13 &amp; "," &amp; I13 &amp; "," &amp; J13 &amp; "," &amp; K13 &amp; "," &amp; L13 &amp; "}"</f>
+        <v>{"name_fr":"souris ","name_en":"mouse","img_src":"ricky-kharawala-adK3Vu70DEQ-unsplash.jpg","img_attribution":"Photo by Ricky Kharawala on Unsplash","desc_en":"This mouse took a year off school to travel across Europe. There, he learned to make fresh pasta. He is eager to show his friends.","desc_fr":"Cette souris a pris une année sabbatique pour voyager à travers l'Europe. Là, il a appris à faire des pâtes fraîches. Il a hâte de le montrer à ses amis."}</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="16"/>
+        <v>,</v>
+      </c>
+      <c r="Q13" s="3" t="str">
+        <f t="shared" ref="Q13" si="33">N13&amp;O13</f>
+        <v>{"name_fr":"souris ","name_en":"mouse","img_src":"ricky-kharawala-adK3Vu70DEQ-unsplash.jpg","img_attribution":"Photo by Ricky Kharawala on Unsplash","desc_en":"This mouse took a year off school to travel across Europe. There, he learned to make fresh pasta. He is eager to show his friends.","desc_fr":"Cette souris a pris une année sabbatique pour voyager à travers l'Europe. Là, il a appris à faire des pâtes fraîches. Il a hâte de le montrer à ses amis."},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q14" s="3"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q15" s="3"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" t="s">
         <v>114</v>
       </c>
-      <c r="B13" t="s">
-        <v>115</v>
-      </c>
-      <c r="C13" t="s">
-        <v>227</v>
-      </c>
-      <c r="D13" t="s">
-        <v>228</v>
-      </c>
-      <c r="E13" t="s">
-        <v>210</v>
-      </c>
-      <c r="G13" t="str">
+      <c r="C16" t="s">
+        <v>222</v>
+      </c>
+      <c r="D16" t="s">
+        <v>223</v>
+      </c>
+      <c r="E16" t="s">
+        <v>207</v>
+      </c>
+      <c r="G16" t="str">
         <f t="shared" si="9"/>
         <v>"name_fr":"saumon"</v>
       </c>
-      <c r="H13" t="str">
+      <c r="H16" t="str">
         <f t="shared" si="10"/>
         <v>"name_en":"salmon"</v>
       </c>
-      <c r="I13" t="str">
+      <c r="I16" t="str">
         <f t="shared" si="11"/>
         <v>"img_src":"brandon-enPHTN3OPRw-unsplash.jpg"</v>
       </c>
-      <c r="J13" t="str">
+      <c r="J16" t="str">
         <f t="shared" si="12"/>
         <v>"img_attribution":"Photo by Brandon on Unsplash"</v>
       </c>
-      <c r="K13" t="str">
+      <c r="K16" t="str">
         <f t="shared" si="13"/>
         <v>"desc_en":"The life of this salmon comes to an end, captured by a primate duo. Smiles fill the air, though not the salmons."</v>
       </c>
-      <c r="L13" t="str">
+      <c r="L16" t="str">
         <f t="shared" si="14"/>
         <v>"desc_fr":""</v>
       </c>
-      <c r="N13" t="str">
+      <c r="N16" t="str">
         <f t="shared" si="15"/>
         <v>{"name_fr":"saumon","name_en":"salmon","img_src":"brandon-enPHTN3OPRw-unsplash.jpg","img_attribution":"Photo by Brandon on Unsplash","desc_en":"The life of this salmon comes to an end, captured by a primate duo. Smiles fill the air, though not the salmons.","desc_fr":""}</v>
       </c>
-      <c r="O13" t="str">
+      <c r="O16" t="str">
         <f t="shared" si="16"/>
         <v>,</v>
       </c>
-      <c r="Q13" s="3" t="str">
+      <c r="Q16" s="3" t="str">
         <f t="shared" si="17"/>
         <v>{"name_fr":"saumon","name_en":"salmon","img_src":"brandon-enPHTN3OPRw-unsplash.jpg","img_attribution":"Photo by Brandon on Unsplash","desc_en":"The life of this salmon comes to an end, captured by a primate duo. Smiles fill the air, though not the salmons.","desc_fr":""},</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>117</v>
-      </c>
-      <c r="B14" t="s">
-        <v>118</v>
-      </c>
-      <c r="C14" t="s">
-        <v>233</v>
-      </c>
-      <c r="D14" t="s">
-        <v>234</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="F14" t="s">
-        <v>205</v>
-      </c>
-      <c r="G14" t="str">
-        <f t="shared" si="9"/>
-        <v>"name_fr":"cerf"</v>
-      </c>
-      <c r="H14" t="str">
-        <f t="shared" si="10"/>
-        <v>"name_en":"deer"</v>
-      </c>
-      <c r="I14" t="str">
-        <f t="shared" si="11"/>
-        <v>"img_src":"siska-vrijburg-AjyF1e_AGmc-unsplash.jpg"</v>
-      </c>
-      <c r="J14" t="str">
-        <f t="shared" si="12"/>
-        <v>"img_attribution":"Photo by Siska Vrijburg on Unsplash"</v>
-      </c>
-      <c r="K14" t="str">
-        <f t="shared" si="13"/>
-        <v>"desc_en":"This deer has been watching you all morning, from afar."</v>
-      </c>
-      <c r="L14" t="str">
-        <f t="shared" si="14"/>
-        <v>"desc_fr":"Ce cerf t'a regardé tout au long de la journée, mais de loin."</v>
-      </c>
-      <c r="N14" t="str">
-        <f t="shared" si="15"/>
-        <v>{"name_fr":"cerf","name_en":"deer","img_src":"siska-vrijburg-AjyF1e_AGmc-unsplash.jpg","img_attribution":"Photo by Siska Vrijburg on Unsplash","desc_en":"This deer has been watching you all morning, from afar.","desc_fr":"Ce cerf t'a regardé tout au long de la journée, mais de loin."}</v>
-      </c>
-      <c r="O14" t="str">
-        <f t="shared" si="16"/>
-        <v>,</v>
-      </c>
-      <c r="Q14" s="3" t="str">
-        <f t="shared" si="17"/>
-        <v>{"name_fr":"cerf","name_en":"deer","img_src":"siska-vrijburg-AjyF1e_AGmc-unsplash.jpg","img_attribution":"Photo by Siska Vrijburg on Unsplash","desc_en":"This deer has been watching you all morning, from afar.","desc_fr":"Ce cerf t'a regardé tout au long de la journée, mais de loin."},</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>81</v>
       </c>
-      <c r="B15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" t="s">
-        <v>231</v>
-      </c>
-      <c r="D15" t="s">
-        <v>232</v>
-      </c>
-      <c r="E15" t="s">
-        <v>214</v>
-      </c>
-      <c r="G15" t="str">
-        <f>CHAR(34) &amp; "name_fr" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;A15&amp;CHAR(34)</f>
-        <v>"name_fr":"Zèbre "</v>
-      </c>
-      <c r="H15" t="str">
-        <f>CHAR(34) &amp; "name_en" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;B15&amp;CHAR(34)</f>
-        <v>"name_en":"zebra"</v>
-      </c>
-      <c r="I15" t="str">
-        <f>CHAR(34) &amp; "img_src" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;C15&amp;CHAR(34)</f>
-        <v>"img_src":"ron-dauphin-k-8-eX4Y3no-unsplash.jpg"</v>
-      </c>
-      <c r="J15" t="str">
-        <f>CHAR(34) &amp; "img_attribution" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;D15&amp;CHAR(34)</f>
-        <v>"img_attribution":"Photo by Ron Dauphin on Unsplash"</v>
-      </c>
-      <c r="K15" t="str">
-        <f>CHAR(34) &amp; "desc_en" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;E15&amp;CHAR(34)</f>
-        <v>"desc_en":"This zebra has just gotten out of prison. He looks to start a new life."</v>
-      </c>
-      <c r="L15" t="str">
-        <f>CHAR(34) &amp; "desc_fr" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;F15&amp;CHAR(34)</f>
-        <v>"desc_fr":""</v>
-      </c>
-      <c r="N15" t="str">
-        <f>"{" &amp; G15 &amp; "," &amp; H15 &amp; "," &amp; I15 &amp; "," &amp; J15 &amp; "," &amp; K15 &amp; "," &amp; L15 &amp; "}"</f>
-        <v>{"name_fr":"Zèbre ","name_en":"zebra","img_src":"ron-dauphin-k-8-eX4Y3no-unsplash.jpg","img_attribution":"Photo by Ron Dauphin on Unsplash","desc_en":"This zebra has just gotten out of prison. He looks to start a new life.","desc_fr":""}</v>
-      </c>
-      <c r="O15" t="str">
-        <f t="shared" si="16"/>
-        <v>,</v>
-      </c>
-      <c r="Q15" s="3" t="str">
-        <f>N15&amp;O15</f>
-        <v>{"name_fr":"Zèbre ","name_en":"zebra","img_src":"ron-dauphin-k-8-eX4Y3no-unsplash.jpg","img_attribution":"Photo by Ron Dauphin on Unsplash","desc_en":"This zebra has just gotten out of prison. He looks to start a new life.","desc_fr":""},</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>82</v>
-      </c>
-      <c r="B16" t="s">
-        <v>84</v>
-      </c>
-      <c r="E16" t="s">
-        <v>198</v>
-      </c>
-      <c r="G16" t="str">
+      <c r="B17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" t="s">
+        <v>197</v>
+      </c>
+      <c r="G17" t="str">
         <f t="shared" si="9"/>
         <v>"name_fr":"Chameau "</v>
       </c>
-      <c r="H16" t="str">
+      <c r="H17" t="str">
         <f t="shared" si="10"/>
         <v>"name_en":"camel"</v>
       </c>
-      <c r="I16" t="str">
+      <c r="I17" t="str">
         <f t="shared" si="11"/>
         <v>"img_src":""</v>
       </c>
-      <c r="J16" t="str">
+      <c r="J17" t="str">
         <f t="shared" si="12"/>
         <v>"img_attribution":""</v>
       </c>
-      <c r="K16" t="str">
+      <c r="K17" t="str">
         <f t="shared" si="13"/>
         <v>"desc_en":"this camel has opened a dance club in London."</v>
       </c>
-      <c r="L16" t="str">
+      <c r="L17" t="str">
         <f t="shared" si="14"/>
         <v>"desc_fr":""</v>
       </c>
-      <c r="N16" t="str">
+      <c r="N17" t="str">
         <f t="shared" si="15"/>
         <v>{"name_fr":"Chameau ","name_en":"camel","img_src":"","img_attribution":"","desc_en":"this camel has opened a dance club in London.","desc_fr":""}</v>
       </c>
-      <c r="O16" t="str">
+      <c r="O17" t="str">
         <f t="shared" si="16"/>
         <v>,</v>
       </c>
-      <c r="Q16" s="3" t="str">
+      <c r="Q17" s="3" t="str">
         <f t="shared" si="17"/>
         <v>{"name_fr":"Chameau ","name_en":"camel","img_src":"","img_attribution":"","desc_en":"this camel has opened a dance club in London.","desc_fr":""},</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>22</v>
       </c>
-      <c r="E17" t="s">
-        <v>159</v>
-      </c>
-      <c r="G17" t="str">
+      <c r="E18" t="s">
+        <v>158</v>
+      </c>
+      <c r="G18" t="str">
         <f t="shared" si="9"/>
         <v>"name_fr":"chat"</v>
       </c>
-      <c r="H17" t="str">
+      <c r="H18" t="str">
         <f t="shared" si="10"/>
         <v>"name_en":"cat"</v>
       </c>
-      <c r="I17" t="str">
+      <c r="I18" t="str">
         <f t="shared" si="11"/>
         <v>"img_src":""</v>
       </c>
-      <c r="J17" t="str">
+      <c r="J18" t="str">
         <f t="shared" si="12"/>
         <v>"img_attribution":""</v>
       </c>
-      <c r="K17" t="str">
+      <c r="K18" t="str">
         <f t="shared" si="13"/>
         <v>"desc_en":"the cat thinks only of your demise"</v>
       </c>
-      <c r="L17" t="str">
+      <c r="L18" t="str">
         <f t="shared" si="14"/>
         <v>"desc_fr":""</v>
       </c>
-      <c r="N17" t="str">
+      <c r="N18" t="str">
         <f t="shared" si="15"/>
         <v>{"name_fr":"chat","name_en":"cat","img_src":"","img_attribution":"","desc_en":"the cat thinks only of your demise","desc_fr":""}</v>
       </c>
-      <c r="O17" t="str">
+      <c r="O18" t="str">
         <f t="shared" si="16"/>
         <v>,</v>
       </c>
-      <c r="Q17" s="3" t="str">
+      <c r="Q18" s="3" t="str">
         <f t="shared" si="17"/>
         <v>{"name_fr":"chat","name_en":"cat","img_src":"","img_attribution":"","desc_en":"the cat thinks only of your demise","desc_fr":""},</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>56</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>59</v>
       </c>
-      <c r="E18" t="s">
-        <v>160</v>
-      </c>
-      <c r="G18" t="str">
+      <c r="E19" t="s">
+        <v>159</v>
+      </c>
+      <c r="G19" t="str">
         <f t="shared" si="9"/>
         <v>"name_fr":"chauve souris"</v>
       </c>
-      <c r="H18" t="str">
+      <c r="H19" t="str">
         <f t="shared" si="10"/>
         <v>"name_en":"bat"</v>
       </c>
-      <c r="I18" t="str">
+      <c r="I19" t="str">
         <f t="shared" si="11"/>
         <v>"img_src":""</v>
       </c>
-      <c r="J18" t="str">
+      <c r="J19" t="str">
         <f t="shared" si="12"/>
         <v>"img_attribution":""</v>
       </c>
-      <c r="K18" t="str">
+      <c r="K19" t="str">
         <f t="shared" si="13"/>
         <v>"desc_en":"this bat extends the life of darkness"</v>
       </c>
-      <c r="L18" t="str">
+      <c r="L19" t="str">
         <f t="shared" si="14"/>
         <v>"desc_fr":""</v>
       </c>
-      <c r="N18" t="str">
+      <c r="N19" t="str">
         <f t="shared" si="15"/>
         <v>{"name_fr":"chauve souris","name_en":"bat","img_src":"","img_attribution":"","desc_en":"this bat extends the life of darkness","desc_fr":""}</v>
       </c>
-      <c r="O18" t="str">
+      <c r="O19" t="str">
         <f t="shared" si="16"/>
         <v>,</v>
       </c>
-      <c r="Q18" s="3" t="str">
+      <c r="Q19" s="3" t="str">
         <f t="shared" si="17"/>
         <v>{"name_fr":"chauve souris","name_en":"bat","img_src":"","img_attribution":"","desc_en":"this bat extends the life of darkness","desc_fr":""},</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>18</v>
       </c>
-      <c r="E19" t="s">
-        <v>202</v>
-      </c>
-      <c r="G19" t="str">
+      <c r="E20" t="s">
+        <v>200</v>
+      </c>
+      <c r="G20" t="str">
         <f t="shared" si="9"/>
         <v>"name_fr":"chimpanzee"</v>
       </c>
-      <c r="H19" t="str">
+      <c r="H20" t="str">
         <f t="shared" si="10"/>
         <v>"name_en":"chimp"</v>
       </c>
-      <c r="I19" t="str">
+      <c r="I20" t="str">
         <f t="shared" si="11"/>
         <v>"img_src":""</v>
       </c>
-      <c r="J19" t="str">
+      <c r="J20" t="str">
         <f t="shared" si="12"/>
         <v>"img_attribution":""</v>
       </c>
-      <c r="K19" t="str">
+      <c r="K20" t="str">
         <f t="shared" si="13"/>
         <v>"desc_en":"the chimpanzee goes fishing every Thursday with his neice. Last time, she caught a salmon."</v>
       </c>
-      <c r="L19" t="str">
+      <c r="L20" t="str">
         <f t="shared" si="14"/>
         <v>"desc_fr":""</v>
       </c>
-      <c r="N19" t="str">
+      <c r="N20" t="str">
         <f t="shared" si="15"/>
         <v>{"name_fr":"chimpanzee","name_en":"chimp","img_src":"","img_attribution":"","desc_en":"the chimpanzee goes fishing every Thursday with his neice. Last time, she caught a salmon.","desc_fr":""}</v>
       </c>
-      <c r="O19" t="str">
+      <c r="O20" t="str">
         <f t="shared" si="16"/>
         <v>,</v>
       </c>
-      <c r="Q19" s="3" t="str">
+      <c r="Q20" s="3" t="str">
         <f t="shared" si="17"/>
         <v>{"name_fr":"chimpanzee","name_en":"chimp","img_src":"","img_attribution":"","desc_en":"the chimpanzee goes fishing every Thursday with his neice. Last time, she caught a salmon.","desc_fr":""},</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" t="s">
         <v>100</v>
       </c>
-      <c r="B20" t="s">
-        <v>101</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="F20" t="s">
-        <v>207</v>
-      </c>
-      <c r="G20" t="str">
-        <f t="shared" ref="G20:G73" si="26">CHAR(34) &amp; "name_fr" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;A20&amp;CHAR(34)</f>
+      <c r="E21" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="F21" t="s">
+        <v>204</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" ref="G21:G74" si="34">CHAR(34) &amp; "name_fr" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;A21&amp;CHAR(34)</f>
         <v>"name_fr":"ver"</v>
       </c>
-      <c r="H20" t="str">
-        <f t="shared" ref="H20:H73" si="27">CHAR(34) &amp; "name_en" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;B20&amp;CHAR(34)</f>
+      <c r="H21" t="str">
+        <f t="shared" ref="H21:H74" si="35">CHAR(34) &amp; "name_en" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;B21&amp;CHAR(34)</f>
         <v>"name_en":"worm"</v>
       </c>
-      <c r="I20" t="str">
-        <f t="shared" ref="I20:I73" si="28">CHAR(34) &amp; "img_src" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;C20&amp;CHAR(34)</f>
-        <v>"img_src":""</v>
-      </c>
-      <c r="J20" t="str">
-        <f t="shared" ref="J20:J73" si="29">CHAR(34) &amp; "img_attribution" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;D20&amp;CHAR(34)</f>
-        <v>"img_attribution":""</v>
-      </c>
-      <c r="K20" t="str">
-        <f t="shared" ref="K20:K73" si="30">CHAR(34) &amp; "desc_en" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;E20&amp;CHAR(34)</f>
+      <c r="I21" t="str">
+        <f t="shared" ref="I21:I74" si="36">CHAR(34) &amp; "img_src" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;C21&amp;CHAR(34)</f>
+        <v>"img_src":""</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" ref="J21:J74" si="37">CHAR(34) &amp; "img_attribution" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;D21&amp;CHAR(34)</f>
+        <v>"img_attribution":""</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" ref="K21:K74" si="38">CHAR(34) &amp; "desc_en" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;E21&amp;CHAR(34)</f>
         <v>"desc_en":"This worm has been divorced twice. His third marriage will be a success."</v>
       </c>
-      <c r="L20" t="str">
-        <f t="shared" ref="L20:L73" si="31">CHAR(34) &amp; "desc_fr" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;F20&amp;CHAR(34)</f>
+      <c r="L21" t="str">
+        <f t="shared" ref="L21:L74" si="39">CHAR(34) &amp; "desc_fr" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;F21&amp;CHAR(34)</f>
         <v>"desc_fr":"Ce ver a divorcé deux fois. Son troisième mariage sera un succès."</v>
       </c>
-      <c r="N20" t="str">
-        <f t="shared" ref="N20:N73" si="32">"{" &amp; G20 &amp; "," &amp; H20 &amp; "," &amp; I20 &amp; "," &amp; J20 &amp; "," &amp; K20 &amp; "," &amp; L20 &amp; "}"</f>
+      <c r="N21" t="str">
+        <f t="shared" ref="N21:N74" si="40">"{" &amp; G21 &amp; "," &amp; H21 &amp; "," &amp; I21 &amp; "," &amp; J21 &amp; "," &amp; K21 &amp; "," &amp; L21 &amp; "}"</f>
         <v>{"name_fr":"ver","name_en":"worm","img_src":"","img_attribution":"","desc_en":"This worm has been divorced twice. His third marriage will be a success.","desc_fr":"Ce ver a divorcé deux fois. Son troisième mariage sera un succès."}</v>
       </c>
-      <c r="O20" t="str">
-        <f t="shared" ref="O20:O41" si="33">","</f>
-        <v>,</v>
-      </c>
-      <c r="Q20" s="3" t="str">
-        <f t="shared" ref="Q20:Q73" si="34">N20&amp;O20</f>
+      <c r="O21" t="str">
+        <f t="shared" ref="O21:O42" si="41">","</f>
+        <v>,</v>
+      </c>
+      <c r="Q21" s="3" t="str">
+        <f t="shared" ref="Q21:Q74" si="42">N21&amp;O21</f>
         <v>{"name_fr":"ver","name_en":"worm","img_src":"","img_attribution":"","desc_en":"This worm has been divorced twice. His third marriage will be a success.","desc_fr":"Ce ver a divorcé deux fois. Son troisième mariage sera un succès."},</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="Q21" s="3"/>
-    </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>237</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="38"/>
+        <v>"desc_en":"This dog's ancestors were brave wolves."</v>
+      </c>
       <c r="Q22" s="3"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="E23" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="Q23" s="3"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>222</v>
-      </c>
-      <c r="C24" t="s">
-        <v>223</v>
-      </c>
-      <c r="D24" t="s">
-        <v>224</v>
-      </c>
       <c r="E24" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="Q24" s="3"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
+        <v>217</v>
+      </c>
+      <c r="C25" t="s">
+        <v>218</v>
+      </c>
+      <c r="D25" t="s">
+        <v>219</v>
+      </c>
+      <c r="E25" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q25" s="3"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>68</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>69</v>
       </c>
-      <c r="G25" t="str">
-        <f>CHAR(34) &amp; "name_fr" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;A25&amp;CHAR(34)</f>
+      <c r="E26" t="s">
+        <v>238</v>
+      </c>
+      <c r="G26" t="str">
+        <f>CHAR(34) &amp; "name_fr" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;A26&amp;CHAR(34)</f>
         <v>"name_fr":"Veau "</v>
       </c>
-      <c r="H25" t="str">
-        <f>CHAR(34) &amp; "name_en" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;B25&amp;CHAR(34)</f>
+      <c r="H26" t="str">
+        <f>CHAR(34) &amp; "name_en" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;B26&amp;CHAR(34)</f>
         <v>"name_en":"calf"</v>
       </c>
-      <c r="I25" t="str">
-        <f>CHAR(34) &amp; "img_src" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;C25&amp;CHAR(34)</f>
-        <v>"img_src":""</v>
-      </c>
-      <c r="J25" t="str">
-        <f>CHAR(34) &amp; "img_attribution" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;D25&amp;CHAR(34)</f>
-        <v>"img_attribution":""</v>
-      </c>
-      <c r="K25" t="str">
-        <f>CHAR(34) &amp; "desc_en" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;E25&amp;CHAR(34)</f>
-        <v>"desc_en":""</v>
-      </c>
-      <c r="L25" t="str">
-        <f>CHAR(34) &amp; "desc_fr" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;F25&amp;CHAR(34)</f>
-        <v>"desc_fr":""</v>
-      </c>
-      <c r="N25" t="str">
-        <f>"{" &amp; G25 &amp; "," &amp; H25 &amp; "," &amp; I25 &amp; "," &amp; J25 &amp; "," &amp; K25 &amp; "," &amp; L25 &amp; "}"</f>
-        <v>{"name_fr":"Veau ","name_en":"calf","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
-      </c>
-      <c r="O25" t="str">
+      <c r="I26" t="str">
+        <f>CHAR(34) &amp; "img_src" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;C26&amp;CHAR(34)</f>
+        <v>"img_src":""</v>
+      </c>
+      <c r="J26" t="str">
+        <f>CHAR(34) &amp; "img_attribution" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;D26&amp;CHAR(34)</f>
+        <v>"img_attribution":""</v>
+      </c>
+      <c r="K26" t="str">
+        <f>CHAR(34) &amp; "desc_en" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;E26&amp;CHAR(34)</f>
+        <v>"desc_en":"This wolf laments over the decline of … what would his ancestors think ?"</v>
+      </c>
+      <c r="L26" t="str">
+        <f>CHAR(34) &amp; "desc_fr" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;F26&amp;CHAR(34)</f>
+        <v>"desc_fr":""</v>
+      </c>
+      <c r="N26" t="str">
+        <f>"{" &amp; G26 &amp; "," &amp; H26 &amp; "," &amp; I26 &amp; "," &amp; J26 &amp; "," &amp; K26 &amp; "," &amp; L26 &amp; "}"</f>
+        <v>{"name_fr":"Veau ","name_en":"calf","img_src":"","img_attribution":"","desc_en":"This wolf laments over the decline of … what would his ancestors think ?","desc_fr":""}</v>
+      </c>
+      <c r="O26" t="str">
         <f t="shared" si="8"/>
         <v>,</v>
       </c>
-      <c r="Q25" s="3" t="str">
-        <f>N25&amp;O25</f>
-        <v>{"name_fr":"Veau ","name_en":"calf","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>135</v>
-      </c>
-      <c r="B27" t="s">
-        <v>133</v>
-      </c>
-      <c r="E27" t="s">
-        <v>226</v>
-      </c>
-      <c r="G27" t="str">
-        <f t="shared" si="26"/>
-        <v>"name_fr":"bouquetin"</v>
-      </c>
-      <c r="H27" t="str">
-        <f t="shared" si="27"/>
-        <v>"name_en":"ibex"</v>
-      </c>
-      <c r="I27" t="str">
-        <f t="shared" si="28"/>
-        <v>"img_src":""</v>
-      </c>
-      <c r="J27" t="str">
-        <f t="shared" si="29"/>
-        <v>"img_attribution":""</v>
-      </c>
-      <c r="K27" t="str">
-        <f t="shared" si="30"/>
-        <v>"desc_en":"They have been discussing you."</v>
-      </c>
-      <c r="L27" t="str">
-        <f t="shared" si="31"/>
-        <v>"desc_fr":""</v>
-      </c>
-      <c r="N27" t="str">
-        <f t="shared" si="32"/>
-        <v>{"name_fr":"bouquetin","name_en":"ibex","img_src":"","img_attribution":"","desc_en":"They have been discussing you.","desc_fr":""}</v>
-      </c>
-      <c r="O27" t="str">
-        <f t="shared" si="33"/>
-        <v>,</v>
-      </c>
-      <c r="Q27" s="3" t="str">
-        <f t="shared" si="34"/>
-        <v>{"name_fr":"bouquetin","name_en":"ibex","img_src":"","img_attribution":"","desc_en":"They have been discussing you.","desc_fr":""},</v>
+      <c r="Q26" s="3" t="str">
+        <f>N26&amp;O26</f>
+        <v>{"name_fr":"Veau ","name_en":"calf","img_src":"","img_attribution":"","desc_en":"This wolf laments over the decline of … what would his ancestors think ?","desc_fr":""},</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B28" t="s">
-        <v>134</v>
+        <v>132</v>
+      </c>
+      <c r="E28" t="s">
+        <v>221</v>
       </c>
       <c r="G28" t="str">
-        <f t="shared" si="26"/>
-        <v>"name_fr":"nandou"</v>
+        <f t="shared" si="34"/>
+        <v>"name_fr":"bouquetin"</v>
       </c>
       <c r="H28" t="str">
-        <f t="shared" si="27"/>
-        <v>"name_en":"rhea"</v>
+        <f t="shared" si="35"/>
+        <v>"name_en":"ibex"</v>
       </c>
       <c r="I28" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>"img_src":""</v>
       </c>
       <c r="J28" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K28" t="str">
-        <f t="shared" si="30"/>
-        <v>"desc_en":""</v>
+        <f t="shared" si="38"/>
+        <v>"desc_en":"They have been discussing you."</v>
       </c>
       <c r="L28" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N28" t="str">
-        <f t="shared" si="32"/>
-        <v>{"name_fr":"nandou","name_en":"rhea","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="40"/>
+        <v>{"name_fr":"bouquetin","name_en":"ibex","img_src":"","img_attribution":"","desc_en":"They have been discussing you.","desc_fr":""}</v>
       </c>
       <c r="O28" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>,</v>
       </c>
       <c r="Q28" s="3" t="str">
-        <f t="shared" si="34"/>
-        <v>{"name_fr":"nandou","name_en":"rhea","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="42"/>
+        <v>{"name_fr":"bouquetin","name_en":"ibex","img_src":"","img_attribution":"","desc_en":"They have been discussing you.","desc_fr":""},</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B29" t="s">
-        <v>137</v>
-      </c>
-      <c r="E29" t="s">
-        <v>199</v>
+        <v>133</v>
       </c>
       <c r="G29" t="str">
-        <f t="shared" si="26"/>
-        <v>"name_fr":"orang-outang"</v>
+        <f t="shared" si="34"/>
+        <v>"name_fr":"nandou"</v>
       </c>
       <c r="H29" t="str">
-        <f t="shared" si="27"/>
-        <v>"name_en":"orangutan"</v>
+        <f t="shared" si="35"/>
+        <v>"name_en":"rhea"</v>
       </c>
       <c r="I29" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>"img_src":""</v>
       </c>
       <c r="J29" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K29" t="str">
-        <f t="shared" si="30"/>
-        <v>"desc_en":"This mouse is unaware that the interest rate has increased."</v>
+        <f t="shared" si="38"/>
+        <v>"desc_en":""</v>
       </c>
       <c r="L29" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N29" t="str">
-        <f t="shared" si="32"/>
-        <v>{"name_fr":"orang-outang","name_en":"orangutan","img_src":"","img_attribution":"","desc_en":"This mouse is unaware that the interest rate has increased.","desc_fr":""}</v>
+        <f t="shared" si="40"/>
+        <v>{"name_fr":"nandou","name_en":"rhea","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O29" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>,</v>
       </c>
       <c r="Q29" s="3" t="str">
-        <f t="shared" si="34"/>
-        <v>{"name_fr":"orang-outang","name_en":"orangutan","img_src":"","img_attribution":"","desc_en":"This mouse is unaware that the interest rate has increased.","desc_fr":""},</v>
+        <f t="shared" si="42"/>
+        <v>{"name_fr":"nandou","name_en":"rhea","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="B30" t="s">
+        <v>136</v>
+      </c>
+      <c r="E30" t="s">
+        <v>198</v>
       </c>
       <c r="G30" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
+        <v>"name_fr":"orang-outang"</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="35"/>
+        <v>"name_en":"orangutan"</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="36"/>
+        <v>"img_src":""</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="37"/>
+        <v>"img_attribution":""</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="38"/>
+        <v>"desc_en":"This mouse is unaware that the interest rate has increased."</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="39"/>
+        <v>"desc_fr":""</v>
+      </c>
+      <c r="N30" t="str">
+        <f t="shared" si="40"/>
+        <v>{"name_fr":"orang-outang","name_en":"orangutan","img_src":"","img_attribution":"","desc_en":"This mouse is unaware that the interest rate has increased.","desc_fr":""}</v>
+      </c>
+      <c r="O30" t="str">
+        <f t="shared" si="41"/>
+        <v>,</v>
+      </c>
+      <c r="Q30" s="3" t="str">
+        <f t="shared" si="42"/>
+        <v>{"name_fr":"orang-outang","name_en":"orangutan","img_src":"","img_attribution":"","desc_en":"This mouse is unaware that the interest rate has increased.","desc_fr":""},</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>138</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="34"/>
         <v>"name_fr":"wapati"</v>
       </c>
-      <c r="H30" t="str">
-        <f t="shared" si="27"/>
+      <c r="H31" t="str">
+        <f t="shared" si="35"/>
         <v>"name_en":""</v>
       </c>
-      <c r="I30" t="str">
-        <f t="shared" si="28"/>
-        <v>"img_src":""</v>
-      </c>
-      <c r="J30" t="str">
-        <f t="shared" si="29"/>
-        <v>"img_attribution":""</v>
-      </c>
-      <c r="K30" t="str">
-        <f t="shared" si="30"/>
-        <v>"desc_en":""</v>
-      </c>
-      <c r="L30" t="str">
-        <f t="shared" si="31"/>
-        <v>"desc_fr":""</v>
-      </c>
-      <c r="N30" t="str">
-        <f t="shared" si="32"/>
+      <c r="I31" t="str">
+        <f t="shared" si="36"/>
+        <v>"img_src":""</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="37"/>
+        <v>"img_attribution":""</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="38"/>
+        <v>"desc_en":""</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="39"/>
+        <v>"desc_fr":""</v>
+      </c>
+      <c r="N31" t="str">
+        <f t="shared" si="40"/>
         <v>{"name_fr":"wapati","name_en":"","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
-      <c r="O30" t="str">
-        <f t="shared" si="33"/>
-        <v>,</v>
-      </c>
-      <c r="Q30" s="3" t="str">
-        <f t="shared" si="34"/>
+      <c r="O31" t="str">
+        <f t="shared" si="41"/>
+        <v>,</v>
+      </c>
+      <c r="Q31" s="3" t="str">
+        <f t="shared" si="42"/>
         <v>{"name_fr":"wapati","name_en":"","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E31" t="s">
-        <v>235</v>
-      </c>
-      <c r="G31" t="str">
-        <f t="shared" si="26"/>
-        <v>"name_fr":"urubu"</v>
-      </c>
-      <c r="H31" t="str">
-        <f t="shared" si="27"/>
-        <v>"name_en":"vulture"</v>
-      </c>
-      <c r="I31" t="str">
-        <f t="shared" si="28"/>
-        <v>"img_src":""</v>
-      </c>
-      <c r="J31" t="str">
-        <f t="shared" si="29"/>
-        <v>"img_attribution":""</v>
-      </c>
-      <c r="K31" t="str">
-        <f t="shared" si="30"/>
-        <v>"desc_en":"His loan has been twice denied. How will he explain this to his business partners this time?"</v>
-      </c>
-      <c r="L31" t="str">
-        <f t="shared" si="31"/>
-        <v>"desc_fr":""</v>
-      </c>
-      <c r="N31" t="str">
-        <f t="shared" si="32"/>
-        <v>{"name_fr":"urubu","name_en":"vulture","img_src":"","img_attribution":"","desc_en":"His loan has been twice denied. How will he explain this to his business partners this time?","desc_fr":""}</v>
-      </c>
-      <c r="O31" t="str">
-        <f t="shared" si="33"/>
-        <v>,</v>
-      </c>
-      <c r="Q31" s="3" t="str">
-        <f t="shared" si="34"/>
-        <v>{"name_fr":"urubu","name_en":"vulture","img_src":"","img_attribution":"","desc_en":"His loan has been twice denied. How will he explain this to his business partners this time?","desc_fr":""},</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E32" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="G32" t="str">
-        <f t="shared" si="26"/>
-        <v>"name_fr":"xerus"</v>
+        <f t="shared" si="34"/>
+        <v>"name_fr":"urubu"</v>
       </c>
       <c r="H32" t="str">
-        <f t="shared" si="27"/>
-        <v>"name_en":"squirrel"</v>
+        <f t="shared" si="35"/>
+        <v>"name_en":"vulture"</v>
       </c>
       <c r="I32" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>"img_src":""</v>
       </c>
       <c r="J32" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K32" t="str">
-        <f t="shared" si="30"/>
-        <v>"desc_en":"This squirrel thinks about his relationships, "</v>
+        <f t="shared" si="38"/>
+        <v>"desc_en":"His loan has been twice denied. How will he explain this to his business partners this time?"</v>
       </c>
       <c r="L32" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N32" t="str">
-        <f t="shared" si="32"/>
-        <v>{"name_fr":"xerus","name_en":"squirrel","img_src":"","img_attribution":"","desc_en":"This squirrel thinks about his relationships, ","desc_fr":""}</v>
+        <f t="shared" si="40"/>
+        <v>{"name_fr":"urubu","name_en":"vulture","img_src":"","img_attribution":"","desc_en":"His loan has been twice denied. How will he explain this to his business partners this time?","desc_fr":""}</v>
       </c>
       <c r="O32" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>,</v>
       </c>
       <c r="Q32" s="3" t="str">
-        <f t="shared" si="34"/>
-        <v>{"name_fr":"xerus","name_en":"squirrel","img_src":"","img_attribution":"","desc_en":"This squirrel thinks about his relationships, ","desc_fr":""},</v>
+        <f t="shared" si="42"/>
+        <v>{"name_fr":"urubu","name_en":"vulture","img_src":"","img_attribution":"","desc_en":"His loan has been twice denied. How will he explain this to his business partners this time?","desc_fr":""},</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
+      </c>
+      <c r="E33" t="s">
+        <v>211</v>
       </c>
       <c r="G33" t="str">
-        <f t="shared" si="26"/>
-        <v>"name_fr":"yak"</v>
+        <f t="shared" si="34"/>
+        <v>"name_fr":"xerus"</v>
       </c>
       <c r="H33" t="str">
-        <f t="shared" si="27"/>
-        <v>"name_en":"yak"</v>
+        <f t="shared" si="35"/>
+        <v>"name_en":"squirrel"</v>
       </c>
       <c r="I33" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>"img_src":""</v>
       </c>
       <c r="J33" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K33" t="str">
-        <f t="shared" si="30"/>
-        <v>"desc_en":""</v>
+        <f t="shared" si="38"/>
+        <v>"desc_en":"This squirrel thinks about his relationships, "</v>
       </c>
       <c r="L33" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N33" t="str">
-        <f t="shared" si="32"/>
-        <v>{"name_fr":"yak","name_en":"yak","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="40"/>
+        <v>{"name_fr":"xerus","name_en":"squirrel","img_src":"","img_attribution":"","desc_en":"This squirrel thinks about his relationships, ","desc_fr":""}</v>
       </c>
       <c r="O33" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>,</v>
       </c>
       <c r="Q33" s="3" t="str">
-        <f t="shared" si="34"/>
-        <v>{"name_fr":"yak","name_en":"yak","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="42"/>
+        <v>{"name_fr":"xerus","name_en":"squirrel","img_src":"","img_attribution":"","desc_en":"This squirrel thinks about his relationships, ","desc_fr":""},</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G34" t="str">
-        <f t="shared" si="26"/>
-        <v>"name_fr":"koala"</v>
+        <f t="shared" si="34"/>
+        <v>"name_fr":"yak"</v>
       </c>
       <c r="H34" t="str">
-        <f t="shared" si="27"/>
-        <v>"name_en":"koala"</v>
+        <f t="shared" si="35"/>
+        <v>"name_en":"yak"</v>
       </c>
       <c r="I34" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>"img_src":""</v>
       </c>
       <c r="J34" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K34" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L34" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N34" t="str">
-        <f t="shared" si="32"/>
-        <v>{"name_fr":"koala","name_en":"koala","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="40"/>
+        <v>{"name_fr":"yak","name_en":"yak","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O34" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>,</v>
       </c>
       <c r="Q34" s="3" t="str">
-        <f t="shared" si="34"/>
-        <v>{"name_fr":"koala","name_en":"koala","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="42"/>
+        <v>{"name_fr":"yak","name_en":"yak","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G35" t="str">
-        <f t="shared" si="26"/>
-        <v>"name_fr":"frelon"</v>
+        <f t="shared" si="34"/>
+        <v>"name_fr":"koala"</v>
       </c>
       <c r="H35" t="str">
-        <f t="shared" si="27"/>
-        <v>"name_en":"hornet"</v>
+        <f t="shared" si="35"/>
+        <v>"name_en":"koala"</v>
       </c>
       <c r="I35" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>"img_src":""</v>
       </c>
       <c r="J35" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K35" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L35" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N35" t="str">
-        <f t="shared" si="32"/>
-        <v>{"name_fr":"frelon","name_en":"hornet","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="40"/>
+        <v>{"name_fr":"koala","name_en":"koala","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O35" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>,</v>
       </c>
       <c r="Q35" s="3" t="str">
-        <f t="shared" si="34"/>
-        <v>{"name_fr":"frelon","name_en":"hornet","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="42"/>
+        <v>{"name_fr":"koala","name_en":"koala","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="G36" t="str">
-        <f t="shared" si="26"/>
-        <v>"name_fr":"tigresse"</v>
+        <f t="shared" si="34"/>
+        <v>"name_fr":"frelon"</v>
       </c>
       <c r="H36" t="str">
-        <f t="shared" si="27"/>
-        <v>"name_en":"tigress"</v>
+        <f t="shared" si="35"/>
+        <v>"name_en":"hornet"</v>
       </c>
       <c r="I36" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>"img_src":""</v>
       </c>
       <c r="J36" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K36" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L36" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N36" t="str">
-        <f t="shared" si="32"/>
-        <v>{"name_fr":"tigresse","name_en":"tigress","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="40"/>
+        <v>{"name_fr":"frelon","name_en":"hornet","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O36" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>,</v>
       </c>
       <c r="Q36" s="3" t="str">
-        <f t="shared" si="34"/>
-        <v>{"name_fr":"tigresse","name_en":"tigress","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="42"/>
+        <v>{"name_fr":"frelon","name_en":"hornet","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G37" t="str">
-        <f t="shared" si="26"/>
-        <v>"name_fr":"lionesse"</v>
+        <f t="shared" si="34"/>
+        <v>"name_fr":"tigresse"</v>
       </c>
       <c r="H37" t="str">
-        <f t="shared" si="27"/>
-        <v>"name_en":"lioness"</v>
+        <f t="shared" si="35"/>
+        <v>"name_en":"tigress"</v>
       </c>
       <c r="I37" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>"img_src":""</v>
       </c>
       <c r="J37" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K37" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L37" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N37" t="str">
-        <f t="shared" si="32"/>
-        <v>{"name_fr":"lionesse","name_en":"lioness","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="40"/>
+        <v>{"name_fr":"tigresse","name_en":"tigress","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O37" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>,</v>
       </c>
       <c r="Q37" s="3" t="str">
-        <f t="shared" si="34"/>
-        <v>{"name_fr":"lionesse","name_en":"lioness","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="42"/>
+        <v>{"name_fr":"tigresse","name_en":"tigress","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="G38" t="str">
-        <f t="shared" si="26"/>
-        <v>"name_fr":"termite"</v>
+        <f t="shared" si="34"/>
+        <v>"name_fr":"lionesse"</v>
       </c>
       <c r="H38" t="str">
-        <f t="shared" si="27"/>
-        <v>"name_en":"termite"</v>
+        <f t="shared" si="35"/>
+        <v>"name_en":"lioness"</v>
       </c>
       <c r="I38" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>"img_src":""</v>
       </c>
       <c r="J38" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K38" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L38" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N38" t="str">
-        <f t="shared" si="32"/>
-        <v>{"name_fr":"termite","name_en":"termite","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="40"/>
+        <v>{"name_fr":"lionesse","name_en":"lioness","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O38" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>,</v>
       </c>
       <c r="Q38" s="3" t="str">
-        <f t="shared" si="34"/>
-        <v>{"name_fr":"termite","name_en":"termite","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="42"/>
+        <v>{"name_fr":"lionesse","name_en":"lioness","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B39" t="s">
-        <v>152</v>
+        <v>149</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="G39" t="str">
-        <f t="shared" si="26"/>
-        <v>"name_fr":"thon"</v>
+        <f t="shared" si="34"/>
+        <v>"name_fr":"termite"</v>
       </c>
       <c r="H39" t="str">
-        <f t="shared" si="27"/>
-        <v>"name_en":"tuna"</v>
+        <f t="shared" si="35"/>
+        <v>"name_en":"termite"</v>
       </c>
       <c r="I39" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>"img_src":""</v>
       </c>
       <c r="J39" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K39" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L39" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N39" t="str">
-        <f t="shared" si="32"/>
-        <v>{"name_fr":"thon","name_en":"tuna","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="40"/>
+        <v>{"name_fr":"termite","name_en":"termite","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O39" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>,</v>
       </c>
       <c r="Q39" s="3" t="str">
-        <f t="shared" si="34"/>
-        <v>{"name_fr":"thon","name_en":"tuna","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="42"/>
+        <v>{"name_fr":"termite","name_en":"termite","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B40" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G40" t="str">
-        <f t="shared" si="26"/>
-        <v>"name_fr":"truite"</v>
+        <f t="shared" si="34"/>
+        <v>"name_fr":"thon"</v>
       </c>
       <c r="H40" t="str">
-        <f t="shared" si="27"/>
-        <v>"name_en":"trout"</v>
+        <f t="shared" si="35"/>
+        <v>"name_en":"tuna"</v>
       </c>
       <c r="I40" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>"img_src":""</v>
       </c>
       <c r="J40" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K40" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L40" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N40" t="str">
-        <f t="shared" si="32"/>
-        <v>{"name_fr":"truite","name_en":"trout","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="40"/>
+        <v>{"name_fr":"thon","name_en":"tuna","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O40" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>,</v>
       </c>
       <c r="Q40" s="3" t="str">
-        <f t="shared" si="34"/>
-        <v>{"name_fr":"truite","name_en":"trout","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="42"/>
+        <v>{"name_fr":"thon","name_en":"tuna","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B41" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G41" t="str">
-        <f t="shared" si="26"/>
-        <v>"name_fr":"loutre"</v>
+        <f t="shared" si="34"/>
+        <v>"name_fr":"truite"</v>
       </c>
       <c r="H41" t="str">
-        <f t="shared" si="27"/>
-        <v>"name_en":"otter"</v>
+        <f t="shared" si="35"/>
+        <v>"name_en":"trout"</v>
       </c>
       <c r="I41" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>"img_src":""</v>
       </c>
       <c r="J41" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K41" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L41" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N41" t="str">
-        <f t="shared" si="32"/>
-        <v>{"name_fr":"loutre","name_en":"otter","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="40"/>
+        <v>{"name_fr":"truite","name_en":"trout","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O41" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>,</v>
       </c>
       <c r="Q41" s="3" t="str">
-        <f t="shared" si="34"/>
-        <v>{"name_fr":"loutre","name_en":"otter","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="42"/>
+        <v>{"name_fr":"truite","name_en":"trout","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B42" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="G42" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
+        <v>"name_fr":"loutre"</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="35"/>
+        <v>"name_en":"otter"</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="36"/>
+        <v>"img_src":""</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" si="37"/>
+        <v>"img_attribution":""</v>
+      </c>
+      <c r="K42" t="str">
+        <f t="shared" si="38"/>
+        <v>"desc_en":""</v>
+      </c>
+      <c r="L42" t="str">
+        <f t="shared" si="39"/>
+        <v>"desc_fr":""</v>
+      </c>
+      <c r="N42" t="str">
+        <f t="shared" si="40"/>
+        <v>{"name_fr":"loutre","name_en":"otter","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+      </c>
+      <c r="O42" t="str">
+        <f t="shared" si="41"/>
+        <v>,</v>
+      </c>
+      <c r="Q42" s="3" t="str">
+        <f t="shared" si="42"/>
+        <v>{"name_fr":"loutre","name_en":"otter","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B43" t="s">
+        <v>161</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="34"/>
         <v>"name_fr":"etoile de mer"</v>
       </c>
-      <c r="H42" t="str">
-        <f t="shared" si="27"/>
+      <c r="H43" t="str">
+        <f t="shared" si="35"/>
         <v>"name_en":"starfish"</v>
       </c>
-      <c r="I42" t="str">
-        <f t="shared" si="28"/>
-        <v>"img_src":""</v>
-      </c>
-      <c r="J42" t="str">
-        <f t="shared" si="29"/>
-        <v>"img_attribution":""</v>
-      </c>
-      <c r="K42" t="str">
-        <f t="shared" si="30"/>
-        <v>"desc_en":""</v>
-      </c>
-      <c r="L42" t="str">
-        <f t="shared" si="31"/>
-        <v>"desc_fr":""</v>
-      </c>
-      <c r="N42" t="str">
-        <f t="shared" si="32"/>
+      <c r="I43" t="str">
+        <f t="shared" si="36"/>
+        <v>"img_src":""</v>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" si="37"/>
+        <v>"img_attribution":""</v>
+      </c>
+      <c r="K43" t="str">
+        <f t="shared" si="38"/>
+        <v>"desc_en":""</v>
+      </c>
+      <c r="L43" t="str">
+        <f t="shared" si="39"/>
+        <v>"desc_fr":""</v>
+      </c>
+      <c r="N43" t="str">
+        <f t="shared" si="40"/>
         <v>{"name_fr":"etoile de mer","name_en":"starfish","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
-      <c r="Q42" s="3" t="str">
-        <f t="shared" si="34"/>
+      <c r="Q43" s="3" t="str">
+        <f t="shared" si="42"/>
         <v>{"name_fr":"etoile de mer","name_en":"starfish","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>90</v>
-      </c>
-      <c r="B43" t="s">
-        <v>91</v>
-      </c>
-      <c r="G43" t="str">
-        <f t="shared" si="26"/>
-        <v>"name_fr":"Rhinocéros "</v>
-      </c>
-      <c r="H43" t="str">
-        <f t="shared" si="27"/>
-        <v>"name_en":"rhino"</v>
-      </c>
-      <c r="I43" t="str">
-        <f t="shared" si="28"/>
-        <v>"img_src":""</v>
-      </c>
-      <c r="J43" t="str">
-        <f t="shared" si="29"/>
-        <v>"img_attribution":""</v>
-      </c>
-      <c r="K43" t="str">
-        <f t="shared" si="30"/>
-        <v>"desc_en":""</v>
-      </c>
-      <c r="L43" t="str">
-        <f t="shared" si="31"/>
-        <v>"desc_fr":""</v>
-      </c>
-      <c r="N43" t="str">
-        <f t="shared" si="32"/>
-        <v>{"name_fr":"Rhinocéros ","name_en":"rhino","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
-      </c>
-      <c r="O43" t="str">
-        <f t="shared" ref="O43:O90" si="35">","</f>
-        <v>,</v>
-      </c>
-      <c r="Q43" s="3" t="str">
-        <f t="shared" si="34"/>
-        <v>{"name_fr":"Rhinocéros ","name_en":"rhino","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="B44" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="G44" t="str">
-        <f t="shared" si="26"/>
-        <v>"name_fr":"Sardine "</v>
+        <f t="shared" si="34"/>
+        <v>"name_fr":"Rhinocéros "</v>
       </c>
       <c r="H44" t="str">
-        <f t="shared" si="27"/>
-        <v>"name_en":"sardine"</v>
+        <f t="shared" si="35"/>
+        <v>"name_en":"rhino"</v>
       </c>
       <c r="I44" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>"img_src":""</v>
       </c>
       <c r="J44" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K44" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L44" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N44" t="str">
-        <f t="shared" si="32"/>
-        <v>{"name_fr":"Sardine ","name_en":"sardine","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="40"/>
+        <v>{"name_fr":"Rhinocéros ","name_en":"rhino","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O44" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" ref="O44:O91" si="43">","</f>
         <v>,</v>
       </c>
       <c r="Q44" s="3" t="str">
-        <f t="shared" si="34"/>
-        <v>{"name_fr":"Sardine ","name_en":"sardine","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="42"/>
+        <v>{"name_fr":"Rhinocéros ","name_en":"rhino","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="B45" t="s">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="G45" t="str">
-        <f t="shared" si="26"/>
-        <v>"name_fr":"cheval"</v>
+        <f t="shared" si="34"/>
+        <v>"name_fr":"Sardine "</v>
       </c>
       <c r="H45" t="str">
-        <f t="shared" si="27"/>
-        <v>"name_en":"horse"</v>
+        <f t="shared" si="35"/>
+        <v>"name_en":"sardine"</v>
       </c>
       <c r="I45" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>"img_src":""</v>
       </c>
       <c r="J45" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K45" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L45" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N45" t="str">
-        <f t="shared" si="32"/>
-        <v>{"name_fr":"cheval","name_en":"horse","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="40"/>
+        <v>{"name_fr":"Sardine ","name_en":"sardine","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O45" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>,</v>
       </c>
       <c r="Q45" s="3" t="str">
-        <f t="shared" si="34"/>
-        <v>{"name_fr":"cheval","name_en":"horse","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="42"/>
+        <v>{"name_fr":"Sardine ","name_en":"sardine","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B46" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G46" t="str">
-        <f t="shared" si="26"/>
-        <v>"name_fr":"chevre"</v>
+        <f t="shared" si="34"/>
+        <v>"name_fr":"cheval"</v>
       </c>
       <c r="H46" t="str">
-        <f t="shared" si="27"/>
-        <v>"name_en":"goat"</v>
+        <f t="shared" si="35"/>
+        <v>"name_en":"horse"</v>
       </c>
       <c r="I46" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>"img_src":""</v>
       </c>
       <c r="J46" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K46" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L46" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N46" t="str">
-        <f t="shared" si="32"/>
-        <v>{"name_fr":"chevre","name_en":"goat","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="40"/>
+        <v>{"name_fr":"cheval","name_en":"horse","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O46" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>,</v>
       </c>
       <c r="Q46" s="3" t="str">
-        <f t="shared" si="34"/>
-        <v>{"name_fr":"chevre","name_en":"goat","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="42"/>
+        <v>{"name_fr":"cheval","name_en":"horse","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B47" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="G47" t="str">
-        <f t="shared" si="26"/>
-        <v>"name_fr":"chien"</v>
+        <f t="shared" si="34"/>
+        <v>"name_fr":"chevre"</v>
       </c>
       <c r="H47" t="str">
-        <f t="shared" si="27"/>
-        <v>"name_en":"dog"</v>
+        <f t="shared" si="35"/>
+        <v>"name_en":"goat"</v>
       </c>
       <c r="I47" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>"img_src":""</v>
       </c>
       <c r="J47" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K47" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L47" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N47" t="str">
-        <f t="shared" si="32"/>
-        <v>{"name_fr":"chien","name_en":"dog","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="40"/>
+        <v>{"name_fr":"chevre","name_en":"goat","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O47" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>,</v>
       </c>
       <c r="Q47" s="3" t="str">
-        <f t="shared" si="34"/>
-        <v>{"name_fr":"chien","name_en":"dog","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="42"/>
+        <v>{"name_fr":"chevre","name_en":"goat","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G48" t="str">
-        <f t="shared" si="26"/>
-        <v>"name_fr":"chouette"</v>
+        <f t="shared" si="34"/>
+        <v>"name_fr":"chien"</v>
       </c>
       <c r="H48" t="str">
-        <f t="shared" si="27"/>
-        <v>"name_en":"owl"</v>
+        <f t="shared" si="35"/>
+        <v>"name_en":"dog"</v>
       </c>
       <c r="I48" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>"img_src":""</v>
       </c>
       <c r="J48" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K48" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L48" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N48" t="str">
-        <f t="shared" si="32"/>
-        <v>{"name_fr":"chouette","name_en":"owl","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="40"/>
+        <v>{"name_fr":"chien","name_en":"dog","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O48" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>,</v>
       </c>
       <c r="Q48" s="3" t="str">
-        <f t="shared" si="34"/>
-        <v>{"name_fr":"chouette","name_en":"owl","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="42"/>
+        <v>{"name_fr":"chien","name_en":"dog","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G49" t="str">
-        <f t="shared" si="26"/>
-        <v>"name_fr":"coccinelle"</v>
+        <f t="shared" si="34"/>
+        <v>"name_fr":"chouette"</v>
       </c>
       <c r="H49" t="str">
-        <f t="shared" si="27"/>
-        <v>"name_en":"ladybuy"</v>
+        <f t="shared" si="35"/>
+        <v>"name_en":"owl"</v>
       </c>
       <c r="I49" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>"img_src":""</v>
       </c>
       <c r="J49" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K49" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L49" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N49" t="str">
-        <f t="shared" si="32"/>
-        <v>{"name_fr":"coccinelle","name_en":"ladybuy","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="40"/>
+        <v>{"name_fr":"chouette","name_en":"owl","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O49" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>,</v>
       </c>
       <c r="Q49" s="3" t="str">
-        <f t="shared" si="34"/>
-        <v>{"name_fr":"coccinelle","name_en":"ladybuy","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="42"/>
+        <v>{"name_fr":"chouette","name_en":"owl","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="G50" t="str">
-        <f t="shared" si="26"/>
-        <v>"name_fr":"cochon"</v>
+        <f t="shared" si="34"/>
+        <v>"name_fr":"coccinelle"</v>
       </c>
       <c r="H50" t="str">
-        <f t="shared" si="27"/>
-        <v>"name_en":"pig"</v>
+        <f t="shared" si="35"/>
+        <v>"name_en":"ladybuy"</v>
       </c>
       <c r="I50" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>"img_src":""</v>
       </c>
       <c r="J50" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K50" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L50" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N50" t="str">
-        <f t="shared" si="32"/>
-        <v>{"name_fr":"cochon","name_en":"pig","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="40"/>
+        <v>{"name_fr":"coccinelle","name_en":"ladybuy","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O50" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>,</v>
       </c>
       <c r="Q50" s="3" t="str">
-        <f t="shared" si="34"/>
-        <v>{"name_fr":"cochon","name_en":"pig","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="42"/>
+        <v>{"name_fr":"coccinelle","name_en":"ladybuy","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="B51" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="G51" t="str">
-        <f t="shared" si="26"/>
-        <v>"name_fr":"coquillage"</v>
+        <f t="shared" si="34"/>
+        <v>"name_fr":"cochon"</v>
       </c>
       <c r="H51" t="str">
-        <f t="shared" si="27"/>
-        <v>"name_en":"shellfish"</v>
+        <f t="shared" si="35"/>
+        <v>"name_en":"pig"</v>
       </c>
       <c r="I51" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>"img_src":""</v>
       </c>
       <c r="J51" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K51" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L51" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N51" t="str">
-        <f t="shared" si="32"/>
-        <v>{"name_fr":"coquillage","name_en":"shellfish","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="40"/>
+        <v>{"name_fr":"cochon","name_en":"pig","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O51" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>,</v>
       </c>
       <c r="Q51" s="3" t="str">
-        <f t="shared" si="34"/>
-        <v>{"name_fr":"coquillage","name_en":"shellfish","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="42"/>
+        <v>{"name_fr":"cochon","name_en":"pig","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="B52" t="s">
-        <v>122</v>
-      </c>
-      <c r="E52" t="s">
-        <v>164</v>
+        <v>107</v>
       </c>
       <c r="G52" t="str">
-        <f t="shared" si="26"/>
-        <v>"name_fr":"corbeau"</v>
+        <f t="shared" si="34"/>
+        <v>"name_fr":"coquillage"</v>
       </c>
       <c r="H52" t="str">
-        <f t="shared" si="27"/>
-        <v>"name_en":"raven"</v>
+        <f t="shared" si="35"/>
+        <v>"name_en":"shellfish"</v>
       </c>
       <c r="I52" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>"img_src":""</v>
       </c>
       <c r="J52" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K52" t="str">
-        <f t="shared" si="30"/>
-        <v>"desc_en":"the ravens celebrate death"</v>
+        <f t="shared" si="38"/>
+        <v>"desc_en":""</v>
       </c>
       <c r="L52" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N52" t="str">
-        <f t="shared" si="32"/>
-        <v>{"name_fr":"corbeau","name_en":"raven","img_src":"","img_attribution":"","desc_en":"the ravens celebrate death","desc_fr":""}</v>
+        <f t="shared" si="40"/>
+        <v>{"name_fr":"coquillage","name_en":"shellfish","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O52" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>,</v>
       </c>
       <c r="Q52" s="3" t="str">
-        <f t="shared" si="34"/>
-        <v>{"name_fr":"corbeau","name_en":"raven","img_src":"","img_attribution":"","desc_en":"the ravens celebrate death","desc_fr":""},</v>
+        <f t="shared" si="42"/>
+        <v>{"name_fr":"coquillage","name_en":"shellfish","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="B53" t="s">
-        <v>40</v>
+        <v>121</v>
+      </c>
+      <c r="E53" t="s">
+        <v>163</v>
       </c>
       <c r="G53" t="str">
-        <f t="shared" si="26"/>
-        <v>"name_fr":"coyote"</v>
+        <f t="shared" si="34"/>
+        <v>"name_fr":"corbeau"</v>
       </c>
       <c r="H53" t="str">
-        <f t="shared" si="27"/>
-        <v>"name_en":"coyote"</v>
+        <f t="shared" si="35"/>
+        <v>"name_en":"raven"</v>
       </c>
       <c r="I53" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>"img_src":""</v>
       </c>
       <c r="J53" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K53" t="str">
-        <f t="shared" si="30"/>
-        <v>"desc_en":""</v>
+        <f t="shared" si="38"/>
+        <v>"desc_en":"the ravens celebrate death"</v>
       </c>
       <c r="L53" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N53" t="str">
-        <f t="shared" si="32"/>
-        <v>{"name_fr":"coyote","name_en":"coyote","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="40"/>
+        <v>{"name_fr":"corbeau","name_en":"raven","img_src":"","img_attribution":"","desc_en":"the ravens celebrate death","desc_fr":""}</v>
       </c>
       <c r="O53" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>,</v>
       </c>
       <c r="Q53" s="3" t="str">
-        <f t="shared" si="34"/>
-        <v>{"name_fr":"coyote","name_en":"coyote","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="42"/>
+        <v>{"name_fr":"corbeau","name_en":"raven","img_src":"","img_attribution":"","desc_en":"the ravens celebrate death","desc_fr":""},</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="B54" t="s">
-        <v>111</v>
-      </c>
-      <c r="E54" t="s">
-        <v>209</v>
+        <v>40</v>
       </c>
       <c r="G54" t="str">
-        <f t="shared" si="26"/>
-        <v>"name_fr":"Crabe "</v>
+        <f t="shared" si="34"/>
+        <v>"name_fr":"coyote"</v>
       </c>
       <c r="H54" t="str">
-        <f t="shared" si="27"/>
-        <v>"name_en":"crab"</v>
+        <f t="shared" si="35"/>
+        <v>"name_en":"coyote"</v>
       </c>
       <c r="I54" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>"img_src":""</v>
       </c>
       <c r="J54" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K54" t="str">
-        <f t="shared" si="30"/>
-        <v>"desc_en":"the crab looks to the sky and sees the spirit of his ancestors."</v>
+        <f t="shared" si="38"/>
+        <v>"desc_en":""</v>
       </c>
       <c r="L54" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N54" t="str">
-        <f t="shared" si="32"/>
-        <v>{"name_fr":"Crabe ","name_en":"crab","img_src":"","img_attribution":"","desc_en":"the crab looks to the sky and sees the spirit of his ancestors.","desc_fr":""}</v>
+        <f t="shared" si="40"/>
+        <v>{"name_fr":"coyote","name_en":"coyote","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O54" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>,</v>
       </c>
       <c r="Q54" s="3" t="str">
-        <f t="shared" si="34"/>
-        <v>{"name_fr":"Crabe ","name_en":"crab","img_src":"","img_attribution":"","desc_en":"the crab looks to the sky and sees the spirit of his ancestors.","desc_fr":""},</v>
+        <f t="shared" si="42"/>
+        <v>{"name_fr":"coyote","name_en":"coyote","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="B55" t="s">
-        <v>37</v>
+        <v>110</v>
+      </c>
+      <c r="E55" t="s">
+        <v>206</v>
       </c>
       <c r="G55" t="str">
-        <f t="shared" si="26"/>
-        <v>"name_fr":"dauphin"</v>
+        <f t="shared" si="34"/>
+        <v>"name_fr":"Crabe "</v>
       </c>
       <c r="H55" t="str">
-        <f t="shared" si="27"/>
-        <v>"name_en":"dolphin"</v>
+        <f t="shared" si="35"/>
+        <v>"name_en":"crab"</v>
       </c>
       <c r="I55" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>"img_src":""</v>
       </c>
       <c r="J55" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K55" t="str">
-        <f t="shared" si="30"/>
-        <v>"desc_en":""</v>
+        <f t="shared" si="38"/>
+        <v>"desc_en":"the crab looks to the sky and sees the spirit of his ancestors."</v>
       </c>
       <c r="L55" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N55" t="str">
-        <f t="shared" si="32"/>
-        <v>{"name_fr":"dauphin","name_en":"dolphin","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="40"/>
+        <v>{"name_fr":"Crabe ","name_en":"crab","img_src":"","img_attribution":"","desc_en":"the crab looks to the sky and sees the spirit of his ancestors.","desc_fr":""}</v>
       </c>
       <c r="O55" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>,</v>
       </c>
       <c r="Q55" s="3" t="str">
-        <f t="shared" si="34"/>
-        <v>{"name_fr":"dauphin","name_en":"dolphin","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="42"/>
+        <v>{"name_fr":"Crabe ","name_en":"crab","img_src":"","img_attribution":"","desc_en":"the crab looks to the sky and sees the spirit of his ancestors.","desc_fr":""},</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="B56" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="G56" t="str">
-        <f t="shared" si="26"/>
-        <v>"name_fr":"dinde"</v>
+        <f t="shared" si="34"/>
+        <v>"name_fr":"dauphin"</v>
       </c>
       <c r="H56" t="str">
-        <f t="shared" si="27"/>
-        <v>"name_en":"turkey"</v>
+        <f t="shared" si="35"/>
+        <v>"name_en":"dolphin"</v>
       </c>
       <c r="I56" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>"img_src":""</v>
       </c>
       <c r="J56" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K56" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L56" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N56" t="str">
-        <f t="shared" si="32"/>
-        <v>{"name_fr":"dinde","name_en":"turkey","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="40"/>
+        <v>{"name_fr":"dauphin","name_en":"dolphin","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O56" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>,</v>
       </c>
       <c r="Q56" s="3" t="str">
-        <f t="shared" si="34"/>
-        <v>{"name_fr":"dinde","name_en":"turkey","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="42"/>
+        <v>{"name_fr":"dauphin","name_en":"dolphin","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="B57" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="G57" t="str">
-        <f t="shared" si="26"/>
-        <v>"name_fr":"ecureuil"</v>
+        <f t="shared" si="34"/>
+        <v>"name_fr":"dinde"</v>
       </c>
       <c r="H57" t="str">
-        <f t="shared" si="27"/>
-        <v>"name_en":"squirell"</v>
+        <f t="shared" si="35"/>
+        <v>"name_en":"turkey"</v>
       </c>
       <c r="I57" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>"img_src":""</v>
       </c>
       <c r="J57" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K57" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L57" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N57" t="str">
-        <f t="shared" si="32"/>
-        <v>{"name_fr":"ecureuil","name_en":"squirell","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="40"/>
+        <v>{"name_fr":"dinde","name_en":"turkey","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O57" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>,</v>
       </c>
       <c r="Q57" s="3" t="str">
-        <f t="shared" si="34"/>
-        <v>{"name_fr":"ecureuil","name_en":"squirell","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="42"/>
+        <v>{"name_fr":"dinde","name_en":"turkey","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="B58" t="s">
-        <v>93</v>
-      </c>
-      <c r="E58" t="s">
-        <v>165</v>
+        <v>42</v>
       </c>
       <c r="G58" t="str">
-        <f t="shared" si="26"/>
-        <v>"name_fr":"Éléphant "</v>
+        <f t="shared" si="34"/>
+        <v>"name_fr":"ecureuil"</v>
       </c>
       <c r="H58" t="str">
-        <f t="shared" si="27"/>
-        <v>"name_en":"elephant"</v>
+        <f t="shared" si="35"/>
+        <v>"name_en":"squirell"</v>
       </c>
       <c r="I58" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>"img_src":""</v>
       </c>
       <c r="J58" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K58" t="str">
-        <f t="shared" si="30"/>
-        <v>"desc_en":"this elephant has chosen to wear a hat"</v>
+        <f t="shared" si="38"/>
+        <v>"desc_en":""</v>
       </c>
       <c r="L58" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N58" t="str">
-        <f t="shared" si="32"/>
-        <v>{"name_fr":"Éléphant ","name_en":"elephant","img_src":"","img_attribution":"","desc_en":"this elephant has chosen to wear a hat","desc_fr":""}</v>
+        <f t="shared" si="40"/>
+        <v>{"name_fr":"ecureuil","name_en":"squirell","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O58" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>,</v>
       </c>
       <c r="Q58" s="3" t="str">
-        <f t="shared" si="34"/>
-        <v>{"name_fr":"Éléphant ","name_en":"elephant","img_src":"","img_attribution":"","desc_en":"this elephant has chosen to wear a hat","desc_fr":""},</v>
+        <f t="shared" si="42"/>
+        <v>{"name_fr":"ecureuil","name_en":"squirell","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="B59" t="s">
-        <v>102</v>
+        <v>92</v>
+      </c>
+      <c r="E59" t="s">
+        <v>164</v>
       </c>
       <c r="G59" t="str">
-        <f t="shared" si="26"/>
-        <v>"name_fr":"escargot"</v>
+        <f t="shared" si="34"/>
+        <v>"name_fr":"Éléphant "</v>
       </c>
       <c r="H59" t="str">
-        <f t="shared" si="27"/>
-        <v>"name_en":"snail"</v>
+        <f t="shared" si="35"/>
+        <v>"name_en":"elephant"</v>
       </c>
       <c r="I59" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>"img_src":""</v>
       </c>
       <c r="J59" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K59" t="str">
-        <f t="shared" si="30"/>
-        <v>"desc_en":""</v>
+        <f t="shared" si="38"/>
+        <v>"desc_en":"this elephant has chosen to wear a hat"</v>
       </c>
       <c r="L59" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N59" t="str">
-        <f t="shared" si="32"/>
-        <v>{"name_fr":"escargot","name_en":"snail","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="40"/>
+        <v>{"name_fr":"Éléphant ","name_en":"elephant","img_src":"","img_attribution":"","desc_en":"this elephant has chosen to wear a hat","desc_fr":""}</v>
       </c>
       <c r="O59" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>,</v>
       </c>
       <c r="Q59" s="3" t="str">
-        <f t="shared" si="34"/>
-        <v>{"name_fr":"escargot","name_en":"snail","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="42"/>
+        <v>{"name_fr":"Éléphant ","name_en":"elephant","img_src":"","img_attribution":"","desc_en":"this elephant has chosen to wear a hat","desc_fr":""},</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="B60" t="s">
-        <v>10</v>
-      </c>
-      <c r="E60" t="s">
-        <v>166</v>
+        <v>101</v>
       </c>
       <c r="G60" t="str">
-        <f t="shared" si="26"/>
-        <v>"name_fr":"fourmi"</v>
+        <f t="shared" si="34"/>
+        <v>"name_fr":"escargot"</v>
       </c>
       <c r="H60" t="str">
-        <f t="shared" si="27"/>
-        <v>"name_en":"ant"</v>
+        <f t="shared" si="35"/>
+        <v>"name_en":"snail"</v>
       </c>
       <c r="I60" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>"img_src":""</v>
       </c>
       <c r="J60" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K60" t="str">
-        <f t="shared" si="30"/>
-        <v>"desc_en":"ants commit genocide"</v>
+        <f t="shared" si="38"/>
+        <v>"desc_en":""</v>
       </c>
       <c r="L60" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N60" t="str">
-        <f t="shared" si="32"/>
-        <v>{"name_fr":"fourmi","name_en":"ant","img_src":"","img_attribution":"","desc_en":"ants commit genocide","desc_fr":""}</v>
+        <f t="shared" si="40"/>
+        <v>{"name_fr":"escargot","name_en":"snail","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O60" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>,</v>
       </c>
       <c r="Q60" s="3" t="str">
-        <f t="shared" si="34"/>
-        <v>{"name_fr":"fourmi","name_en":"ant","img_src":"","img_attribution":"","desc_en":"ants commit genocide","desc_fr":""},</v>
+        <f t="shared" si="42"/>
+        <v>{"name_fr":"escargot","name_en":"snail","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="G61" t="str">
-        <f t="shared" si="26"/>
-        <v>"name_fr":"Girafe "</v>
+        <f t="shared" si="34"/>
+        <v>"name_fr":"fourmi"</v>
       </c>
       <c r="H61" t="str">
-        <f t="shared" si="27"/>
-        <v>"name_en":"giraffe"</v>
+        <f t="shared" si="35"/>
+        <v>"name_en":"ant"</v>
       </c>
       <c r="I61" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>"img_src":""</v>
       </c>
       <c r="J61" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K61" t="str">
-        <f t="shared" si="30"/>
-        <v>"desc_en":"the giraffe enjoys dinner parties"</v>
+        <f t="shared" si="38"/>
+        <v>"desc_en":"ants commit genocide"</v>
       </c>
       <c r="L61" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N61" t="str">
-        <f t="shared" si="32"/>
-        <v>{"name_fr":"Girafe ","name_en":"giraffe","img_src":"","img_attribution":"","desc_en":"the giraffe enjoys dinner parties","desc_fr":""}</v>
+        <f t="shared" si="40"/>
+        <v>{"name_fr":"fourmi","name_en":"ant","img_src":"","img_attribution":"","desc_en":"ants commit genocide","desc_fr":""}</v>
       </c>
       <c r="O61" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>,</v>
       </c>
       <c r="Q61" s="3" t="str">
-        <f t="shared" si="34"/>
-        <v>{"name_fr":"Girafe ","name_en":"giraffe","img_src":"","img_attribution":"","desc_en":"the giraffe enjoys dinner parties","desc_fr":""},</v>
+        <f t="shared" si="42"/>
+        <v>{"name_fr":"fourmi","name_en":"ant","img_src":"","img_attribution":"","desc_en":"ants commit genocide","desc_fr":""},</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="B62" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="E62" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="G62" t="str">
-        <f t="shared" si="26"/>
-        <v>"name_fr":"gorille"</v>
+        <f t="shared" si="34"/>
+        <v>"name_fr":"Girafe "</v>
       </c>
       <c r="H62" t="str">
-        <f t="shared" si="27"/>
-        <v>"name_en":"gorilla"</v>
+        <f t="shared" si="35"/>
+        <v>"name_en":"giraffe"</v>
       </c>
       <c r="I62" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>"img_src":""</v>
       </c>
       <c r="J62" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K62" t="str">
-        <f t="shared" si="30"/>
-        <v>"desc_en":"gorillas are good deadlifters"</v>
+        <f t="shared" si="38"/>
+        <v>"desc_en":"the giraffe enjoys dinner parties"</v>
       </c>
       <c r="L62" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N62" t="str">
-        <f t="shared" si="32"/>
-        <v>{"name_fr":"gorille","name_en":"gorilla","img_src":"","img_attribution":"","desc_en":"gorillas are good deadlifters","desc_fr":""}</v>
+        <f t="shared" si="40"/>
+        <v>{"name_fr":"Girafe ","name_en":"giraffe","img_src":"","img_attribution":"","desc_en":"the giraffe enjoys dinner parties","desc_fr":""}</v>
       </c>
       <c r="O62" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>,</v>
       </c>
       <c r="Q62" s="3" t="str">
-        <f t="shared" si="34"/>
-        <v>{"name_fr":"gorille","name_en":"gorilla","img_src":"","img_attribution":"","desc_en":"gorillas are good deadlifters","desc_fr":""},</v>
+        <f t="shared" si="42"/>
+        <v>{"name_fr":"Girafe ","name_en":"giraffe","img_src":"","img_attribution":"","desc_en":"the giraffe enjoys dinner parties","desc_fr":""},</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>61</v>
+        <v>125</v>
       </c>
       <c r="B63" t="s">
-        <v>62</v>
+        <v>126</v>
+      </c>
+      <c r="E63" t="s">
+        <v>166</v>
       </c>
       <c r="G63" t="str">
-        <f t="shared" si="26"/>
-        <v>"name_fr":"grenouille"</v>
+        <f t="shared" si="34"/>
+        <v>"name_fr":"gorille"</v>
       </c>
       <c r="H63" t="str">
-        <f t="shared" si="27"/>
-        <v>"name_en":"frog"</v>
+        <f t="shared" si="35"/>
+        <v>"name_en":"gorilla"</v>
       </c>
       <c r="I63" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>"img_src":""</v>
       </c>
       <c r="J63" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K63" t="str">
-        <f t="shared" si="30"/>
-        <v>"desc_en":""</v>
+        <f t="shared" si="38"/>
+        <v>"desc_en":"gorillas are good deadlifters"</v>
       </c>
       <c r="L63" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N63" t="str">
-        <f t="shared" si="32"/>
-        <v>{"name_fr":"grenouille","name_en":"frog","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="40"/>
+        <v>{"name_fr":"gorille","name_en":"gorilla","img_src":"","img_attribution":"","desc_en":"gorillas are good deadlifters","desc_fr":""}</v>
       </c>
       <c r="O63" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>,</v>
       </c>
       <c r="Q63" s="3" t="str">
-        <f t="shared" si="34"/>
-        <v>{"name_fr":"grenouille","name_en":"frog","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="42"/>
+        <v>{"name_fr":"gorille","name_en":"gorilla","img_src":"","img_attribution":"","desc_en":"gorillas are good deadlifters","desc_fr":""},</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c r="G64" t="str">
-        <f t="shared" si="26"/>
-        <v>"name_fr":"Hippopotame "</v>
+        <f t="shared" si="34"/>
+        <v>"name_fr":"grenouille"</v>
       </c>
       <c r="H64" t="str">
-        <f t="shared" si="27"/>
-        <v>"name_en":"hippo"</v>
+        <f t="shared" si="35"/>
+        <v>"name_en":"frog"</v>
       </c>
       <c r="I64" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>"img_src":""</v>
       </c>
       <c r="J64" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K64" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L64" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N64" t="str">
-        <f t="shared" si="32"/>
-        <v>{"name_fr":"Hippopotame ","name_en":"hippo","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="40"/>
+        <v>{"name_fr":"grenouille","name_en":"frog","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O64" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>,</v>
       </c>
       <c r="Q64" s="3" t="str">
-        <f t="shared" si="34"/>
-        <v>{"name_fr":"Hippopotame ","name_en":"hippo","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="42"/>
+        <v>{"name_fr":"grenouille","name_en":"frog","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="B65" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="G65" t="str">
-        <f t="shared" si="26"/>
-        <v>"name_fr":"homard"</v>
+        <f t="shared" si="34"/>
+        <v>"name_fr":"Hippopotame "</v>
       </c>
       <c r="H65" t="str">
-        <f t="shared" si="27"/>
-        <v>"name_en":"lobster"</v>
+        <f t="shared" si="35"/>
+        <v>"name_en":"hippo"</v>
       </c>
       <c r="I65" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>"img_src":""</v>
       </c>
       <c r="J65" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K65" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L65" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N65" t="str">
-        <f t="shared" si="32"/>
-        <v>{"name_fr":"homard","name_en":"lobster","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="40"/>
+        <v>{"name_fr":"Hippopotame ","name_en":"hippo","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O65" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>,</v>
       </c>
       <c r="Q65" s="3" t="str">
-        <f t="shared" si="34"/>
-        <v>{"name_fr":"homard","name_en":"lobster","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="42"/>
+        <v>{"name_fr":"Hippopotame ","name_en":"hippo","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B66" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="G66" t="str">
-        <f t="shared" si="26"/>
-        <v>"name_fr":"iguane"</v>
+        <f t="shared" si="34"/>
+        <v>"name_fr":"homard"</v>
       </c>
       <c r="H66" t="str">
-        <f t="shared" si="27"/>
-        <v>"name_en":"iguana"</v>
+        <f t="shared" si="35"/>
+        <v>"name_en":"lobster"</v>
       </c>
       <c r="I66" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>"img_src":""</v>
       </c>
       <c r="J66" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K66" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L66" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N66" t="str">
-        <f t="shared" si="32"/>
-        <v>{"name_fr":"iguane","name_en":"iguana","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="40"/>
+        <v>{"name_fr":"homard","name_en":"lobster","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O66" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>,</v>
       </c>
       <c r="Q66" s="3" t="str">
-        <f t="shared" si="34"/>
-        <v>{"name_fr":"iguane","name_en":"iguana","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="42"/>
+        <v>{"name_fr":"homard","name_en":"lobster","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="B67" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="G67" t="str">
-        <f t="shared" si="26"/>
-        <v>"name_fr":"kangourou"</v>
+        <f t="shared" si="34"/>
+        <v>"name_fr":"iguane"</v>
       </c>
       <c r="H67" t="str">
-        <f t="shared" si="27"/>
-        <v>"name_en":"kangaroo"</v>
+        <f t="shared" si="35"/>
+        <v>"name_en":"iguana"</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>"img_src":""</v>
       </c>
       <c r="J67" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K67" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N67" t="str">
-        <f t="shared" si="32"/>
-        <v>{"name_fr":"kangourou","name_en":"kangaroo","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="40"/>
+        <v>{"name_fr":"iguane","name_en":"iguana","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>,</v>
       </c>
       <c r="Q67" s="3" t="str">
-        <f t="shared" si="34"/>
-        <v>{"name_fr":"kangourou","name_en":"kangaroo","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="42"/>
+        <v>{"name_fr":"iguane","name_en":"iguana","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>43</v>
+        <v>129</v>
       </c>
       <c r="B68" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="G68" t="str">
-        <f t="shared" si="26"/>
-        <v>"name_fr":"lapin"</v>
+        <f t="shared" si="34"/>
+        <v>"name_fr":"kangourou"</v>
       </c>
       <c r="H68" t="str">
-        <f t="shared" si="27"/>
-        <v>"name_en":"rabbit"</v>
+        <f t="shared" si="35"/>
+        <v>"name_en":"kangaroo"</v>
       </c>
       <c r="I68" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>"img_src":""</v>
       </c>
       <c r="J68" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K68" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L68" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N68" t="str">
-        <f t="shared" si="32"/>
-        <v>{"name_fr":"lapin","name_en":"rabbit","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="40"/>
+        <v>{"name_fr":"kangourou","name_en":"kangaroo","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O68" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>,</v>
       </c>
       <c r="Q68" s="3" t="str">
-        <f t="shared" si="34"/>
-        <v>{"name_fr":"lapin","name_en":"rabbit","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="42"/>
+        <v>{"name_fr":"kangourou","name_en":"kangaroo","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>132</v>
+        <v>43</v>
       </c>
       <c r="B69" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="G69" t="str">
-        <f t="shared" si="26"/>
-        <v>"name_fr":"léopard"</v>
+        <f t="shared" si="34"/>
+        <v>"name_fr":"lapin"</v>
       </c>
       <c r="H69" t="str">
-        <f t="shared" si="27"/>
-        <v>"name_en":"leopard"</v>
+        <f t="shared" si="35"/>
+        <v>"name_en":"rabbit"</v>
       </c>
       <c r="I69" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>"img_src":""</v>
       </c>
       <c r="J69" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K69" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L69" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N69" t="str">
-        <f t="shared" si="32"/>
-        <v>{"name_fr":"léopard","name_en":"leopard","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="40"/>
+        <v>{"name_fr":"lapin","name_en":"rabbit","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O69" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>,</v>
       </c>
       <c r="Q69" s="3" t="str">
-        <f t="shared" si="34"/>
-        <v>{"name_fr":"léopard","name_en":"leopard","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="42"/>
+        <v>{"name_fr":"lapin","name_en":"rabbit","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="B70" t="s">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="G70" t="str">
-        <f t="shared" si="26"/>
-        <v>"name_fr":"Lion "</v>
+        <f t="shared" si="34"/>
+        <v>"name_fr":"léopard"</v>
       </c>
       <c r="H70" t="str">
-        <f t="shared" si="27"/>
-        <v>"name_en":"lion"</v>
+        <f t="shared" si="35"/>
+        <v>"name_en":"leopard"</v>
       </c>
       <c r="I70" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>"img_src":""</v>
       </c>
       <c r="J70" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K70" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L70" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N70" t="str">
-        <f t="shared" si="32"/>
-        <v>{"name_fr":"Lion ","name_en":"lion","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="40"/>
+        <v>{"name_fr":"léopard","name_en":"leopard","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O70" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>,</v>
       </c>
       <c r="Q70" s="3" t="str">
-        <f t="shared" si="34"/>
-        <v>{"name_fr":"Lion ","name_en":"lion","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="42"/>
+        <v>{"name_fr":"léopard","name_en":"leopard","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="B71" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="G71" t="str">
-        <f t="shared" si="26"/>
-        <v>"name_fr":"loup"</v>
+        <f t="shared" si="34"/>
+        <v>"name_fr":"Lion "</v>
       </c>
       <c r="H71" t="str">
-        <f t="shared" si="27"/>
-        <v>"name_en":"wolf"</v>
+        <f t="shared" si="35"/>
+        <v>"name_en":"lion"</v>
       </c>
       <c r="I71" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>"img_src":""</v>
       </c>
       <c r="J71" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K71" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L71" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N71" t="str">
-        <f t="shared" si="32"/>
-        <v>{"name_fr":"loup","name_en":"wolf","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="40"/>
+        <v>{"name_fr":"Lion ","name_en":"lion","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O71" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>,</v>
       </c>
       <c r="Q71" s="3" t="str">
-        <f t="shared" si="34"/>
-        <v>{"name_fr":"loup","name_en":"wolf","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="42"/>
+        <v>{"name_fr":"Lion ","name_en":"lion","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="B72" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="G72" t="str">
-        <f t="shared" si="26"/>
-        <v>"name_fr":"Mouche "</v>
+        <f t="shared" si="34"/>
+        <v>"name_fr":"loup"</v>
       </c>
       <c r="H72" t="str">
-        <f t="shared" si="27"/>
-        <v>"name_en":"fly"</v>
+        <f t="shared" si="35"/>
+        <v>"name_en":"wolf"</v>
       </c>
       <c r="I72" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>"img_src":""</v>
       </c>
       <c r="J72" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K72" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L72" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N72" t="str">
-        <f t="shared" si="32"/>
-        <v>{"name_fr":"Mouche ","name_en":"fly","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="40"/>
+        <v>{"name_fr":"loup","name_en":"wolf","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O72" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>,</v>
       </c>
       <c r="Q72" s="3" t="str">
-        <f t="shared" si="34"/>
-        <v>{"name_fr":"Mouche ","name_en":"fly","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="42"/>
+        <v>{"name_fr":"loup","name_en":"wolf","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="B73" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="G73" t="str">
-        <f t="shared" si="26"/>
-        <v>"name_fr":"moufette"</v>
+        <f t="shared" si="34"/>
+        <v>"name_fr":"Mouche "</v>
       </c>
       <c r="H73" t="str">
-        <f t="shared" si="27"/>
-        <v>"name_en":"skunk"</v>
+        <f t="shared" si="35"/>
+        <v>"name_en":"fly"</v>
       </c>
       <c r="I73" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>"img_src":""</v>
       </c>
       <c r="J73" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K73" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L73" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N73" t="str">
-        <f t="shared" si="32"/>
-        <v>{"name_fr":"moufette","name_en":"skunk","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="40"/>
+        <v>{"name_fr":"Mouche ","name_en":"fly","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O73" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>,</v>
       </c>
       <c r="Q73" s="3" t="str">
-        <f t="shared" si="34"/>
-        <v>{"name_fr":"moufette","name_en":"skunk","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="42"/>
+        <v>{"name_fr":"Mouche ","name_en":"fly","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="B74" t="s">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="G74" t="str">
-        <f t="shared" ref="G74:G90" si="36">CHAR(34) &amp; "name_fr" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;A74&amp;CHAR(34)</f>
-        <v>"name_fr":"moule"</v>
+        <f t="shared" si="34"/>
+        <v>"name_fr":"moufette"</v>
       </c>
       <c r="H74" t="str">
-        <f t="shared" ref="H74:H91" si="37">CHAR(34) &amp; "name_en" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;B74&amp;CHAR(34)</f>
-        <v>"name_en":"mussel"</v>
+        <f t="shared" si="35"/>
+        <v>"name_en":"skunk"</v>
       </c>
       <c r="I74" t="str">
-        <f t="shared" ref="I74:I90" si="38">CHAR(34) &amp; "img_src" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;C74&amp;CHAR(34)</f>
+        <f t="shared" si="36"/>
         <v>"img_src":""</v>
       </c>
       <c r="J74" t="str">
-        <f t="shared" ref="J74:J90" si="39">CHAR(34) &amp; "img_attribution" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;D74&amp;CHAR(34)</f>
+        <f t="shared" si="37"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K74" t="str">
-        <f t="shared" ref="K74:K90" si="40">CHAR(34) &amp; "desc_en" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;E74&amp;CHAR(34)</f>
+        <f t="shared" si="38"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L74" t="str">
-        <f t="shared" ref="L74:L90" si="41">CHAR(34) &amp; "desc_fr" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;F74&amp;CHAR(34)</f>
+        <f t="shared" si="39"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N74" t="str">
-        <f t="shared" ref="N74:N90" si="42">"{" &amp; G74 &amp; "," &amp; H74 &amp; "," &amp; I74 &amp; "," &amp; J74 &amp; "," &amp; K74 &amp; "," &amp; L74 &amp; "}"</f>
-        <v>{"name_fr":"moule","name_en":"mussel","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="40"/>
+        <v>{"name_fr":"moufette","name_en":"skunk","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O74" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>,</v>
       </c>
       <c r="Q74" s="3" t="str">
-        <f t="shared" ref="Q74:Q90" si="43">N74&amp;O74</f>
-        <v>{"name_fr":"moule","name_en":"mussel","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="42"/>
+        <v>{"name_fr":"moufette","name_en":"skunk","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>115</v>
       </c>
       <c r="G75" t="str">
-        <f t="shared" si="36"/>
-        <v>"name_fr":"mouton"</v>
+        <f t="shared" ref="G75:G91" si="44">CHAR(34) &amp; "name_fr" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;A75&amp;CHAR(34)</f>
+        <v>"name_fr":"moule"</v>
       </c>
       <c r="H75" t="str">
-        <f t="shared" si="37"/>
-        <v>"name_en":"lamb"</v>
+        <f t="shared" ref="H75:H92" si="45">CHAR(34) &amp; "name_en" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;B75&amp;CHAR(34)</f>
+        <v>"name_en":"mussel"</v>
       </c>
       <c r="I75" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" ref="I75:I91" si="46">CHAR(34) &amp; "img_src" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;C75&amp;CHAR(34)</f>
         <v>"img_src":""</v>
       </c>
       <c r="J75" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ref="J75:J91" si="47">CHAR(34) &amp; "img_attribution" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;D75&amp;CHAR(34)</f>
         <v>"img_attribution":""</v>
       </c>
       <c r="K75" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" ref="K75:K91" si="48">CHAR(34) &amp; "desc_en" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;E75&amp;CHAR(34)</f>
         <v>"desc_en":""</v>
       </c>
       <c r="L75" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" ref="L75:L91" si="49">CHAR(34) &amp; "desc_fr" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;F75&amp;CHAR(34)</f>
         <v>"desc_fr":""</v>
       </c>
       <c r="N75" t="str">
-        <f t="shared" si="42"/>
-        <v>{"name_fr":"mouton","name_en":"lamb","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" ref="N75:N91" si="50">"{" &amp; G75 &amp; "," &amp; H75 &amp; "," &amp; I75 &amp; "," &amp; J75 &amp; "," &amp; K75 &amp; "," &amp; L75 &amp; "}"</f>
+        <v>{"name_fr":"moule","name_en":"mussel","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O75" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>,</v>
       </c>
       <c r="Q75" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>{"name_fr":"mouton","name_en":"lamb","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" ref="Q75:Q91" si="51">N75&amp;O75</f>
+        <v>{"name_fr":"moule","name_en":"mussel","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="B76" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="G76" t="str">
-        <f t="shared" si="36"/>
-        <v>"name_fr":"oiseau"</v>
+        <f t="shared" si="44"/>
+        <v>"name_fr":"mouton"</v>
       </c>
       <c r="H76" t="str">
-        <f t="shared" si="37"/>
-        <v>"name_en":"bird"</v>
+        <f t="shared" si="45"/>
+        <v>"name_en":"lamb"</v>
       </c>
       <c r="I76" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>"img_src":""</v>
       </c>
       <c r="J76" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K76" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L76" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N76" t="str">
-        <f t="shared" si="42"/>
-        <v>{"name_fr":"oiseau","name_en":"bird","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="50"/>
+        <v>{"name_fr":"mouton","name_en":"lamb","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O76" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>,</v>
       </c>
       <c r="Q76" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>{"name_fr":"oiseau","name_en":"bird","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="51"/>
+        <v>{"name_fr":"mouton","name_en":"lamb","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="B77" t="s">
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="G77" t="str">
-        <f t="shared" si="36"/>
-        <v>"name_fr":"Orque "</v>
+        <f t="shared" si="44"/>
+        <v>"name_fr":"oiseau"</v>
       </c>
       <c r="H77" t="str">
-        <f t="shared" si="37"/>
-        <v>"name_en":"orca"</v>
+        <f t="shared" si="45"/>
+        <v>"name_en":"bird"</v>
       </c>
       <c r="I77" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>"img_src":""</v>
       </c>
       <c r="J77" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K77" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L77" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N77" t="str">
-        <f t="shared" si="42"/>
-        <v>{"name_fr":"Orque ","name_en":"orca","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="50"/>
+        <v>{"name_fr":"oiseau","name_en":"bird","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O77" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>,</v>
       </c>
       <c r="Q77" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>{"name_fr":"Orque ","name_en":"orca","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="51"/>
+        <v>{"name_fr":"oiseau","name_en":"bird","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="B78" t="s">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="G78" t="str">
-        <f t="shared" si="36"/>
-        <v>"name_fr":"ours"</v>
+        <f t="shared" si="44"/>
+        <v>"name_fr":"Orque "</v>
       </c>
       <c r="H78" t="str">
-        <f t="shared" si="37"/>
-        <v>"name_en":"bear"</v>
+        <f t="shared" si="45"/>
+        <v>"name_en":"orca"</v>
       </c>
       <c r="I78" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>"img_src":""</v>
       </c>
       <c r="J78" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K78" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L78" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N78" t="str">
-        <f t="shared" si="42"/>
-        <v>{"name_fr":"ours","name_en":"bear","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="50"/>
+        <v>{"name_fr":"Orque ","name_en":"orca","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O78" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>,</v>
       </c>
       <c r="Q78" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>{"name_fr":"ours","name_en":"bear","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="51"/>
+        <v>{"name_fr":"Orque ","name_en":"orca","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>128</v>
+        <v>17</v>
       </c>
       <c r="B79" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="G79" t="str">
-        <f t="shared" si="36"/>
-        <v>"name_fr":"panda"</v>
+        <f t="shared" si="44"/>
+        <v>"name_fr":"ours"</v>
       </c>
       <c r="H79" t="str">
-        <f t="shared" si="37"/>
-        <v>"name_en":"panda"</v>
+        <f t="shared" si="45"/>
+        <v>"name_en":"bear"</v>
       </c>
       <c r="I79" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>"img_src":""</v>
       </c>
       <c r="J79" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K79" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L79" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N79" t="str">
-        <f t="shared" si="42"/>
-        <v>{"name_fr":"panda","name_en":"panda","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="50"/>
+        <v>{"name_fr":"ours","name_en":"bear","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O79" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>,</v>
       </c>
       <c r="Q79" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>{"name_fr":"panda","name_en":"panda","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="51"/>
+        <v>{"name_fr":"ours","name_en":"bear","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="B80" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="G80" t="str">
-        <f t="shared" si="36"/>
-        <v>"name_fr":"Panthère "</v>
+        <f t="shared" si="44"/>
+        <v>"name_fr":"panda"</v>
       </c>
       <c r="H80" t="str">
-        <f t="shared" si="37"/>
-        <v>"name_en":"panther"</v>
+        <f t="shared" si="45"/>
+        <v>"name_en":"panda"</v>
       </c>
       <c r="I80" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>"img_src":""</v>
       </c>
       <c r="J80" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K80" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L80" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N80" t="str">
-        <f t="shared" si="42"/>
-        <v>{"name_fr":"Panthère ","name_en":"panther","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="50"/>
+        <v>{"name_fr":"panda","name_en":"panda","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O80" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>,</v>
       </c>
       <c r="Q80" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>{"name_fr":"Panthère ","name_en":"panther","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="51"/>
+        <v>{"name_fr":"panda","name_en":"panda","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B81" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="G81" t="str">
-        <f t="shared" si="36"/>
-        <v>"name_fr":"papillon"</v>
+        <f t="shared" si="44"/>
+        <v>"name_fr":"Panthère "</v>
       </c>
       <c r="H81" t="str">
-        <f t="shared" si="37"/>
-        <v>"name_en":"butterfly"</v>
+        <f t="shared" si="45"/>
+        <v>"name_en":"panther"</v>
       </c>
       <c r="I81" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>"img_src":""</v>
       </c>
       <c r="J81" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K81" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L81" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N81" t="str">
-        <f t="shared" si="42"/>
-        <v>{"name_fr":"papillon","name_en":"butterfly","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="50"/>
+        <v>{"name_fr":"Panthère ","name_en":"panther","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O81" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>,</v>
       </c>
       <c r="Q81" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>{"name_fr":"papillon","name_en":"butterfly","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="51"/>
+        <v>{"name_fr":"Panthère ","name_en":"panther","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="B82" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="G82" t="str">
-        <f t="shared" si="36"/>
-        <v>"name_fr":"poisson"</v>
+        <f t="shared" si="44"/>
+        <v>"name_fr":"papillon"</v>
       </c>
       <c r="H82" t="str">
-        <f t="shared" si="37"/>
-        <v>"name_en":"fish"</v>
+        <f t="shared" si="45"/>
+        <v>"name_en":"butterfly"</v>
       </c>
       <c r="I82" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>"img_src":""</v>
       </c>
       <c r="J82" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K82" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L82" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N82" t="str">
-        <f t="shared" si="42"/>
-        <v>{"name_fr":"poisson","name_en":"fish","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="50"/>
+        <v>{"name_fr":"papillon","name_en":"butterfly","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O82" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>,</v>
       </c>
       <c r="Q82" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>{"name_fr":"poisson","name_en":"fish","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="51"/>
+        <v>{"name_fr":"papillon","name_en":"butterfly","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B83" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="G83" t="str">
-        <f t="shared" si="36"/>
-        <v>"name_fr":"poule"</v>
+        <f t="shared" si="44"/>
+        <v>"name_fr":"poisson"</v>
       </c>
       <c r="H83" t="str">
-        <f t="shared" si="37"/>
-        <v>"name_en":"chicken"</v>
+        <f t="shared" si="45"/>
+        <v>"name_en":"fish"</v>
       </c>
       <c r="I83" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>"img_src":""</v>
       </c>
       <c r="J83" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K83" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L83" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N83" t="str">
-        <f t="shared" si="42"/>
-        <v>{"name_fr":"poule","name_en":"chicken","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="50"/>
+        <v>{"name_fr":"poisson","name_en":"fish","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O83" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>,</v>
       </c>
       <c r="Q83" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>{"name_fr":"poule","name_en":"chicken","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="51"/>
+        <v>{"name_fr":"poisson","name_en":"fish","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="G84" t="str">
-        <f t="shared" si="36"/>
-        <v>"name_fr":"puce"</v>
+        <f t="shared" si="44"/>
+        <v>"name_fr":"poule"</v>
       </c>
       <c r="H84" t="str">
-        <f t="shared" si="37"/>
-        <v>"name_en":"flea"</v>
+        <f t="shared" si="45"/>
+        <v>"name_en":"chicken"</v>
       </c>
       <c r="I84" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>"img_src":""</v>
       </c>
       <c r="J84" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K84" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L84" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N84" t="str">
-        <f t="shared" si="42"/>
-        <v>{"name_fr":"puce","name_en":"flea","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="50"/>
+        <v>{"name_fr":"poule","name_en":"chicken","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O84" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>,</v>
       </c>
       <c r="Q84" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>{"name_fr":"puce","name_en":"flea","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="51"/>
+        <v>{"name_fr":"poule","name_en":"chicken","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="B85" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="G85" t="str">
-        <f t="shared" si="36"/>
-        <v>"name_fr":"raton"</v>
+        <f t="shared" si="44"/>
+        <v>"name_fr":"puce"</v>
       </c>
       <c r="H85" t="str">
-        <f t="shared" si="37"/>
-        <v>"name_en":"rat"</v>
+        <f t="shared" si="45"/>
+        <v>"name_en":"flea"</v>
       </c>
       <c r="I85" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>"img_src":""</v>
       </c>
       <c r="J85" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K85" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L85" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N85" t="str">
-        <f t="shared" si="42"/>
-        <v>{"name_fr":"raton","name_en":"rat","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="50"/>
+        <v>{"name_fr":"puce","name_en":"flea","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O85" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>,</v>
       </c>
       <c r="Q85" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>{"name_fr":"raton","name_en":"rat","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="51"/>
+        <v>{"name_fr":"puce","name_en":"flea","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B86" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G86" t="str">
-        <f t="shared" si="36"/>
-        <v>"name_fr":"serpent"</v>
+        <f t="shared" si="44"/>
+        <v>"name_fr":"raton"</v>
       </c>
       <c r="H86" t="str">
-        <f t="shared" si="37"/>
-        <v>"name_en":"snake"</v>
+        <f t="shared" si="45"/>
+        <v>"name_en":"rat"</v>
       </c>
       <c r="I86" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>"img_src":""</v>
       </c>
       <c r="J86" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K86" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L86" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N86" t="str">
-        <f t="shared" si="42"/>
-        <v>{"name_fr":"serpent","name_en":"snake","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="50"/>
+        <v>{"name_fr":"raton","name_en":"rat","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O86" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>,</v>
       </c>
       <c r="Q86" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>{"name_fr":"serpent","name_en":"snake","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="51"/>
+        <v>{"name_fr":"raton","name_en":"rat","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="B87" t="s">
-        <v>70</v>
-      </c>
-      <c r="E87" t="s">
-        <v>208</v>
+        <v>33</v>
       </c>
       <c r="G87" t="str">
-        <f t="shared" si="36"/>
-        <v>"name_fr":"Taureau "</v>
+        <f t="shared" si="44"/>
+        <v>"name_fr":"serpent"</v>
       </c>
       <c r="H87" t="str">
-        <f t="shared" si="37"/>
-        <v>"name_en":"bull"</v>
+        <f t="shared" si="45"/>
+        <v>"name_en":"snake"</v>
       </c>
       <c r="I87" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>"img_src":""</v>
       </c>
       <c r="J87" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K87" t="str">
-        <f t="shared" si="40"/>
-        <v>"desc_en":"Spiralling in chaotic descent, this bull found a moment of clarity, and looked inward. He forgives."</v>
+        <f t="shared" si="48"/>
+        <v>"desc_en":""</v>
       </c>
       <c r="L87" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N87" t="str">
-        <f t="shared" si="42"/>
-        <v>{"name_fr":"Taureau ","name_en":"bull","img_src":"","img_attribution":"","desc_en":"Spiralling in chaotic descent, this bull found a moment of clarity, and looked inward. He forgives.","desc_fr":""}</v>
+        <f t="shared" si="50"/>
+        <v>{"name_fr":"serpent","name_en":"snake","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O87" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>,</v>
       </c>
       <c r="Q87" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>{"name_fr":"Taureau ","name_en":"bull","img_src":"","img_attribution":"","desc_en":"Spiralling in chaotic descent, this bull found a moment of clarity, and looked inward. He forgives.","desc_fr":""},</v>
+        <f t="shared" si="51"/>
+        <v>{"name_fr":"serpent","name_en":"snake","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B88" t="s">
-        <v>87</v>
+        <v>70</v>
+      </c>
+      <c r="E88" t="s">
+        <v>205</v>
       </c>
       <c r="G88" t="str">
-        <f t="shared" si="36"/>
-        <v>"name_fr":"Tigre "</v>
+        <f t="shared" si="44"/>
+        <v>"name_fr":"Taureau "</v>
       </c>
       <c r="H88" t="str">
-        <f t="shared" si="37"/>
-        <v>"name_en":"tiger"</v>
+        <f t="shared" si="45"/>
+        <v>"name_en":"bull"</v>
       </c>
       <c r="I88" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>"img_src":""</v>
       </c>
       <c r="J88" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K88" t="str">
-        <f t="shared" si="40"/>
-        <v>"desc_en":""</v>
+        <f t="shared" si="48"/>
+        <v>"desc_en":"Spiralling in chaotic descent, this bull found a moment of clarity, and looked inward. He forgives."</v>
       </c>
       <c r="L88" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N88" t="str">
-        <f t="shared" si="42"/>
-        <v>{"name_fr":"Tigre ","name_en":"tiger","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="50"/>
+        <v>{"name_fr":"Taureau ","name_en":"bull","img_src":"","img_attribution":"","desc_en":"Spiralling in chaotic descent, this bull found a moment of clarity, and looked inward. He forgives.","desc_fr":""}</v>
       </c>
       <c r="O88" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>,</v>
       </c>
       <c r="Q88" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>{"name_fr":"Tigre ","name_en":"tiger","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="51"/>
+        <v>{"name_fr":"Taureau ","name_en":"bull","img_src":"","img_attribution":"","desc_en":"Spiralling in chaotic descent, this bull found a moment of clarity, and looked inward. He forgives.","desc_fr":""},</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="B89" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="G89" t="str">
-        <f t="shared" si="36"/>
-        <v>"name_fr":"autruche"</v>
+        <f t="shared" si="44"/>
+        <v>"name_fr":"Tigre "</v>
       </c>
       <c r="H89" t="str">
-        <f t="shared" si="37"/>
-        <v>"name_en":"ostrich"</v>
+        <f t="shared" si="45"/>
+        <v>"name_en":"tiger"</v>
       </c>
       <c r="I89" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>"img_src":""</v>
       </c>
       <c r="J89" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>"img_attribution":""</v>
       </c>
       <c r="K89" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>"desc_en":""</v>
       </c>
       <c r="L89" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>"desc_fr":""</v>
       </c>
       <c r="N89" t="str">
-        <f t="shared" si="42"/>
-        <v>{"name_fr":"autruche","name_en":"ostrich","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+        <f t="shared" si="50"/>
+        <v>{"name_fr":"Tigre ","name_en":"tiger","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
       <c r="O89" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>,</v>
       </c>
       <c r="Q89" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>{"name_fr":"autruche","name_en":"ostrich","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+        <f t="shared" si="51"/>
+        <v>{"name_fr":"Tigre ","name_en":"tiger","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
+        <v>123</v>
+      </c>
+      <c r="B90" t="s">
+        <v>124</v>
+      </c>
+      <c r="G90" t="str">
+        <f t="shared" si="44"/>
+        <v>"name_fr":"autruche"</v>
+      </c>
+      <c r="H90" t="str">
+        <f t="shared" si="45"/>
+        <v>"name_en":"ostrich"</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="46"/>
+        <v>"img_src":""</v>
+      </c>
+      <c r="J90" t="str">
+        <f t="shared" si="47"/>
+        <v>"img_attribution":""</v>
+      </c>
+      <c r="K90" t="str">
+        <f t="shared" si="48"/>
+        <v>"desc_en":""</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="49"/>
+        <v>"desc_fr":""</v>
+      </c>
+      <c r="N90" t="str">
+        <f t="shared" si="50"/>
+        <v>{"name_fr":"autruche","name_en":"ostrich","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="43"/>
+        <v>,</v>
+      </c>
+      <c r="Q90" s="3" t="str">
+        <f t="shared" si="51"/>
+        <v>{"name_fr":"autruche","name_en":"ostrich","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
         <v>34</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B91" t="s">
         <v>35</v>
       </c>
-      <c r="G90" t="str">
-        <f t="shared" si="36"/>
+      <c r="G91" t="str">
+        <f t="shared" si="44"/>
         <v>"name_fr":"baleine"</v>
       </c>
-      <c r="H90" t="str">
-        <f t="shared" si="37"/>
+      <c r="H91" t="str">
+        <f t="shared" si="45"/>
         <v>"name_en":"whale"</v>
       </c>
-      <c r="I90" t="str">
-        <f t="shared" si="38"/>
-        <v>"img_src":""</v>
-      </c>
-      <c r="J90" t="str">
-        <f t="shared" si="39"/>
-        <v>"img_attribution":""</v>
-      </c>
-      <c r="K90" t="str">
-        <f t="shared" si="40"/>
-        <v>"desc_en":""</v>
-      </c>
-      <c r="L90" t="str">
-        <f t="shared" si="41"/>
-        <v>"desc_fr":""</v>
-      </c>
-      <c r="N90" t="str">
-        <f t="shared" si="42"/>
+      <c r="I91" t="str">
+        <f t="shared" si="46"/>
+        <v>"img_src":""</v>
+      </c>
+      <c r="J91" t="str">
+        <f t="shared" si="47"/>
+        <v>"img_attribution":""</v>
+      </c>
+      <c r="K91" t="str">
+        <f t="shared" si="48"/>
+        <v>"desc_en":""</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="49"/>
+        <v>"desc_fr":""</v>
+      </c>
+      <c r="N91" t="str">
+        <f t="shared" si="50"/>
         <v>{"name_fr":"baleine","name_en":"whale","img_src":"","img_attribution":"","desc_en":"","desc_fr":""}</v>
       </c>
-      <c r="O90" t="str">
-        <f t="shared" si="35"/>
-        <v>,</v>
-      </c>
-      <c r="Q90" s="3" t="str">
+      <c r="O91" t="str">
         <f t="shared" si="43"/>
+        <v>,</v>
+      </c>
+      <c r="Q91" s="3" t="str">
+        <f t="shared" si="51"/>
         <v>{"name_fr":"baleine","name_en":"whale","img_src":"","img_attribution":"","desc_en":"","desc_fr":""},</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B91" t="s">
-        <v>212</v>
-      </c>
-      <c r="E91" t="s">
-        <v>213</v>
-      </c>
-      <c r="H91" t="str">
-        <f t="shared" si="37"/>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>209</v>
+      </c>
+      <c r="E92" t="s">
+        <v>210</v>
+      </c>
+      <c r="H92" t="str">
+        <f t="shared" si="45"/>
         <v>"name_en":"hampster"</v>
       </c>
     </row>

--- a/les_animaux.xlsx
+++ b/les_animaux.xlsx
@@ -718,9 +718,6 @@
     <t>La plupart des vaches ne peuvent pas effectuer une division longue. Mais cette vache sait bien qu'elle a été sous-estimée. Il faut se méfier.</t>
   </si>
   <si>
-    <t>Ce cerf t'observait au fil de la journée, de loin. Quelles sont ses intentions ?</t>
-  </si>
-  <si>
     <t>This deer has been watching you all morning, from afar. What are her intentions?</t>
   </si>
   <si>
@@ -733,9 +730,6 @@
     <t>This wolf laments over the decline of … what would his ancestors think ?</t>
   </si>
   <si>
-    <t>Ce zèbre vient de sortir de prison. Il veut une nouvelle vie, mais pour ça, il peut pas retourner dans sa ville natale. Il fait face à un choix difficile.</t>
-  </si>
-  <si>
     <t>This zebra has just gotten out of prison. He wants a new life, but for that, he cannot return to ​his home town. He faces a tough choice.</t>
   </si>
   <si>
@@ -746,6 +740,12 @@
   </si>
   <si>
     <t>Cette souris a pris une année sabbatique pour voyager à travers l'Europe. Là, il a appris à faire des pâtes fraîches. Il a hâte de le montrer à ses amis.</t>
+  </si>
+  <si>
+    <t>Ce zèbre vient de sortir de prison. Il veut une nouvelle vie. Mais pour ca, il doit éviter de retourner dans sa ville natale. Il fait face à un choix difficile.</t>
+  </si>
+  <si>
+    <t>Ce cerf t'observait toute la matinée, de loin. Quelles sont ses intentions ?</t>
   </si>
 </sst>
 </file>
@@ -1148,7 +1148,7 @@
   <dimension ref="A1:Q92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1744,11 +1744,11 @@
       <c r="D11" t="s">
         <v>229</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>235</v>
+      <c r="E11" s="3" t="s">
+        <v>234</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="18"/>
@@ -1772,11 +1772,11 @@
       </c>
       <c r="L11" t="str">
         <f t="shared" si="23"/>
-        <v>"desc_fr":"Ce cerf t'observait au fil de la journée, de loin. Quelles sont ses intentions ?"</v>
+        <v>"desc_fr":"Ce cerf t'observait toute la matinée, de loin. Quelles sont ses intentions ?"</v>
       </c>
       <c r="N11" t="str">
         <f t="shared" si="24"/>
-        <v>{"name_fr":"cerf","name_en":"deer","img_src":"siska-vrijburg-AjyF1e_AGmc-unsplash.jpg","img_attribution":"Photo by Siska Vrijburg on Unsplash","desc_en":"This deer has been watching you all morning, from afar. What are her intentions?","desc_fr":"Ce cerf t'observait au fil de la journée, de loin. Quelles sont ses intentions ?"}</v>
+        <v>{"name_fr":"cerf","name_en":"deer","img_src":"siska-vrijburg-AjyF1e_AGmc-unsplash.jpg","img_attribution":"Photo by Siska Vrijburg on Unsplash","desc_en":"This deer has been watching you all morning, from afar. What are her intentions?","desc_fr":"Ce cerf t'observait toute la matinée, de loin. Quelles sont ses intentions ?"}</v>
       </c>
       <c r="O11" t="str">
         <f t="shared" si="16"/>
@@ -1784,12 +1784,12 @@
       </c>
       <c r="Q11" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>{"name_fr":"cerf","name_en":"deer","img_src":"siska-vrijburg-AjyF1e_AGmc-unsplash.jpg","img_attribution":"Photo by Siska Vrijburg on Unsplash","desc_en":"This deer has been watching you all morning, from afar. What are her intentions?","desc_fr":"Ce cerf t'observait au fil de la journée, de loin. Quelles sont ses intentions ?"},</v>
+        <v>{"name_fr":"cerf","name_en":"deer","img_src":"siska-vrijburg-AjyF1e_AGmc-unsplash.jpg","img_attribution":"Photo by Siska Vrijburg on Unsplash","desc_en":"This deer has been watching you all morning, from afar. What are her intentions?","desc_fr":"Ce cerf t'observait toute la matinée, de loin. Quelles sont ses intentions ?"},</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -1800,11 +1800,11 @@
       <c r="D12" t="s">
         <v>227</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>240</v>
+      <c r="E12" s="3" t="s">
+        <v>238</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="G12" t="str">
         <f>CHAR(34) &amp; "name_fr" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;A12&amp;CHAR(34)</f>
@@ -1828,11 +1828,11 @@
       </c>
       <c r="L12" t="str">
         <f>CHAR(34) &amp; "desc_fr" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;F12&amp;CHAR(34)</f>
-        <v>"desc_fr":"Ce zèbre vient de sortir de prison. Il veut une nouvelle vie, mais pour ça, il peut pas retourner dans sa ville natale. Il fait face à un choix difficile."</v>
+        <v>"desc_fr":"Ce zèbre vient de sortir de prison. Il veut une nouvelle vie. Mais pour ca, il doit éviter de retourner dans sa ville natale. Il fait face à un choix difficile."</v>
       </c>
       <c r="N12" t="str">
         <f>"{" &amp; G12 &amp; "," &amp; H12 &amp; "," &amp; I12 &amp; "," &amp; J12 &amp; "," &amp; K12 &amp; "," &amp; L12 &amp; "}"</f>
-        <v>{"name_fr":"zèbre ","name_en":"zebra","img_src":"ron-dauphin-k-8-eX4Y3no-unsplash.jpg","img_attribution":"Photo by Ron Dauphin on Unsplash","desc_en":"This zebra has just gotten out of prison. He wants a new life, but for that, he cannot return to ​his home town. He faces a tough choice.","desc_fr":"Ce zèbre vient de sortir de prison. Il veut une nouvelle vie, mais pour ça, il peut pas retourner dans sa ville natale. Il fait face à un choix difficile."}</v>
+        <v>{"name_fr":"zèbre ","name_en":"zebra","img_src":"ron-dauphin-k-8-eX4Y3no-unsplash.jpg","img_attribution":"Photo by Ron Dauphin on Unsplash","desc_en":"This zebra has just gotten out of prison. He wants a new life, but for that, he cannot return to ​his home town. He faces a tough choice.","desc_fr":"Ce zèbre vient de sortir de prison. Il veut une nouvelle vie. Mais pour ca, il doit éviter de retourner dans sa ville natale. Il fait face à un choix difficile."}</v>
       </c>
       <c r="O12" t="str">
         <f t="shared" si="16"/>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="Q12" s="3" t="str">
         <f>N12&amp;O12</f>
-        <v>{"name_fr":"zèbre ","name_en":"zebra","img_src":"ron-dauphin-k-8-eX4Y3no-unsplash.jpg","img_attribution":"Photo by Ron Dauphin on Unsplash","desc_en":"This zebra has just gotten out of prison. He wants a new life, but for that, he cannot return to ​his home town. He faces a tough choice.","desc_fr":"Ce zèbre vient de sortir de prison. Il veut une nouvelle vie, mais pour ça, il peut pas retourner dans sa ville natale. Il fait face à un choix difficile."},</v>
+        <v>{"name_fr":"zèbre ","name_en":"zebra","img_src":"ron-dauphin-k-8-eX4Y3no-unsplash.jpg","img_attribution":"Photo by Ron Dauphin on Unsplash","desc_en":"This zebra has just gotten out of prison. He wants a new life, but for that, he cannot return to ​his home town. He faces a tough choice.","desc_fr":"Ce zèbre vient de sortir de prison. Il veut une nouvelle vie. Mais pour ca, il doit éviter de retourner dans sa ville natale. Il fait face à un choix difficile."},</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1856,11 +1856,11 @@
       <c r="D13" t="s">
         <v>216</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>243</v>
+      <c r="E13" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>241</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" ref="G13" si="26">CHAR(34) &amp; "name_fr" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;A13&amp;CHAR(34)</f>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="38"/>
@@ -2208,7 +2208,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="E23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Q23" s="3"/>
     </row>
@@ -2241,7 +2241,7 @@
         <v>69</v>
       </c>
       <c r="E26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G26" t="str">
         <f>CHAR(34) &amp; "name_fr" &amp; CHAR(34) &amp; ":" &amp; CHAR(34) &amp;A26&amp;CHAR(34)</f>

--- a/les_animaux.xlsx
+++ b/les_animaux.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="275">
   <si>
     <t>requin</t>
   </si>
@@ -23,12 +23,6 @@
     <t>shark</t>
   </si>
   <si>
-    <t>singe</t>
-  </si>
-  <si>
-    <t>monkey</t>
-  </si>
-  <si>
     <t>mouton</t>
   </si>
   <si>
@@ -77,12 +71,6 @@
     <t>chimpanzee</t>
   </si>
   <si>
-    <t>bee</t>
-  </si>
-  <si>
-    <t>abeille</t>
-  </si>
-  <si>
     <t>cat</t>
   </si>
   <si>
@@ -176,12 +164,6 @@
     <t>bird</t>
   </si>
   <si>
-    <t>tortue </t>
-  </si>
-  <si>
-    <t>turtle</t>
-  </si>
-  <si>
     <t>souris </t>
   </si>
   <si>
@@ -206,15 +188,9 @@
     <t>frog</t>
   </si>
   <si>
-    <t>vache</t>
-  </si>
-  <si>
     <t>poule</t>
   </si>
   <si>
-    <t>canard</t>
-  </si>
-  <si>
     <t>cochon</t>
   </si>
   <si>
@@ -230,15 +206,9 @@
     <t>pig</t>
   </si>
   <si>
-    <t>duck</t>
-  </si>
-  <si>
     <t>chicken</t>
   </si>
   <si>
-    <t>cow</t>
-  </si>
-  <si>
     <t>dinde</t>
   </si>
   <si>
@@ -293,9 +263,6 @@
     <t>elephant</t>
   </si>
   <si>
-    <t>eagle</t>
-  </si>
-  <si>
     <t>Mouche </t>
   </si>
   <si>
@@ -362,12 +329,6 @@
     <t>mussel</t>
   </si>
   <si>
-    <t>cerf</t>
-  </si>
-  <si>
-    <t>deer</t>
-  </si>
-  <si>
     <t>iguane</t>
   </si>
   <si>
@@ -545,9 +506,6 @@
     <t>mathew-schwartz-OjQgsR1oyEw-unsplash.jpg</t>
   </si>
   <si>
-    <t>aigle </t>
-  </si>
-  <si>
     <t>ed-van-duijn-UUdJ-0LQs0M-unsplash.jpg</t>
   </si>
   <si>
@@ -707,9 +665,6 @@
     <t>This wolf laments over the decline of … what would his ancestors think ?</t>
   </si>
   <si>
-    <t>zèbre </t>
-  </si>
-  <si>
     <t>This mouse took a year off school to travel across Europe. There, he learned to make fresh pasta. He is eager to show his friends.</t>
   </si>
   <si>
@@ -854,14 +809,48 @@
     <t>With deathlike indifference, his eyes vacant glass, this goldfish documents what you have yet to recognize.</t>
   </si>
   <si>
-    <t>Avec une indifférence mortelle, ses yeux, vides, vacant, verre et vitreux, ce poisson rouge documente ce que tu n'as pas encore reconnu.</t>
+    <t>Avec une indifférence semblable à la mort, le regarde vide et vitreux, ce poisson rouge documente ce que tu n'as pas encore reconnu.</t>
+  </si>
+  <si>
+    <t>un cerf</t>
+  </si>
+  <si>
+    <t>a deer</t>
+  </si>
+  <si>
+    <t>un canard</t>
+  </si>
+  <si>
+    <t>a duck</t>
+  </si>
+  <si>
+    <t>un singe</t>
+  </si>
+  <si>
+    <t>a monkey</t>
+  </si>
+  <si>
+    <t>une vache</t>
+  </si>
+  <si>
+    <t>a cow</t>
+  </si>
+  <si>
+    <t>une tortue</t>
+  </si>
+  <si>
+    <t>a turtle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -882,6 +871,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -900,16 +896,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1213,7 +1212,7 @@
   <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1228,122 +1227,122 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="B1" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="C1" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="D1" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E1" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="F1" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="B2" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="C2" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="D2" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="E2" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="B3" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="C3" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="D3" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="E3" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="F3" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F4" t="s">
         <v>177</v>
-      </c>
-      <c r="D4" t="s">
-        <v>178</v>
-      </c>
-      <c r="E4" t="s">
-        <v>184</v>
-      </c>
-      <c r="F4" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="D5" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="E5" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="F5" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="D6" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="E6" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="F6" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1354,906 +1353,906 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="D7" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="E7" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="F7" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>273</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>274</v>
       </c>
       <c r="C8" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="D8" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="E8" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="F8" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>271</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>272</v>
       </c>
       <c r="C9" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="D9" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="E9" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="F9" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>269</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>270</v>
       </c>
       <c r="C10" t="s">
+        <v>195</v>
+      </c>
+      <c r="D10" t="s">
+        <v>196</v>
+      </c>
+      <c r="E10" t="s">
+        <v>197</v>
+      </c>
+      <c r="F10" t="s">
         <v>209</v>
-      </c>
-      <c r="D10" t="s">
-        <v>210</v>
-      </c>
-      <c r="E10" t="s">
-        <v>211</v>
-      </c>
-      <c r="F10" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>267</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>268</v>
       </c>
       <c r="C11" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="D11" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="E11" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="F11" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>265</v>
       </c>
       <c r="B12" t="s">
-        <v>116</v>
+        <v>266</v>
       </c>
       <c r="C12" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="D12" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="E12" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="F12" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="D13" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="E13" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="F13" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="D14" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="E14" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="F14" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="B15" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="C15" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="D15" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="E15" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="F15" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B16" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C16" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="D16" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="E16" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="F16" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>220</v>
+      </c>
+      <c r="B17" t="s">
+        <v>200</v>
+      </c>
+      <c r="C17" t="s">
+        <v>238</v>
+      </c>
+      <c r="D17" t="s">
+        <v>236</v>
+      </c>
+      <c r="E17" t="s">
         <v>235</v>
       </c>
-      <c r="B17" t="s">
-        <v>214</v>
-      </c>
-      <c r="C17" t="s">
-        <v>253</v>
-      </c>
-      <c r="D17" t="s">
-        <v>251</v>
-      </c>
-      <c r="E17" t="s">
-        <v>250</v>
-      </c>
       <c r="F17" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="D18" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="E18" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="F18" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="C19" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="D19" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="E19" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="F19" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="B22" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="B23" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E27" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E28" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E29" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E30" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B31" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="E31" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="F31" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E33" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E34" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E36" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="B38" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="E38" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B39" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="B40" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="E40" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="B42" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="E42" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="B43" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E43" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="B44" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="B45" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="B46" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="B47" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="B48" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="B49" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="B50" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="B51" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B52" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="B53" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B54" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B55" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B56" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B57" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B58" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B62" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="B63" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="E63" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B64" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B65" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E65" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B66" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B68" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B69" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E69" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B70" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B71" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E71" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B72" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E72" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B73" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="E73" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B74" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B75" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B76" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B77" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="B78" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B79" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="B80" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B81" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B82" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B84" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B85" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B86" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B87" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B88" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B89" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B90" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B91" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B92" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B93" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B94" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B96" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B97" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B99" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="B100" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B101" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="E102" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -2268,723 +2267,602 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:C94"/>
+  <dimension ref="A1:E94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F77" sqref="F77"/>
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>21</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>230</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="B14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>235</v>
+        <v>106</v>
       </c>
       <c r="B15" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>234</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B22" t="s">
-        <v>99</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B23" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>236</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>237</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>238</v>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>133</v>
+        <v>224</v>
       </c>
       <c r="B29" t="s">
-        <v>131</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="B30" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="B31" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>137</v>
+        <v>104</v>
+      </c>
+      <c r="B32" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>138</v>
+      <c r="A33" t="s">
+        <v>115</v>
+      </c>
+      <c r="B33" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>142</v>
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>143</v>
+      <c r="A36" t="s">
+        <v>117</v>
+      </c>
+      <c r="B36" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>145</v>
+      <c r="A37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>159</v>
+      <c r="A39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
+      </c>
+      <c r="B40" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>149</v>
+      <c r="A41" t="s">
+        <v>82</v>
       </c>
       <c r="B41" t="s">
-        <v>150</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>151</v>
+      <c r="A42" t="s">
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>152</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>153</v>
+      <c r="A43" t="s">
+        <v>93</v>
       </c>
       <c r="B43" t="s">
-        <v>154</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>155</v>
+      <c r="A44" t="s">
+        <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="B47" t="s">
-        <v>31</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="B48" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B49" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="B52" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>102</v>
+        <v>221</v>
       </c>
       <c r="B53" t="s">
-        <v>106</v>
+        <v>222</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>119</v>
+        <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>120</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="B56" t="s">
-        <v>109</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B57" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B58" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="B59" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="B60" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>97</v>
-      </c>
-      <c r="B61" t="s">
-        <v>100</v>
+      <c r="A61" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>11</v>
+      <c r="A62" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="B62" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B63" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>124</v>
-      </c>
-      <c r="B64" t="s">
+      <c r="A64" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B65" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>61</v>
-      </c>
-      <c r="B65" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>81</v>
-      </c>
-      <c r="B66" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="B67" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="C67" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="B68" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B69" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>43</v>
-      </c>
-      <c r="B70" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>130</v>
-      </c>
-      <c r="B71" t="s">
+      <c r="A71" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>79</v>
-      </c>
-      <c r="B72" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>28</v>
-      </c>
-      <c r="B73" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>93</v>
-      </c>
-      <c r="B74" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>45</v>
-      </c>
-      <c r="B75" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>104</v>
-      </c>
-      <c r="B76" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>4</v>
-      </c>
-      <c r="B77" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>51</v>
-      </c>
-      <c r="B78" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>107</v>
-      </c>
-      <c r="B79" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>17</v>
-      </c>
-      <c r="B80" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>126</v>
-      </c>
-      <c r="B81" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>86</v>
-      </c>
-      <c r="B82" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>95</v>
-      </c>
-      <c r="B83" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>57</v>
-      </c>
-      <c r="B84" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>64</v>
-      </c>
-      <c r="B85" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>6</v>
-      </c>
-      <c r="B86" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>48</v>
-      </c>
-      <c r="B87" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>32</v>
-      </c>
-      <c r="B88" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>78</v>
-      </c>
-      <c r="B90" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>122</v>
-      </c>
-      <c r="B91" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>34</v>
-      </c>
-      <c r="B92" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B93" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>239</v>
-      </c>
+      <c r="B71" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
-        <v>240</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A1:B94">
+    <sortCondition ref="A1:A94"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>